--- a/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
+++ b/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Step Migrasi MFAPPL - OLSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D0993-E7AE-4C2D-B964-0B02FD69C008}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E25A0-6253-4465-8252-718E3DEFF6C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Migrasi data recon, minta dulu data recon di kirim ke PIC MFAPPL jika belum di kirim ( filter by Agreement Number )</t>
   </si>
@@ -41,12 +42,69 @@
   <si>
     <t>Lanjut migrasi Agreement - Unit</t>
   </si>
+  <si>
+    <t>Connection Managers</t>
+  </si>
+  <si>
+    <t>SQL SERVER</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>Recon Migration</t>
+  </si>
+  <si>
+    <t>Request staging Recon Data to Tim MFAPPL</t>
+  </si>
+  <si>
+    <t>Recon Detail Schedules</t>
+  </si>
+  <si>
+    <r>
+      <t>Recon Agrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ((Sample Screen)</t>
+    </r>
+  </si>
+  <si>
+    <t>Open SSIS Pacakge</t>
+  </si>
+  <si>
+    <t>Email Sample:</t>
+  </si>
+  <si>
+    <t>RE: Service Request S0280399 RE: #197832 - #201120 - Migrasi Data Kendaraan PT Kinarya Selarasa Piranti</t>
+  </si>
+  <si>
+    <t>Migration Process</t>
+  </si>
+  <si>
+    <t>Execute Task</t>
+  </si>
+  <si>
+    <t>Urutan Proses Migrasi Recon lihat di sini:</t>
+  </si>
+  <si>
+    <t>S0272274 - (Urgent) Migrasi Data MFAPPL ke OLSS (Agreement PT KSP 3 Agreement)</t>
+  </si>
+  <si>
+    <t>20220613MON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +112,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,14 +155,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -224,6 +318,1381 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>113976</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC11866-02E2-427A-BD94-24BB9CF39B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="571500"/>
+          <a:ext cx="2590476" cy="3019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>131714</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>151524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3536ED-8005-40E9-B06F-3EC0CCFFE7C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="3810000"/>
+          <a:ext cx="13085714" cy="7009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>151690</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>170714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F45412-79CA-4895-9FE7-9348CE74A29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="11239500"/>
+          <a:ext cx="5676190" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113590</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>132614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FF21A4-DA57-4112-A7DA-4BA8CA01F7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="11391900"/>
+          <a:ext cx="5676190" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>151690</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>170714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D55835E-0583-44FE-8BA0-42C6ECFD6599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="11239500"/>
+          <a:ext cx="5676190" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>113590</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>132614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F0A510-98B4-4D46-B412-4CC3168EB61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="11391900"/>
+          <a:ext cx="5676190" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>56809</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D102E8-EC9A-477B-ACE0-28716B4BA740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571500" y="55245000"/>
+          <a:ext cx="3914776" cy="2723809"/>
+          <a:chOff x="571500" y="37909500"/>
+          <a:chExt cx="3914776" cy="2723809"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Picture 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D7AAB5-482D-4DA4-9458-7E7B8E3455C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571500" y="37909500"/>
+            <a:ext cx="3419048" cy="2723809"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Arrow: Right 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C71E81-B530-4AD4-9907-28C03DFFF3D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3486150" y="39023925"/>
+            <a:ext cx="1000126" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 51258"/>
+              <a:gd name="adj2" fmla="val 56797"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="9000">
+                <a:srgbClr val="FDF2EB"/>
+              </a:gs>
+              <a:gs pos="0">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="23000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="C00000"/>
+              </a:gs>
+              <a:gs pos="18000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="45000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="95250">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>37119</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>170595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C9A21C-F5FF-4C86-85DA-FEEB83BDE4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="37909500"/>
+          <a:ext cx="7847619" cy="6838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>85729</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="Group 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EACF60-D138-4CC7-9CCD-B8EC97BB5E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571500" y="32004000"/>
+          <a:ext cx="3733801" cy="4467229"/>
+          <a:chOff x="571500" y="31813500"/>
+          <a:chExt cx="3733801" cy="4467229"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="Group 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1566D57-AE42-4554-AE8D-6FC89380AAE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="571500" y="31813500"/>
+            <a:ext cx="3733801" cy="3780952"/>
+            <a:chOff x="571500" y="30480000"/>
+            <a:chExt cx="3733801" cy="3780952"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Picture 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E52E9AF-5D1A-4393-8F02-4D5416278C5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="571500" y="30480000"/>
+              <a:ext cx="3200000" cy="3780952"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="95000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Arrow: Right 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3B15F3-2777-48E3-8978-5DD978BDB9FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3305175" y="31746825"/>
+              <a:ext cx="1000126" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 51258"/>
+                <a:gd name="adj2" fmla="val 56797"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="9000">
+                  <a:srgbClr val="FDF2EB"/>
+                </a:gs>
+                <a:gs pos="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="23000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="C00000"/>
+                </a:gs>
+                <a:gs pos="18000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="45000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="0" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="95250">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Arrow: Right 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D52B501-C13E-446B-95E1-DCE5DFC3432F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2047874" y="35542541"/>
+            <a:ext cx="904877" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 51258"/>
+              <a:gd name="adj2" fmla="val 56797"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="9000">
+                <a:srgbClr val="FDF2EB"/>
+              </a:gs>
+              <a:gs pos="0">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="23000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="C00000"/>
+              </a:gs>
+              <a:gs pos="18000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="45000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="95250">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>170476</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>132500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C71D8F-193D-4F73-9987-F1E6A04824FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="35052000"/>
+          <a:ext cx="7790476" cy="6800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>37119</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>170595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8894A5-D577-4EBD-9201-A24078162193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="30480000"/>
+          <a:ext cx="7847619" cy="6838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>170667</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>85262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76199100-50E5-435A-9983-DDE18EE36B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="19240500"/>
+          <a:ext cx="6266667" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>103714</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>103905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC4F6D7-AF47-4548-A56D-98ECDA4C9BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="24193500"/>
+          <a:ext cx="8485714" cy="6961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>18595</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344BB652-FF82-4B15-B7DE-B1F6D23DD936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571500" y="24384000"/>
+          <a:ext cx="3257550" cy="3638095"/>
+          <a:chOff x="571500" y="24193500"/>
+          <a:chExt cx="3257550" cy="3638095"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CAD8BA-C3B6-4E5E-BE68-6AC8F93E12FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571500" y="24193500"/>
+            <a:ext cx="2590476" cy="3638095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Arrow: Right 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A08B70D-C6DC-4195-9280-2B514E5C8E8B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3067050" y="25746075"/>
+            <a:ext cx="762000" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 51258"/>
+              <a:gd name="adj2" fmla="val 56797"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="9000">
+                <a:srgbClr val="FDF2EB"/>
+              </a:gs>
+              <a:gs pos="0">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="23000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="C00000"/>
+              </a:gs>
+              <a:gs pos="18000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="45000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="95250">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DA7DAB-C671-4DBC-B132-C05519CCA27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562476" y="25374600"/>
+          <a:ext cx="1676400" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="78000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="67000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>151714</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1609A9-3051-4B3F-82E7-0678ECFA8238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="43815000"/>
+          <a:ext cx="5485714" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113614</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>151900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558FE6C3-9727-405D-993F-743A02B76445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="43967400"/>
+          <a:ext cx="5485714" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>93614</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>113424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBE7EC9-02C1-4103-B699-19BCC2043F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="3962400"/>
+          <a:ext cx="13085714" cy="7009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75876</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AD1878-3B44-48A3-8F58-4E5A3603C4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="723900"/>
+          <a:ext cx="2590476" cy="3019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -530,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921683F4-D4D2-4D45-A400-8C1534B1F4F8}">
   <dimension ref="B2:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -555,4 +2024,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3F2FA3-A8FE-4F8B-AB13-8DABD810DCE0}">
+  <dimension ref="B2:AJ289"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
+++ b/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Step Migrasi MFAPPL - OLSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E25A0-6253-4465-8252-718E3DEFF6C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DB56EA-234B-4C81-BC4A-A5050EE11274}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Migrasi data recon, minta dulu data recon di kirim ke PIC MFAPPL jika belum di kirim ( filter by Agreement Number )</t>
   </si>
@@ -99,12 +100,57 @@
   <si>
     <t>20220613MON</t>
   </si>
+  <si>
+    <t>select a.* from db_owner.recon_agreement a where a.agreementnumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_detail_schedules a where a.agreementnumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_detail_schedules_merge a where a.agreementnumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_financed_objects a where a.agreementnumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_payment_schedules a where a.agreementnumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_skd a where a.skd_number = '0000694/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_skd_detail a where a.skd_number = '0000694/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MKT_SKD a where a.SKDNo = '0000694/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MKT_SKD_Dtl a where a.IdTb_MKT_SKD = 4442;</t>
+  </si>
+  <si>
+    <t>select a.* from OPLAgreement a where a.AgreementNumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from OPLAgreementDetails a where a.IdOPLAgreement = 3498;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_BIL_PaySchedule a where a.IdOPLAgreement = 3498;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_BIL_PayScheduleDtl a where a.IdTb_BIL_PaySchedule = 4515;</t>
+  </si>
+  <si>
+    <t>select a.* from OPLUObjectLease a where a.IdOPLAgreement = 3498;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_OPL_Unit a where a.CreatedBy = 'Migrasi MFAPPL' and convert(date, a.CreatedDate) = '2022-10-03' order by a.CreatedDate desc;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +174,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -164,6 +222,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1700,6 +1764,419 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>113095</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F47B98-AE64-4C40-AD8E-30967EC5DA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="571500"/>
+          <a:ext cx="9638095" cy="3285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>17547</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE04997F-8138-49A2-8075-660867F693A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4000500"/>
+          <a:ext cx="12019047" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>131952</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>37476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756ED814-705F-4899-81D2-87B933976925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="8572500"/>
+          <a:ext cx="11180952" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>93852</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>189876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DE663-18EE-4348-8A23-8EF91269BABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="8724900"/>
+          <a:ext cx="11180952" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>17547</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA2A8CC-F7BC-4395-8E47-07E628B2E782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="13906500"/>
+          <a:ext cx="12019047" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>141643</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>170809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2D728A-F1A8-4AAA-A0BC-D6015CE4F493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="18478500"/>
+          <a:ext cx="9857143" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>8119</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24437A53-199A-441F-AF52-975B925318DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="23812500"/>
+          <a:ext cx="11247619" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>160519</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDBC9EB-0B18-4F0E-A47C-3083A9700230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="23964900"/>
+          <a:ext cx="11247619" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2030,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3F2FA3-A8FE-4F8B-AB13-8DABD810DCE0}">
   <dimension ref="B2:AJ289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -2130,4 +2607,659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46E3CBB-14E6-4306-99B4-EDC2BEE6A34A}">
+  <dimension ref="D22:BI39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+    </row>
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+    </row>
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+    </row>
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+    </row>
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+    </row>
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+    </row>
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+    </row>
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="39" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
+++ b/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Step Migrasi MFAPPL - OLSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DB56EA-234B-4C81-BC4A-A5050EE11274}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A8CD3-710F-4B72-81A5-159789CD782A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
   <si>
     <t>Migrasi data recon, minta dulu data recon di kirim ke PIC MFAPPL jika belum di kirim ( filter by Agreement Number )</t>
   </si>
@@ -145,12 +145,287 @@
   <si>
     <t>select a.* from Tb_OPL_Unit a where a.CreatedBy = 'Migrasi MFAPPL' and convert(date, a.CreatedDate) = '2022-10-03' order by a.CreatedDate desc;</t>
   </si>
+  <si>
+    <t>SETELAH MIGRASI CEK DI AGREEMENT BERIKUT:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLAgreement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AdditionalReportClause</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = null --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SEHARUSNYA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>INSERT MANUAL:</t>
+  </si>
+  <si>
+    <t>Tb_MGT_HistoryDoc</t>
+  </si>
+  <si>
+    <t>TB_MGT_DailyRecordCar</t>
+  </si>
+  <si>
+    <t>TB_MGT_DailyRecordCarHistory</t>
+  </si>
+  <si>
+    <t>begin tran;</t>
+  </si>
+  <si>
+    <t>insert into Tb_MGT_HistoryDoc (</t>
+  </si>
+  <si>
+    <t>insert into TB_MGT_DailyRecordCar (</t>
+  </si>
+  <si>
+    <t>insert into TB_MGT_DailyRecordCarHistory (</t>
+  </si>
+  <si>
+    <t>--IdTb_MGT_HistoryDoc,</t>
+  </si>
+  <si>
+    <t>--IdTb_MGT_DailyRecordCar,</t>
+  </si>
+  <si>
+    <t>IdTb_MGT_DailyRecordCar,</t>
+  </si>
+  <si>
+    <t>IdTb_OPL_Unit, StartDate, EndDate, DocValue, IsDelete,</t>
+  </si>
+  <si>
+    <t>IdOPLAgreement, IdTb_OPL_Unit, Mileage, InDate, OutDate,</t>
+  </si>
+  <si>
+    <t>RemarksSys, CreatedBy, CreatedDate, LastModifiedBy, LastModifiedDate</t>
+  </si>
+  <si>
+    <t>Allocation, [Status], Aging, Province, City, ParkingLocation,</t>
+  </si>
+  <si>
+    <t>Allocation, Status, Aging,</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>SoldPrice, BookValue, GainLoss, SoldDate,</t>
+  </si>
+  <si>
+    <t>Province, City, ParkingLocation,</t>
+  </si>
+  <si>
+    <t>ContractStatus, BuyerName, Remark, IsDelete,</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>RemarksSys, CreatedBy, CreatedDate, LastUpdatedBy, LastUpdatedDate</t>
+  </si>
+  <si>
+    <t>ContractStatus, BuyerName, Remark,</t>
+  </si>
+  <si>
+    <t>--null as IdTb_MGT_HistoryDoc,</t>
+  </si>
+  <si>
+    <t>IsDelete, RemarksSys, CreatedBy, CreatedDate, LastUpdatedBy, LastUpdatedDate</t>
+  </si>
+  <si>
+    <t>b.IdTb_OPL_Unit,</t>
+  </si>
+  <si>
+    <t>convert(date, getdate()) as StartDate,</t>
+  </si>
+  <si>
+    <t>dateadd(year, 1, convert(date, getdate())) as EndDate,</t>
+  </si>
+  <si>
+    <t>--null as IdTb_MGT_DailyRecordCar,</t>
+  </si>
+  <si>
+    <t>1 as DocValue, -- 1 = STNK | 2 = KEUR | 3 = Insurance</t>
+  </si>
+  <si>
+    <t>a.IdOPLAgreement,</t>
+  </si>
+  <si>
+    <t>0 as IsDelete,</t>
+  </si>
+  <si>
+    <t>'S0292751' as RemarksSys,</t>
+  </si>
+  <si>
+    <t>0 as Mileage,</t>
+  </si>
+  <si>
+    <t>'BSI ARYO BUDI' as CreatedBy,</t>
+  </si>
+  <si>
+    <t>null as InDate,</t>
+  </si>
+  <si>
+    <t>getdate() as CreatedDate,</t>
+  </si>
+  <si>
+    <t>null as OutDate,</t>
+  </si>
+  <si>
+    <t>null as LastModifiedBy,</t>
+  </si>
+  <si>
+    <t>44 as Allocation, -- Active</t>
+  </si>
+  <si>
+    <t>null as LastModifiedDate</t>
+  </si>
+  <si>
+    <t>48 as [Status], -- In Use/ Running Contract</t>
+  </si>
+  <si>
+    <t>from OPLAgreement a</t>
+  </si>
+  <si>
+    <t>0 as Aging,</t>
+  </si>
+  <si>
+    <t>from TB_MGT_DailyRecordCar a</t>
+  </si>
+  <si>
+    <t>join OPLUObjectLease b</t>
+  </si>
+  <si>
+    <t>null as Province,</t>
+  </si>
+  <si>
+    <t>where a.IdOPLAgreement = 3525;</t>
+  </si>
+  <si>
+    <t>on a.IdOPLAgreement = b.IdOPLAgreement</t>
+  </si>
+  <si>
+    <t>null as City,</t>
+  </si>
+  <si>
+    <t>where a.AgreementNumber = '0000744/4/08/08/2022'</t>
+  </si>
+  <si>
+    <t>null as ParkingLocation,</t>
+  </si>
+  <si>
+    <t>--rollback tran;</t>
+  </si>
+  <si>
+    <t>null as SoldPrice,</t>
+  </si>
+  <si>
+    <t>--commit tran;</t>
+  </si>
+  <si>
+    <t>union all</t>
+  </si>
+  <si>
+    <t>null as BookValue,</t>
+  </si>
+  <si>
+    <t>null as GainLoss,</t>
+  </si>
+  <si>
+    <t>null as SoldDate,</t>
+  </si>
+  <si>
+    <t>null as ContractStatus,</t>
+  </si>
+  <si>
+    <t>null as BuyerName,</t>
+  </si>
+  <si>
+    <t>null as Remark,</t>
+  </si>
+  <si>
+    <t>2 as DocValue, -- 1 = STNK | 2 = KEUR | 3 = Insurance</t>
+  </si>
+  <si>
+    <t>null as LastUpdatedBy,</t>
+  </si>
+  <si>
+    <t>null as LastUpdatedDate</t>
+  </si>
+  <si>
+    <t>where a.AgreementNumber = '0000017/4/34/08/2022';</t>
+  </si>
+  <si>
+    <t>3 as DocValue, -- 1 = STNK | 2 = KEUR | 3 = Insurance</t>
+  </si>
+  <si>
+    <t>where a.AgreementNumber = '0000744/4/08/08/2022';</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +455,36 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +503,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -228,6 +537,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2611,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46E3CBB-14E6-4306-99B4-EDC2BEE6A34A}">
-  <dimension ref="D22:BI39"/>
+  <dimension ref="C22:CL253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,6 +3582,4187 @@
       <c r="BH39" s="5"/>
       <c r="BI39" s="5"/>
     </row>
+    <row r="179" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C179" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C181" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C187" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF187" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH187" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C189" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+      <c r="R189" s="10"/>
+      <c r="S189" s="10"/>
+      <c r="T189" s="10"/>
+      <c r="U189" s="10"/>
+      <c r="V189" s="10"/>
+      <c r="W189" s="10"/>
+      <c r="X189" s="10"/>
+      <c r="Y189" s="10"/>
+      <c r="Z189" s="10"/>
+      <c r="AA189" s="10"/>
+      <c r="AB189" s="10"/>
+      <c r="AC189" s="10"/>
+      <c r="AD189" s="10"/>
+      <c r="AF189" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG189" s="10"/>
+      <c r="AH189" s="10"/>
+      <c r="AI189" s="10"/>
+      <c r="AJ189" s="10"/>
+      <c r="AK189" s="10"/>
+      <c r="AL189" s="10"/>
+      <c r="AM189" s="10"/>
+      <c r="AN189" s="10"/>
+      <c r="AO189" s="10"/>
+      <c r="AP189" s="10"/>
+      <c r="AQ189" s="10"/>
+      <c r="AR189" s="10"/>
+      <c r="AS189" s="10"/>
+      <c r="AT189" s="10"/>
+      <c r="AU189" s="10"/>
+      <c r="AV189" s="10"/>
+      <c r="AW189" s="10"/>
+      <c r="AX189" s="10"/>
+      <c r="AY189" s="10"/>
+      <c r="AZ189" s="10"/>
+      <c r="BA189" s="10"/>
+      <c r="BB189" s="10"/>
+      <c r="BC189" s="10"/>
+      <c r="BD189" s="10"/>
+      <c r="BE189" s="10"/>
+      <c r="BF189" s="10"/>
+      <c r="BH189" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI189" s="10"/>
+      <c r="BJ189" s="10"/>
+      <c r="BK189" s="10"/>
+      <c r="BL189" s="10"/>
+      <c r="BM189" s="10"/>
+      <c r="BN189" s="10"/>
+      <c r="BO189" s="10"/>
+      <c r="BP189" s="10"/>
+      <c r="BQ189" s="10"/>
+      <c r="BR189" s="10"/>
+      <c r="BS189" s="10"/>
+      <c r="BT189" s="10"/>
+      <c r="BU189" s="10"/>
+      <c r="BV189" s="10"/>
+      <c r="BW189" s="10"/>
+      <c r="BX189" s="10"/>
+      <c r="BY189" s="10"/>
+      <c r="BZ189" s="10"/>
+      <c r="CA189" s="10"/>
+      <c r="CB189" s="10"/>
+      <c r="CC189" s="10"/>
+      <c r="CD189" s="10"/>
+      <c r="CE189" s="10"/>
+      <c r="CF189" s="10"/>
+      <c r="CG189" s="10"/>
+      <c r="CH189" s="10"/>
+      <c r="CI189" s="10"/>
+      <c r="CJ189" s="10"/>
+      <c r="CK189" s="10"/>
+      <c r="CL189" s="10"/>
+    </row>
+    <row r="190" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C190" s="9"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+      <c r="R190" s="10"/>
+      <c r="S190" s="10"/>
+      <c r="T190" s="10"/>
+      <c r="U190" s="10"/>
+      <c r="V190" s="10"/>
+      <c r="W190" s="10"/>
+      <c r="X190" s="10"/>
+      <c r="Y190" s="10"/>
+      <c r="Z190" s="10"/>
+      <c r="AA190" s="10"/>
+      <c r="AB190" s="10"/>
+      <c r="AC190" s="10"/>
+      <c r="AD190" s="10"/>
+      <c r="AF190" s="9"/>
+      <c r="AG190" s="10"/>
+      <c r="AH190" s="10"/>
+      <c r="AI190" s="10"/>
+      <c r="AJ190" s="10"/>
+      <c r="AK190" s="10"/>
+      <c r="AL190" s="10"/>
+      <c r="AM190" s="10"/>
+      <c r="AN190" s="10"/>
+      <c r="AO190" s="10"/>
+      <c r="AP190" s="10"/>
+      <c r="AQ190" s="10"/>
+      <c r="AR190" s="10"/>
+      <c r="AS190" s="10"/>
+      <c r="AT190" s="10"/>
+      <c r="AU190" s="10"/>
+      <c r="AV190" s="10"/>
+      <c r="AW190" s="10"/>
+      <c r="AX190" s="10"/>
+      <c r="AY190" s="10"/>
+      <c r="AZ190" s="10"/>
+      <c r="BA190" s="10"/>
+      <c r="BB190" s="10"/>
+      <c r="BC190" s="10"/>
+      <c r="BD190" s="10"/>
+      <c r="BE190" s="10"/>
+      <c r="BF190" s="10"/>
+      <c r="BH190" s="9"/>
+      <c r="BI190" s="10"/>
+      <c r="BJ190" s="10"/>
+      <c r="BK190" s="10"/>
+      <c r="BL190" s="10"/>
+      <c r="BM190" s="10"/>
+      <c r="BN190" s="10"/>
+      <c r="BO190" s="10"/>
+      <c r="BP190" s="10"/>
+      <c r="BQ190" s="10"/>
+      <c r="BR190" s="10"/>
+      <c r="BS190" s="10"/>
+      <c r="BT190" s="10"/>
+      <c r="BU190" s="10"/>
+      <c r="BV190" s="10"/>
+      <c r="BW190" s="10"/>
+      <c r="BX190" s="10"/>
+      <c r="BY190" s="10"/>
+      <c r="BZ190" s="10"/>
+      <c r="CA190" s="10"/>
+      <c r="CB190" s="10"/>
+      <c r="CC190" s="10"/>
+      <c r="CD190" s="10"/>
+      <c r="CE190" s="10"/>
+      <c r="CF190" s="10"/>
+      <c r="CG190" s="10"/>
+      <c r="CH190" s="10"/>
+      <c r="CI190" s="10"/>
+      <c r="CJ190" s="10"/>
+      <c r="CK190" s="10"/>
+      <c r="CL190" s="10"/>
+    </row>
+    <row r="191" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C191" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
+      <c r="T191" s="10"/>
+      <c r="U191" s="10"/>
+      <c r="V191" s="10"/>
+      <c r="W191" s="10"/>
+      <c r="X191" s="10"/>
+      <c r="Y191" s="10"/>
+      <c r="Z191" s="10"/>
+      <c r="AA191" s="10"/>
+      <c r="AB191" s="10"/>
+      <c r="AC191" s="10"/>
+      <c r="AD191" s="10"/>
+      <c r="AF191" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG191" s="10"/>
+      <c r="AH191" s="10"/>
+      <c r="AI191" s="10"/>
+      <c r="AJ191" s="10"/>
+      <c r="AK191" s="10"/>
+      <c r="AL191" s="10"/>
+      <c r="AM191" s="10"/>
+      <c r="AN191" s="10"/>
+      <c r="AO191" s="10"/>
+      <c r="AP191" s="10"/>
+      <c r="AQ191" s="10"/>
+      <c r="AR191" s="10"/>
+      <c r="AS191" s="10"/>
+      <c r="AT191" s="10"/>
+      <c r="AU191" s="10"/>
+      <c r="AV191" s="10"/>
+      <c r="AW191" s="10"/>
+      <c r="AX191" s="10"/>
+      <c r="AY191" s="10"/>
+      <c r="AZ191" s="10"/>
+      <c r="BA191" s="10"/>
+      <c r="BB191" s="10"/>
+      <c r="BC191" s="10"/>
+      <c r="BD191" s="10"/>
+      <c r="BE191" s="10"/>
+      <c r="BF191" s="10"/>
+      <c r="BH191" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI191" s="10"/>
+      <c r="BJ191" s="10"/>
+      <c r="BK191" s="10"/>
+      <c r="BL191" s="10"/>
+      <c r="BM191" s="10"/>
+      <c r="BN191" s="10"/>
+      <c r="BO191" s="10"/>
+      <c r="BP191" s="10"/>
+      <c r="BQ191" s="10"/>
+      <c r="BR191" s="10"/>
+      <c r="BS191" s="10"/>
+      <c r="BT191" s="10"/>
+      <c r="BU191" s="10"/>
+      <c r="BV191" s="10"/>
+      <c r="BW191" s="10"/>
+      <c r="BX191" s="10"/>
+      <c r="BY191" s="10"/>
+      <c r="BZ191" s="10"/>
+      <c r="CA191" s="10"/>
+      <c r="CB191" s="10"/>
+      <c r="CC191" s="10"/>
+      <c r="CD191" s="10"/>
+      <c r="CE191" s="10"/>
+      <c r="CF191" s="10"/>
+      <c r="CG191" s="10"/>
+      <c r="CH191" s="10"/>
+      <c r="CI191" s="10"/>
+      <c r="CJ191" s="10"/>
+      <c r="CK191" s="10"/>
+      <c r="CL191" s="10"/>
+    </row>
+    <row r="192" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C192" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+      <c r="T192" s="10"/>
+      <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+      <c r="X192" s="10"/>
+      <c r="Y192" s="10"/>
+      <c r="Z192" s="10"/>
+      <c r="AA192" s="10"/>
+      <c r="AB192" s="10"/>
+      <c r="AC192" s="10"/>
+      <c r="AD192" s="10"/>
+      <c r="AF192" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG192" s="10"/>
+      <c r="AH192" s="10"/>
+      <c r="AI192" s="10"/>
+      <c r="AJ192" s="10"/>
+      <c r="AK192" s="10"/>
+      <c r="AL192" s="10"/>
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
+      <c r="AO192" s="10"/>
+      <c r="AP192" s="10"/>
+      <c r="AQ192" s="10"/>
+      <c r="AR192" s="10"/>
+      <c r="AS192" s="10"/>
+      <c r="AT192" s="10"/>
+      <c r="AU192" s="10"/>
+      <c r="AV192" s="10"/>
+      <c r="AW192" s="10"/>
+      <c r="AX192" s="10"/>
+      <c r="AY192" s="10"/>
+      <c r="AZ192" s="10"/>
+      <c r="BA192" s="10"/>
+      <c r="BB192" s="10"/>
+      <c r="BC192" s="10"/>
+      <c r="BD192" s="10"/>
+      <c r="BE192" s="10"/>
+      <c r="BF192" s="10"/>
+      <c r="BH192" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI192" s="10"/>
+      <c r="BJ192" s="10"/>
+      <c r="BK192" s="10"/>
+      <c r="BL192" s="10"/>
+      <c r="BM192" s="10"/>
+      <c r="BN192" s="10"/>
+      <c r="BO192" s="10"/>
+      <c r="BP192" s="10"/>
+      <c r="BQ192" s="10"/>
+      <c r="BR192" s="10"/>
+      <c r="BS192" s="10"/>
+      <c r="BT192" s="10"/>
+      <c r="BU192" s="10"/>
+      <c r="BV192" s="10"/>
+      <c r="BW192" s="10"/>
+      <c r="BX192" s="10"/>
+      <c r="BY192" s="10"/>
+      <c r="BZ192" s="10"/>
+      <c r="CA192" s="10"/>
+      <c r="CB192" s="10"/>
+      <c r="CC192" s="10"/>
+      <c r="CD192" s="10"/>
+      <c r="CE192" s="10"/>
+      <c r="CF192" s="10"/>
+      <c r="CG192" s="10"/>
+      <c r="CH192" s="10"/>
+      <c r="CI192" s="10"/>
+      <c r="CJ192" s="10"/>
+      <c r="CK192" s="10"/>
+      <c r="CL192" s="10"/>
+    </row>
+    <row r="193" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C193" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10"/>
+      <c r="S193" s="10"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+      <c r="Z193" s="10"/>
+      <c r="AA193" s="10"/>
+      <c r="AB193" s="10"/>
+      <c r="AC193" s="10"/>
+      <c r="AD193" s="10"/>
+      <c r="AF193" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG193" s="10"/>
+      <c r="AH193" s="10"/>
+      <c r="AI193" s="10"/>
+      <c r="AJ193" s="10"/>
+      <c r="AK193" s="10"/>
+      <c r="AL193" s="10"/>
+      <c r="AM193" s="10"/>
+      <c r="AN193" s="10"/>
+      <c r="AO193" s="10"/>
+      <c r="AP193" s="10"/>
+      <c r="AQ193" s="10"/>
+      <c r="AR193" s="10"/>
+      <c r="AS193" s="10"/>
+      <c r="AT193" s="10"/>
+      <c r="AU193" s="10"/>
+      <c r="AV193" s="10"/>
+      <c r="AW193" s="10"/>
+      <c r="AX193" s="10"/>
+      <c r="AY193" s="10"/>
+      <c r="AZ193" s="10"/>
+      <c r="BA193" s="10"/>
+      <c r="BB193" s="10"/>
+      <c r="BC193" s="10"/>
+      <c r="BD193" s="10"/>
+      <c r="BE193" s="10"/>
+      <c r="BF193" s="10"/>
+      <c r="BH193" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI193" s="10"/>
+      <c r="BJ193" s="10"/>
+      <c r="BK193" s="10"/>
+      <c r="BL193" s="10"/>
+      <c r="BM193" s="10"/>
+      <c r="BN193" s="10"/>
+      <c r="BO193" s="10"/>
+      <c r="BP193" s="10"/>
+      <c r="BQ193" s="10"/>
+      <c r="BR193" s="10"/>
+      <c r="BS193" s="10"/>
+      <c r="BT193" s="10"/>
+      <c r="BU193" s="10"/>
+      <c r="BV193" s="10"/>
+      <c r="BW193" s="10"/>
+      <c r="BX193" s="10"/>
+      <c r="BY193" s="10"/>
+      <c r="BZ193" s="10"/>
+      <c r="CA193" s="10"/>
+      <c r="CB193" s="10"/>
+      <c r="CC193" s="10"/>
+      <c r="CD193" s="10"/>
+      <c r="CE193" s="10"/>
+      <c r="CF193" s="10"/>
+      <c r="CG193" s="10"/>
+      <c r="CH193" s="10"/>
+      <c r="CI193" s="10"/>
+      <c r="CJ193" s="10"/>
+      <c r="CK193" s="10"/>
+      <c r="CL193" s="10"/>
+    </row>
+    <row r="194" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C194" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+      <c r="U194" s="10"/>
+      <c r="V194" s="10"/>
+      <c r="W194" s="10"/>
+      <c r="X194" s="10"/>
+      <c r="Y194" s="10"/>
+      <c r="Z194" s="10"/>
+      <c r="AA194" s="10"/>
+      <c r="AB194" s="10"/>
+      <c r="AC194" s="10"/>
+      <c r="AD194" s="10"/>
+      <c r="AF194" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG194" s="10"/>
+      <c r="AH194" s="10"/>
+      <c r="AI194" s="10"/>
+      <c r="AJ194" s="10"/>
+      <c r="AK194" s="10"/>
+      <c r="AL194" s="10"/>
+      <c r="AM194" s="10"/>
+      <c r="AN194" s="10"/>
+      <c r="AO194" s="10"/>
+      <c r="AP194" s="10"/>
+      <c r="AQ194" s="10"/>
+      <c r="AR194" s="10"/>
+      <c r="AS194" s="10"/>
+      <c r="AT194" s="10"/>
+      <c r="AU194" s="10"/>
+      <c r="AV194" s="10"/>
+      <c r="AW194" s="10"/>
+      <c r="AX194" s="10"/>
+      <c r="AY194" s="10"/>
+      <c r="AZ194" s="10"/>
+      <c r="BA194" s="10"/>
+      <c r="BB194" s="10"/>
+      <c r="BC194" s="10"/>
+      <c r="BD194" s="10"/>
+      <c r="BE194" s="10"/>
+      <c r="BF194" s="10"/>
+      <c r="BH194" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI194" s="10"/>
+      <c r="BJ194" s="10"/>
+      <c r="BK194" s="10"/>
+      <c r="BL194" s="10"/>
+      <c r="BM194" s="10"/>
+      <c r="BN194" s="10"/>
+      <c r="BO194" s="10"/>
+      <c r="BP194" s="10"/>
+      <c r="BQ194" s="10"/>
+      <c r="BR194" s="10"/>
+      <c r="BS194" s="10"/>
+      <c r="BT194" s="10"/>
+      <c r="BU194" s="10"/>
+      <c r="BV194" s="10"/>
+      <c r="BW194" s="10"/>
+      <c r="BX194" s="10"/>
+      <c r="BY194" s="10"/>
+      <c r="BZ194" s="10"/>
+      <c r="CA194" s="10"/>
+      <c r="CB194" s="10"/>
+      <c r="CC194" s="10"/>
+      <c r="CD194" s="10"/>
+      <c r="CE194" s="10"/>
+      <c r="CF194" s="10"/>
+      <c r="CG194" s="10"/>
+      <c r="CH194" s="10"/>
+      <c r="CI194" s="10"/>
+      <c r="CJ194" s="10"/>
+      <c r="CK194" s="10"/>
+      <c r="CL194" s="10"/>
+    </row>
+    <row r="195" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C195" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
+      <c r="R195" s="10"/>
+      <c r="S195" s="10"/>
+      <c r="T195" s="10"/>
+      <c r="U195" s="10"/>
+      <c r="V195" s="10"/>
+      <c r="W195" s="10"/>
+      <c r="X195" s="10"/>
+      <c r="Y195" s="10"/>
+      <c r="Z195" s="10"/>
+      <c r="AA195" s="10"/>
+      <c r="AB195" s="10"/>
+      <c r="AC195" s="10"/>
+      <c r="AD195" s="10"/>
+      <c r="AF195" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG195" s="10"/>
+      <c r="AH195" s="10"/>
+      <c r="AI195" s="10"/>
+      <c r="AJ195" s="10"/>
+      <c r="AK195" s="10"/>
+      <c r="AL195" s="10"/>
+      <c r="AM195" s="10"/>
+      <c r="AN195" s="10"/>
+      <c r="AO195" s="10"/>
+      <c r="AP195" s="10"/>
+      <c r="AQ195" s="10"/>
+      <c r="AR195" s="10"/>
+      <c r="AS195" s="10"/>
+      <c r="AT195" s="10"/>
+      <c r="AU195" s="10"/>
+      <c r="AV195" s="10"/>
+      <c r="AW195" s="10"/>
+      <c r="AX195" s="10"/>
+      <c r="AY195" s="10"/>
+      <c r="AZ195" s="10"/>
+      <c r="BA195" s="10"/>
+      <c r="BB195" s="10"/>
+      <c r="BC195" s="10"/>
+      <c r="BD195" s="10"/>
+      <c r="BE195" s="10"/>
+      <c r="BF195" s="10"/>
+      <c r="BH195" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI195" s="10"/>
+      <c r="BJ195" s="10"/>
+      <c r="BK195" s="10"/>
+      <c r="BL195" s="10"/>
+      <c r="BM195" s="10"/>
+      <c r="BN195" s="10"/>
+      <c r="BO195" s="10"/>
+      <c r="BP195" s="10"/>
+      <c r="BQ195" s="10"/>
+      <c r="BR195" s="10"/>
+      <c r="BS195" s="10"/>
+      <c r="BT195" s="10"/>
+      <c r="BU195" s="10"/>
+      <c r="BV195" s="10"/>
+      <c r="BW195" s="10"/>
+      <c r="BX195" s="10"/>
+      <c r="BY195" s="10"/>
+      <c r="BZ195" s="10"/>
+      <c r="CA195" s="10"/>
+      <c r="CB195" s="10"/>
+      <c r="CC195" s="10"/>
+      <c r="CD195" s="10"/>
+      <c r="CE195" s="10"/>
+      <c r="CF195" s="10"/>
+      <c r="CG195" s="10"/>
+      <c r="CH195" s="10"/>
+      <c r="CI195" s="10"/>
+      <c r="CJ195" s="10"/>
+      <c r="CK195" s="10"/>
+      <c r="CL195" s="10"/>
+    </row>
+    <row r="196" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C196" s="9"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+      <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+      <c r="Z196" s="10"/>
+      <c r="AA196" s="10"/>
+      <c r="AB196" s="10"/>
+      <c r="AC196" s="10"/>
+      <c r="AD196" s="10"/>
+      <c r="AF196" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG196" s="10"/>
+      <c r="AH196" s="10"/>
+      <c r="AI196" s="10"/>
+      <c r="AJ196" s="10"/>
+      <c r="AK196" s="10"/>
+      <c r="AL196" s="10"/>
+      <c r="AM196" s="10"/>
+      <c r="AN196" s="10"/>
+      <c r="AO196" s="10"/>
+      <c r="AP196" s="10"/>
+      <c r="AQ196" s="10"/>
+      <c r="AR196" s="10"/>
+      <c r="AS196" s="10"/>
+      <c r="AT196" s="10"/>
+      <c r="AU196" s="10"/>
+      <c r="AV196" s="10"/>
+      <c r="AW196" s="10"/>
+      <c r="AX196" s="10"/>
+      <c r="AY196" s="10"/>
+      <c r="AZ196" s="10"/>
+      <c r="BA196" s="10"/>
+      <c r="BB196" s="10"/>
+      <c r="BC196" s="10"/>
+      <c r="BD196" s="10"/>
+      <c r="BE196" s="10"/>
+      <c r="BF196" s="10"/>
+      <c r="BH196" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI196" s="10"/>
+      <c r="BJ196" s="10"/>
+      <c r="BK196" s="10"/>
+      <c r="BL196" s="10"/>
+      <c r="BM196" s="10"/>
+      <c r="BN196" s="10"/>
+      <c r="BO196" s="10"/>
+      <c r="BP196" s="10"/>
+      <c r="BQ196" s="10"/>
+      <c r="BR196" s="10"/>
+      <c r="BS196" s="10"/>
+      <c r="BT196" s="10"/>
+      <c r="BU196" s="10"/>
+      <c r="BV196" s="10"/>
+      <c r="BW196" s="10"/>
+      <c r="BX196" s="10"/>
+      <c r="BY196" s="10"/>
+      <c r="BZ196" s="10"/>
+      <c r="CA196" s="10"/>
+      <c r="CB196" s="10"/>
+      <c r="CC196" s="10"/>
+      <c r="CD196" s="10"/>
+      <c r="CE196" s="10"/>
+      <c r="CF196" s="10"/>
+      <c r="CG196" s="10"/>
+      <c r="CH196" s="10"/>
+      <c r="CI196" s="10"/>
+      <c r="CJ196" s="10"/>
+      <c r="CK196" s="10"/>
+      <c r="CL196" s="10"/>
+    </row>
+    <row r="197" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C197" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="10"/>
+      <c r="AA197" s="10"/>
+      <c r="AB197" s="10"/>
+      <c r="AC197" s="10"/>
+      <c r="AD197" s="10"/>
+      <c r="AF197" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG197" s="10"/>
+      <c r="AH197" s="10"/>
+      <c r="AI197" s="10"/>
+      <c r="AJ197" s="10"/>
+      <c r="AK197" s="10"/>
+      <c r="AL197" s="10"/>
+      <c r="AM197" s="10"/>
+      <c r="AN197" s="10"/>
+      <c r="AO197" s="10"/>
+      <c r="AP197" s="10"/>
+      <c r="AQ197" s="10"/>
+      <c r="AR197" s="10"/>
+      <c r="AS197" s="10"/>
+      <c r="AT197" s="10"/>
+      <c r="AU197" s="10"/>
+      <c r="AV197" s="10"/>
+      <c r="AW197" s="10"/>
+      <c r="AX197" s="10"/>
+      <c r="AY197" s="10"/>
+      <c r="AZ197" s="10"/>
+      <c r="BA197" s="10"/>
+      <c r="BB197" s="10"/>
+      <c r="BC197" s="10"/>
+      <c r="BD197" s="10"/>
+      <c r="BE197" s="10"/>
+      <c r="BF197" s="10"/>
+      <c r="BH197" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI197" s="10"/>
+      <c r="BJ197" s="10"/>
+      <c r="BK197" s="10"/>
+      <c r="BL197" s="10"/>
+      <c r="BM197" s="10"/>
+      <c r="BN197" s="10"/>
+      <c r="BO197" s="10"/>
+      <c r="BP197" s="10"/>
+      <c r="BQ197" s="10"/>
+      <c r="BR197" s="10"/>
+      <c r="BS197" s="10"/>
+      <c r="BT197" s="10"/>
+      <c r="BU197" s="10"/>
+      <c r="BV197" s="10"/>
+      <c r="BW197" s="10"/>
+      <c r="BX197" s="10"/>
+      <c r="BY197" s="10"/>
+      <c r="BZ197" s="10"/>
+      <c r="CA197" s="10"/>
+      <c r="CB197" s="10"/>
+      <c r="CC197" s="10"/>
+      <c r="CD197" s="10"/>
+      <c r="CE197" s="10"/>
+      <c r="CF197" s="10"/>
+      <c r="CG197" s="10"/>
+      <c r="CH197" s="10"/>
+      <c r="CI197" s="10"/>
+      <c r="CJ197" s="10"/>
+      <c r="CK197" s="10"/>
+      <c r="CL197" s="10"/>
+    </row>
+    <row r="198" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C198" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10"/>
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+      <c r="Z198" s="10"/>
+      <c r="AA198" s="10"/>
+      <c r="AB198" s="10"/>
+      <c r="AC198" s="10"/>
+      <c r="AD198" s="10"/>
+      <c r="AF198" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG198" s="10"/>
+      <c r="AH198" s="10"/>
+      <c r="AI198" s="10"/>
+      <c r="AJ198" s="10"/>
+      <c r="AK198" s="10"/>
+      <c r="AL198" s="10"/>
+      <c r="AM198" s="10"/>
+      <c r="AN198" s="10"/>
+      <c r="AO198" s="10"/>
+      <c r="AP198" s="10"/>
+      <c r="AQ198" s="10"/>
+      <c r="AR198" s="10"/>
+      <c r="AS198" s="10"/>
+      <c r="AT198" s="10"/>
+      <c r="AU198" s="10"/>
+      <c r="AV198" s="10"/>
+      <c r="AW198" s="10"/>
+      <c r="AX198" s="10"/>
+      <c r="AY198" s="10"/>
+      <c r="AZ198" s="10"/>
+      <c r="BA198" s="10"/>
+      <c r="BB198" s="10"/>
+      <c r="BC198" s="10"/>
+      <c r="BD198" s="10"/>
+      <c r="BE198" s="10"/>
+      <c r="BF198" s="10"/>
+      <c r="BH198" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI198" s="10"/>
+      <c r="BJ198" s="10"/>
+      <c r="BK198" s="10"/>
+      <c r="BL198" s="10"/>
+      <c r="BM198" s="10"/>
+      <c r="BN198" s="10"/>
+      <c r="BO198" s="10"/>
+      <c r="BP198" s="10"/>
+      <c r="BQ198" s="10"/>
+      <c r="BR198" s="10"/>
+      <c r="BS198" s="10"/>
+      <c r="BT198" s="10"/>
+      <c r="BU198" s="10"/>
+      <c r="BV198" s="10"/>
+      <c r="BW198" s="10"/>
+      <c r="BX198" s="10"/>
+      <c r="BY198" s="10"/>
+      <c r="BZ198" s="10"/>
+      <c r="CA198" s="10"/>
+      <c r="CB198" s="10"/>
+      <c r="CC198" s="10"/>
+      <c r="CD198" s="10"/>
+      <c r="CE198" s="10"/>
+      <c r="CF198" s="10"/>
+      <c r="CG198" s="10"/>
+      <c r="CH198" s="10"/>
+      <c r="CI198" s="10"/>
+      <c r="CJ198" s="10"/>
+      <c r="CK198" s="10"/>
+      <c r="CL198" s="10"/>
+    </row>
+    <row r="199" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C199" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+      <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+      <c r="Z199" s="10"/>
+      <c r="AA199" s="10"/>
+      <c r="AB199" s="10"/>
+      <c r="AC199" s="10"/>
+      <c r="AD199" s="10"/>
+      <c r="AF199" s="9"/>
+      <c r="AG199" s="10"/>
+      <c r="AH199" s="10"/>
+      <c r="AI199" s="10"/>
+      <c r="AJ199" s="10"/>
+      <c r="AK199" s="10"/>
+      <c r="AL199" s="10"/>
+      <c r="AM199" s="10"/>
+      <c r="AN199" s="10"/>
+      <c r="AO199" s="10"/>
+      <c r="AP199" s="10"/>
+      <c r="AQ199" s="10"/>
+      <c r="AR199" s="10"/>
+      <c r="AS199" s="10"/>
+      <c r="AT199" s="10"/>
+      <c r="AU199" s="10"/>
+      <c r="AV199" s="10"/>
+      <c r="AW199" s="10"/>
+      <c r="AX199" s="10"/>
+      <c r="AY199" s="10"/>
+      <c r="AZ199" s="10"/>
+      <c r="BA199" s="10"/>
+      <c r="BB199" s="10"/>
+      <c r="BC199" s="10"/>
+      <c r="BD199" s="10"/>
+      <c r="BE199" s="10"/>
+      <c r="BF199" s="10"/>
+      <c r="BH199" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI199" s="10"/>
+      <c r="BJ199" s="10"/>
+      <c r="BK199" s="10"/>
+      <c r="BL199" s="10"/>
+      <c r="BM199" s="10"/>
+      <c r="BN199" s="10"/>
+      <c r="BO199" s="10"/>
+      <c r="BP199" s="10"/>
+      <c r="BQ199" s="10"/>
+      <c r="BR199" s="10"/>
+      <c r="BS199" s="10"/>
+      <c r="BT199" s="10"/>
+      <c r="BU199" s="10"/>
+      <c r="BV199" s="10"/>
+      <c r="BW199" s="10"/>
+      <c r="BX199" s="10"/>
+      <c r="BY199" s="10"/>
+      <c r="BZ199" s="10"/>
+      <c r="CA199" s="10"/>
+      <c r="CB199" s="10"/>
+      <c r="CC199" s="10"/>
+      <c r="CD199" s="10"/>
+      <c r="CE199" s="10"/>
+      <c r="CF199" s="10"/>
+      <c r="CG199" s="10"/>
+      <c r="CH199" s="10"/>
+      <c r="CI199" s="10"/>
+      <c r="CJ199" s="10"/>
+      <c r="CK199" s="10"/>
+      <c r="CL199" s="10"/>
+    </row>
+    <row r="200" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C200" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+      <c r="Z200" s="10"/>
+      <c r="AA200" s="10"/>
+      <c r="AB200" s="10"/>
+      <c r="AC200" s="10"/>
+      <c r="AD200" s="10"/>
+      <c r="AF200" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG200" s="10"/>
+      <c r="AH200" s="10"/>
+      <c r="AI200" s="10"/>
+      <c r="AJ200" s="10"/>
+      <c r="AK200" s="10"/>
+      <c r="AL200" s="10"/>
+      <c r="AM200" s="10"/>
+      <c r="AN200" s="10"/>
+      <c r="AO200" s="10"/>
+      <c r="AP200" s="10"/>
+      <c r="AQ200" s="10"/>
+      <c r="AR200" s="10"/>
+      <c r="AS200" s="10"/>
+      <c r="AT200" s="10"/>
+      <c r="AU200" s="10"/>
+      <c r="AV200" s="10"/>
+      <c r="AW200" s="10"/>
+      <c r="AX200" s="10"/>
+      <c r="AY200" s="10"/>
+      <c r="AZ200" s="10"/>
+      <c r="BA200" s="10"/>
+      <c r="BB200" s="10"/>
+      <c r="BC200" s="10"/>
+      <c r="BD200" s="10"/>
+      <c r="BE200" s="10"/>
+      <c r="BF200" s="10"/>
+      <c r="BH200" s="9"/>
+      <c r="BI200" s="10"/>
+      <c r="BJ200" s="10"/>
+      <c r="BK200" s="10"/>
+      <c r="BL200" s="10"/>
+      <c r="BM200" s="10"/>
+      <c r="BN200" s="10"/>
+      <c r="BO200" s="10"/>
+      <c r="BP200" s="10"/>
+      <c r="BQ200" s="10"/>
+      <c r="BR200" s="10"/>
+      <c r="BS200" s="10"/>
+      <c r="BT200" s="10"/>
+      <c r="BU200" s="10"/>
+      <c r="BV200" s="10"/>
+      <c r="BW200" s="10"/>
+      <c r="BX200" s="10"/>
+      <c r="BY200" s="10"/>
+      <c r="BZ200" s="10"/>
+      <c r="CA200" s="10"/>
+      <c r="CB200" s="10"/>
+      <c r="CC200" s="10"/>
+      <c r="CD200" s="10"/>
+      <c r="CE200" s="10"/>
+      <c r="CF200" s="10"/>
+      <c r="CG200" s="10"/>
+      <c r="CH200" s="10"/>
+      <c r="CI200" s="10"/>
+      <c r="CJ200" s="10"/>
+      <c r="CK200" s="10"/>
+      <c r="CL200" s="10"/>
+    </row>
+    <row r="201" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C201" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="10"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
+      <c r="R201" s="10"/>
+      <c r="S201" s="10"/>
+      <c r="T201" s="10"/>
+      <c r="U201" s="10"/>
+      <c r="V201" s="10"/>
+      <c r="W201" s="10"/>
+      <c r="X201" s="10"/>
+      <c r="Y201" s="10"/>
+      <c r="Z201" s="10"/>
+      <c r="AA201" s="10"/>
+      <c r="AB201" s="10"/>
+      <c r="AC201" s="10"/>
+      <c r="AD201" s="10"/>
+      <c r="AF201" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG201" s="10"/>
+      <c r="AH201" s="10"/>
+      <c r="AI201" s="10"/>
+      <c r="AJ201" s="10"/>
+      <c r="AK201" s="10"/>
+      <c r="AL201" s="10"/>
+      <c r="AM201" s="10"/>
+      <c r="AN201" s="10"/>
+      <c r="AO201" s="10"/>
+      <c r="AP201" s="10"/>
+      <c r="AQ201" s="10"/>
+      <c r="AR201" s="10"/>
+      <c r="AS201" s="10"/>
+      <c r="AT201" s="10"/>
+      <c r="AU201" s="10"/>
+      <c r="AV201" s="10"/>
+      <c r="AW201" s="10"/>
+      <c r="AX201" s="10"/>
+      <c r="AY201" s="10"/>
+      <c r="AZ201" s="10"/>
+      <c r="BA201" s="10"/>
+      <c r="BB201" s="10"/>
+      <c r="BC201" s="10"/>
+      <c r="BD201" s="10"/>
+      <c r="BE201" s="10"/>
+      <c r="BF201" s="10"/>
+      <c r="BH201" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI201" s="10"/>
+      <c r="BJ201" s="10"/>
+      <c r="BK201" s="10"/>
+      <c r="BL201" s="10"/>
+      <c r="BM201" s="10"/>
+      <c r="BN201" s="10"/>
+      <c r="BO201" s="10"/>
+      <c r="BP201" s="10"/>
+      <c r="BQ201" s="10"/>
+      <c r="BR201" s="10"/>
+      <c r="BS201" s="10"/>
+      <c r="BT201" s="10"/>
+      <c r="BU201" s="10"/>
+      <c r="BV201" s="10"/>
+      <c r="BW201" s="10"/>
+      <c r="BX201" s="10"/>
+      <c r="BY201" s="10"/>
+      <c r="BZ201" s="10"/>
+      <c r="CA201" s="10"/>
+      <c r="CB201" s="10"/>
+      <c r="CC201" s="10"/>
+      <c r="CD201" s="10"/>
+      <c r="CE201" s="10"/>
+      <c r="CF201" s="10"/>
+      <c r="CG201" s="10"/>
+      <c r="CH201" s="10"/>
+      <c r="CI201" s="10"/>
+      <c r="CJ201" s="10"/>
+      <c r="CK201" s="10"/>
+      <c r="CL201" s="10"/>
+    </row>
+    <row r="202" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C202" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="10"/>
+      <c r="N202" s="10"/>
+      <c r="O202" s="10"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10"/>
+      <c r="S202" s="10"/>
+      <c r="T202" s="10"/>
+      <c r="U202" s="10"/>
+      <c r="V202" s="10"/>
+      <c r="W202" s="10"/>
+      <c r="X202" s="10"/>
+      <c r="Y202" s="10"/>
+      <c r="Z202" s="10"/>
+      <c r="AA202" s="10"/>
+      <c r="AB202" s="10"/>
+      <c r="AC202" s="10"/>
+      <c r="AD202" s="10"/>
+      <c r="AF202" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG202" s="10"/>
+      <c r="AH202" s="10"/>
+      <c r="AI202" s="10"/>
+      <c r="AJ202" s="10"/>
+      <c r="AK202" s="10"/>
+      <c r="AL202" s="10"/>
+      <c r="AM202" s="10"/>
+      <c r="AN202" s="10"/>
+      <c r="AO202" s="10"/>
+      <c r="AP202" s="10"/>
+      <c r="AQ202" s="10"/>
+      <c r="AR202" s="10"/>
+      <c r="AS202" s="10"/>
+      <c r="AT202" s="10"/>
+      <c r="AU202" s="10"/>
+      <c r="AV202" s="10"/>
+      <c r="AW202" s="10"/>
+      <c r="AX202" s="10"/>
+      <c r="AY202" s="10"/>
+      <c r="AZ202" s="10"/>
+      <c r="BA202" s="10"/>
+      <c r="BB202" s="10"/>
+      <c r="BC202" s="10"/>
+      <c r="BD202" s="10"/>
+      <c r="BE202" s="10"/>
+      <c r="BF202" s="10"/>
+      <c r="BH202" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI202" s="10"/>
+      <c r="BJ202" s="10"/>
+      <c r="BK202" s="10"/>
+      <c r="BL202" s="10"/>
+      <c r="BM202" s="10"/>
+      <c r="BN202" s="10"/>
+      <c r="BO202" s="10"/>
+      <c r="BP202" s="10"/>
+      <c r="BQ202" s="10"/>
+      <c r="BR202" s="10"/>
+      <c r="BS202" s="10"/>
+      <c r="BT202" s="10"/>
+      <c r="BU202" s="10"/>
+      <c r="BV202" s="10"/>
+      <c r="BW202" s="10"/>
+      <c r="BX202" s="10"/>
+      <c r="BY202" s="10"/>
+      <c r="BZ202" s="10"/>
+      <c r="CA202" s="10"/>
+      <c r="CB202" s="10"/>
+      <c r="CC202" s="10"/>
+      <c r="CD202" s="10"/>
+      <c r="CE202" s="10"/>
+      <c r="CF202" s="10"/>
+      <c r="CG202" s="10"/>
+      <c r="CH202" s="10"/>
+      <c r="CI202" s="10"/>
+      <c r="CJ202" s="10"/>
+      <c r="CK202" s="10"/>
+      <c r="CL202" s="10"/>
+    </row>
+    <row r="203" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C203" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+      <c r="U203" s="10"/>
+      <c r="V203" s="10"/>
+      <c r="W203" s="10"/>
+      <c r="X203" s="10"/>
+      <c r="Y203" s="10"/>
+      <c r="Z203" s="10"/>
+      <c r="AA203" s="10"/>
+      <c r="AB203" s="10"/>
+      <c r="AC203" s="10"/>
+      <c r="AD203" s="10"/>
+      <c r="AF203" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG203" s="10"/>
+      <c r="AH203" s="10"/>
+      <c r="AI203" s="10"/>
+      <c r="AJ203" s="10"/>
+      <c r="AK203" s="10"/>
+      <c r="AL203" s="10"/>
+      <c r="AM203" s="10"/>
+      <c r="AN203" s="10"/>
+      <c r="AO203" s="10"/>
+      <c r="AP203" s="10"/>
+      <c r="AQ203" s="10"/>
+      <c r="AR203" s="10"/>
+      <c r="AS203" s="10"/>
+      <c r="AT203" s="10"/>
+      <c r="AU203" s="10"/>
+      <c r="AV203" s="10"/>
+      <c r="AW203" s="10"/>
+      <c r="AX203" s="10"/>
+      <c r="AY203" s="10"/>
+      <c r="AZ203" s="10"/>
+      <c r="BA203" s="10"/>
+      <c r="BB203" s="10"/>
+      <c r="BC203" s="10"/>
+      <c r="BD203" s="10"/>
+      <c r="BE203" s="10"/>
+      <c r="BF203" s="10"/>
+      <c r="BH203" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI203" s="10"/>
+      <c r="BJ203" s="10"/>
+      <c r="BK203" s="10"/>
+      <c r="BL203" s="10"/>
+      <c r="BM203" s="10"/>
+      <c r="BN203" s="10"/>
+      <c r="BO203" s="10"/>
+      <c r="BP203" s="10"/>
+      <c r="BQ203" s="10"/>
+      <c r="BR203" s="10"/>
+      <c r="BS203" s="10"/>
+      <c r="BT203" s="10"/>
+      <c r="BU203" s="10"/>
+      <c r="BV203" s="10"/>
+      <c r="BW203" s="10"/>
+      <c r="BX203" s="10"/>
+      <c r="BY203" s="10"/>
+      <c r="BZ203" s="10"/>
+      <c r="CA203" s="10"/>
+      <c r="CB203" s="10"/>
+      <c r="CC203" s="10"/>
+      <c r="CD203" s="10"/>
+      <c r="CE203" s="10"/>
+      <c r="CF203" s="10"/>
+      <c r="CG203" s="10"/>
+      <c r="CH203" s="10"/>
+      <c r="CI203" s="10"/>
+      <c r="CJ203" s="10"/>
+      <c r="CK203" s="10"/>
+      <c r="CL203" s="10"/>
+    </row>
+    <row r="204" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C204" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="K204" s="10"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="10"/>
+      <c r="N204" s="10"/>
+      <c r="O204" s="10"/>
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+      <c r="R204" s="10"/>
+      <c r="S204" s="10"/>
+      <c r="T204" s="10"/>
+      <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+      <c r="Z204" s="10"/>
+      <c r="AA204" s="10"/>
+      <c r="AB204" s="10"/>
+      <c r="AC204" s="10"/>
+      <c r="AD204" s="10"/>
+      <c r="AF204" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG204" s="10"/>
+      <c r="AH204" s="10"/>
+      <c r="AI204" s="10"/>
+      <c r="AJ204" s="10"/>
+      <c r="AK204" s="10"/>
+      <c r="AL204" s="10"/>
+      <c r="AM204" s="10"/>
+      <c r="AN204" s="10"/>
+      <c r="AO204" s="10"/>
+      <c r="AP204" s="10"/>
+      <c r="AQ204" s="10"/>
+      <c r="AR204" s="10"/>
+      <c r="AS204" s="10"/>
+      <c r="AT204" s="10"/>
+      <c r="AU204" s="10"/>
+      <c r="AV204" s="10"/>
+      <c r="AW204" s="10"/>
+      <c r="AX204" s="10"/>
+      <c r="AY204" s="10"/>
+      <c r="AZ204" s="10"/>
+      <c r="BA204" s="10"/>
+      <c r="BB204" s="10"/>
+      <c r="BC204" s="10"/>
+      <c r="BD204" s="10"/>
+      <c r="BE204" s="10"/>
+      <c r="BF204" s="10"/>
+      <c r="BH204" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI204" s="10"/>
+      <c r="BJ204" s="10"/>
+      <c r="BK204" s="10"/>
+      <c r="BL204" s="10"/>
+      <c r="BM204" s="10"/>
+      <c r="BN204" s="10"/>
+      <c r="BO204" s="10"/>
+      <c r="BP204" s="10"/>
+      <c r="BQ204" s="10"/>
+      <c r="BR204" s="10"/>
+      <c r="BS204" s="10"/>
+      <c r="BT204" s="10"/>
+      <c r="BU204" s="10"/>
+      <c r="BV204" s="10"/>
+      <c r="BW204" s="10"/>
+      <c r="BX204" s="10"/>
+      <c r="BY204" s="10"/>
+      <c r="BZ204" s="10"/>
+      <c r="CA204" s="10"/>
+      <c r="CB204" s="10"/>
+      <c r="CC204" s="10"/>
+      <c r="CD204" s="10"/>
+      <c r="CE204" s="10"/>
+      <c r="CF204" s="10"/>
+      <c r="CG204" s="10"/>
+      <c r="CH204" s="10"/>
+      <c r="CI204" s="10"/>
+      <c r="CJ204" s="10"/>
+      <c r="CK204" s="10"/>
+      <c r="CL204" s="10"/>
+    </row>
+    <row r="205" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C205" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="10"/>
+      <c r="N205" s="10"/>
+      <c r="O205" s="10"/>
+      <c r="P205" s="10"/>
+      <c r="Q205" s="10"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="10"/>
+      <c r="T205" s="10"/>
+      <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+      <c r="Z205" s="10"/>
+      <c r="AA205" s="10"/>
+      <c r="AB205" s="10"/>
+      <c r="AC205" s="10"/>
+      <c r="AD205" s="10"/>
+      <c r="AF205" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG205" s="10"/>
+      <c r="AH205" s="10"/>
+      <c r="AI205" s="10"/>
+      <c r="AJ205" s="10"/>
+      <c r="AK205" s="10"/>
+      <c r="AL205" s="10"/>
+      <c r="AM205" s="10"/>
+      <c r="AN205" s="10"/>
+      <c r="AO205" s="10"/>
+      <c r="AP205" s="10"/>
+      <c r="AQ205" s="10"/>
+      <c r="AR205" s="10"/>
+      <c r="AS205" s="10"/>
+      <c r="AT205" s="10"/>
+      <c r="AU205" s="10"/>
+      <c r="AV205" s="10"/>
+      <c r="AW205" s="10"/>
+      <c r="AX205" s="10"/>
+      <c r="AY205" s="10"/>
+      <c r="AZ205" s="10"/>
+      <c r="BA205" s="10"/>
+      <c r="BB205" s="10"/>
+      <c r="BC205" s="10"/>
+      <c r="BD205" s="10"/>
+      <c r="BE205" s="10"/>
+      <c r="BF205" s="10"/>
+      <c r="BH205" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI205" s="10"/>
+      <c r="BJ205" s="10"/>
+      <c r="BK205" s="10"/>
+      <c r="BL205" s="10"/>
+      <c r="BM205" s="10"/>
+      <c r="BN205" s="10"/>
+      <c r="BO205" s="10"/>
+      <c r="BP205" s="10"/>
+      <c r="BQ205" s="10"/>
+      <c r="BR205" s="10"/>
+      <c r="BS205" s="10"/>
+      <c r="BT205" s="10"/>
+      <c r="BU205" s="10"/>
+      <c r="BV205" s="10"/>
+      <c r="BW205" s="10"/>
+      <c r="BX205" s="10"/>
+      <c r="BY205" s="10"/>
+      <c r="BZ205" s="10"/>
+      <c r="CA205" s="10"/>
+      <c r="CB205" s="10"/>
+      <c r="CC205" s="10"/>
+      <c r="CD205" s="10"/>
+      <c r="CE205" s="10"/>
+      <c r="CF205" s="10"/>
+      <c r="CG205" s="10"/>
+      <c r="CH205" s="10"/>
+      <c r="CI205" s="10"/>
+      <c r="CJ205" s="10"/>
+      <c r="CK205" s="10"/>
+      <c r="CL205" s="10"/>
+    </row>
+    <row r="206" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C206" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="10"/>
+      <c r="N206" s="10"/>
+      <c r="O206" s="10"/>
+      <c r="P206" s="10"/>
+      <c r="Q206" s="10"/>
+      <c r="R206" s="10"/>
+      <c r="S206" s="10"/>
+      <c r="T206" s="10"/>
+      <c r="U206" s="10"/>
+      <c r="V206" s="10"/>
+      <c r="W206" s="10"/>
+      <c r="X206" s="10"/>
+      <c r="Y206" s="10"/>
+      <c r="Z206" s="10"/>
+      <c r="AA206" s="10"/>
+      <c r="AB206" s="10"/>
+      <c r="AC206" s="10"/>
+      <c r="AD206" s="10"/>
+      <c r="AF206" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG206" s="10"/>
+      <c r="AH206" s="10"/>
+      <c r="AI206" s="10"/>
+      <c r="AJ206" s="10"/>
+      <c r="AK206" s="10"/>
+      <c r="AL206" s="10"/>
+      <c r="AM206" s="10"/>
+      <c r="AN206" s="10"/>
+      <c r="AO206" s="10"/>
+      <c r="AP206" s="10"/>
+      <c r="AQ206" s="10"/>
+      <c r="AR206" s="10"/>
+      <c r="AS206" s="10"/>
+      <c r="AT206" s="10"/>
+      <c r="AU206" s="10"/>
+      <c r="AV206" s="10"/>
+      <c r="AW206" s="10"/>
+      <c r="AX206" s="10"/>
+      <c r="AY206" s="10"/>
+      <c r="AZ206" s="10"/>
+      <c r="BA206" s="10"/>
+      <c r="BB206" s="10"/>
+      <c r="BC206" s="10"/>
+      <c r="BD206" s="10"/>
+      <c r="BE206" s="10"/>
+      <c r="BF206" s="10"/>
+      <c r="BH206" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI206" s="10"/>
+      <c r="BJ206" s="10"/>
+      <c r="BK206" s="10"/>
+      <c r="BL206" s="10"/>
+      <c r="BM206" s="10"/>
+      <c r="BN206" s="10"/>
+      <c r="BO206" s="10"/>
+      <c r="BP206" s="10"/>
+      <c r="BQ206" s="10"/>
+      <c r="BR206" s="10"/>
+      <c r="BS206" s="10"/>
+      <c r="BT206" s="10"/>
+      <c r="BU206" s="10"/>
+      <c r="BV206" s="10"/>
+      <c r="BW206" s="10"/>
+      <c r="BX206" s="10"/>
+      <c r="BY206" s="10"/>
+      <c r="BZ206" s="10"/>
+      <c r="CA206" s="10"/>
+      <c r="CB206" s="10"/>
+      <c r="CC206" s="10"/>
+      <c r="CD206" s="10"/>
+      <c r="CE206" s="10"/>
+      <c r="CF206" s="10"/>
+      <c r="CG206" s="10"/>
+      <c r="CH206" s="10"/>
+      <c r="CI206" s="10"/>
+      <c r="CJ206" s="10"/>
+      <c r="CK206" s="10"/>
+      <c r="CL206" s="10"/>
+    </row>
+    <row r="207" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C207" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="10"/>
+      <c r="N207" s="10"/>
+      <c r="O207" s="10"/>
+      <c r="P207" s="10"/>
+      <c r="Q207" s="10"/>
+      <c r="R207" s="10"/>
+      <c r="S207" s="10"/>
+      <c r="T207" s="10"/>
+      <c r="U207" s="10"/>
+      <c r="V207" s="10"/>
+      <c r="W207" s="10"/>
+      <c r="X207" s="10"/>
+      <c r="Y207" s="10"/>
+      <c r="Z207" s="10"/>
+      <c r="AA207" s="10"/>
+      <c r="AB207" s="10"/>
+      <c r="AC207" s="10"/>
+      <c r="AD207" s="10"/>
+      <c r="AF207" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG207" s="10"/>
+      <c r="AH207" s="10"/>
+      <c r="AI207" s="10"/>
+      <c r="AJ207" s="10"/>
+      <c r="AK207" s="10"/>
+      <c r="AL207" s="10"/>
+      <c r="AM207" s="10"/>
+      <c r="AN207" s="10"/>
+      <c r="AO207" s="10"/>
+      <c r="AP207" s="10"/>
+      <c r="AQ207" s="10"/>
+      <c r="AR207" s="10"/>
+      <c r="AS207" s="10"/>
+      <c r="AT207" s="10"/>
+      <c r="AU207" s="10"/>
+      <c r="AV207" s="10"/>
+      <c r="AW207" s="10"/>
+      <c r="AX207" s="10"/>
+      <c r="AY207" s="10"/>
+      <c r="AZ207" s="10"/>
+      <c r="BA207" s="10"/>
+      <c r="BB207" s="10"/>
+      <c r="BC207" s="10"/>
+      <c r="BD207" s="10"/>
+      <c r="BE207" s="10"/>
+      <c r="BF207" s="10"/>
+      <c r="BH207" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI207" s="10"/>
+      <c r="BJ207" s="10"/>
+      <c r="BK207" s="10"/>
+      <c r="BL207" s="10"/>
+      <c r="BM207" s="10"/>
+      <c r="BN207" s="10"/>
+      <c r="BO207" s="10"/>
+      <c r="BP207" s="10"/>
+      <c r="BQ207" s="10"/>
+      <c r="BR207" s="10"/>
+      <c r="BS207" s="10"/>
+      <c r="BT207" s="10"/>
+      <c r="BU207" s="10"/>
+      <c r="BV207" s="10"/>
+      <c r="BW207" s="10"/>
+      <c r="BX207" s="10"/>
+      <c r="BY207" s="10"/>
+      <c r="BZ207" s="10"/>
+      <c r="CA207" s="10"/>
+      <c r="CB207" s="10"/>
+      <c r="CC207" s="10"/>
+      <c r="CD207" s="10"/>
+      <c r="CE207" s="10"/>
+      <c r="CF207" s="10"/>
+      <c r="CG207" s="10"/>
+      <c r="CH207" s="10"/>
+      <c r="CI207" s="10"/>
+      <c r="CJ207" s="10"/>
+      <c r="CK207" s="10"/>
+      <c r="CL207" s="10"/>
+    </row>
+    <row r="208" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C208" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10"/>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+      <c r="U208" s="10"/>
+      <c r="V208" s="10"/>
+      <c r="W208" s="10"/>
+      <c r="X208" s="10"/>
+      <c r="Y208" s="10"/>
+      <c r="Z208" s="10"/>
+      <c r="AA208" s="10"/>
+      <c r="AB208" s="10"/>
+      <c r="AC208" s="10"/>
+      <c r="AD208" s="10"/>
+      <c r="AF208" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG208" s="10"/>
+      <c r="AH208" s="10"/>
+      <c r="AI208" s="10"/>
+      <c r="AJ208" s="10"/>
+      <c r="AK208" s="10"/>
+      <c r="AL208" s="10"/>
+      <c r="AM208" s="10"/>
+      <c r="AN208" s="10"/>
+      <c r="AO208" s="10"/>
+      <c r="AP208" s="10"/>
+      <c r="AQ208" s="10"/>
+      <c r="AR208" s="10"/>
+      <c r="AS208" s="10"/>
+      <c r="AT208" s="10"/>
+      <c r="AU208" s="10"/>
+      <c r="AV208" s="10"/>
+      <c r="AW208" s="10"/>
+      <c r="AX208" s="10"/>
+      <c r="AY208" s="10"/>
+      <c r="AZ208" s="10"/>
+      <c r="BA208" s="10"/>
+      <c r="BB208" s="10"/>
+      <c r="BC208" s="10"/>
+      <c r="BD208" s="10"/>
+      <c r="BE208" s="10"/>
+      <c r="BF208" s="10"/>
+      <c r="BH208" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI208" s="10"/>
+      <c r="BJ208" s="10"/>
+      <c r="BK208" s="10"/>
+      <c r="BL208" s="10"/>
+      <c r="BM208" s="10"/>
+      <c r="BN208" s="10"/>
+      <c r="BO208" s="10"/>
+      <c r="BP208" s="10"/>
+      <c r="BQ208" s="10"/>
+      <c r="BR208" s="10"/>
+      <c r="BS208" s="10"/>
+      <c r="BT208" s="10"/>
+      <c r="BU208" s="10"/>
+      <c r="BV208" s="10"/>
+      <c r="BW208" s="10"/>
+      <c r="BX208" s="10"/>
+      <c r="BY208" s="10"/>
+      <c r="BZ208" s="10"/>
+      <c r="CA208" s="10"/>
+      <c r="CB208" s="10"/>
+      <c r="CC208" s="10"/>
+      <c r="CD208" s="10"/>
+      <c r="CE208" s="10"/>
+      <c r="CF208" s="10"/>
+      <c r="CG208" s="10"/>
+      <c r="CH208" s="10"/>
+      <c r="CI208" s="10"/>
+      <c r="CJ208" s="10"/>
+      <c r="CK208" s="10"/>
+      <c r="CL208" s="10"/>
+    </row>
+    <row r="209" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C209" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="10"/>
+      <c r="N209" s="10"/>
+      <c r="O209" s="10"/>
+      <c r="P209" s="10"/>
+      <c r="Q209" s="10"/>
+      <c r="R209" s="10"/>
+      <c r="S209" s="10"/>
+      <c r="T209" s="10"/>
+      <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+      <c r="Z209" s="10"/>
+      <c r="AA209" s="10"/>
+      <c r="AB209" s="10"/>
+      <c r="AC209" s="10"/>
+      <c r="AD209" s="10"/>
+      <c r="AF209" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG209" s="10"/>
+      <c r="AH209" s="10"/>
+      <c r="AI209" s="10"/>
+      <c r="AJ209" s="10"/>
+      <c r="AK209" s="10"/>
+      <c r="AL209" s="10"/>
+      <c r="AM209" s="10"/>
+      <c r="AN209" s="10"/>
+      <c r="AO209" s="10"/>
+      <c r="AP209" s="10"/>
+      <c r="AQ209" s="10"/>
+      <c r="AR209" s="10"/>
+      <c r="AS209" s="10"/>
+      <c r="AT209" s="10"/>
+      <c r="AU209" s="10"/>
+      <c r="AV209" s="10"/>
+      <c r="AW209" s="10"/>
+      <c r="AX209" s="10"/>
+      <c r="AY209" s="10"/>
+      <c r="AZ209" s="10"/>
+      <c r="BA209" s="10"/>
+      <c r="BB209" s="10"/>
+      <c r="BC209" s="10"/>
+      <c r="BD209" s="10"/>
+      <c r="BE209" s="10"/>
+      <c r="BF209" s="10"/>
+      <c r="BH209" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI209" s="10"/>
+      <c r="BJ209" s="10"/>
+      <c r="BK209" s="10"/>
+      <c r="BL209" s="10"/>
+      <c r="BM209" s="10"/>
+      <c r="BN209" s="10"/>
+      <c r="BO209" s="10"/>
+      <c r="BP209" s="10"/>
+      <c r="BQ209" s="10"/>
+      <c r="BR209" s="10"/>
+      <c r="BS209" s="10"/>
+      <c r="BT209" s="10"/>
+      <c r="BU209" s="10"/>
+      <c r="BV209" s="10"/>
+      <c r="BW209" s="10"/>
+      <c r="BX209" s="10"/>
+      <c r="BY209" s="10"/>
+      <c r="BZ209" s="10"/>
+      <c r="CA209" s="10"/>
+      <c r="CB209" s="10"/>
+      <c r="CC209" s="10"/>
+      <c r="CD209" s="10"/>
+      <c r="CE209" s="10"/>
+      <c r="CF209" s="10"/>
+      <c r="CG209" s="10"/>
+      <c r="CH209" s="10"/>
+      <c r="CI209" s="10"/>
+      <c r="CJ209" s="10"/>
+      <c r="CK209" s="10"/>
+      <c r="CL209" s="10"/>
+    </row>
+    <row r="210" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C210" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="10"/>
+      <c r="P210" s="10"/>
+      <c r="Q210" s="10"/>
+      <c r="R210" s="10"/>
+      <c r="S210" s="10"/>
+      <c r="T210" s="10"/>
+      <c r="U210" s="10"/>
+      <c r="V210" s="10"/>
+      <c r="W210" s="10"/>
+      <c r="X210" s="10"/>
+      <c r="Y210" s="10"/>
+      <c r="Z210" s="10"/>
+      <c r="AA210" s="10"/>
+      <c r="AB210" s="10"/>
+      <c r="AC210" s="10"/>
+      <c r="AD210" s="10"/>
+      <c r="AF210" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG210" s="10"/>
+      <c r="AH210" s="10"/>
+      <c r="AI210" s="10"/>
+      <c r="AJ210" s="10"/>
+      <c r="AK210" s="10"/>
+      <c r="AL210" s="10"/>
+      <c r="AM210" s="10"/>
+      <c r="AN210" s="10"/>
+      <c r="AO210" s="10"/>
+      <c r="AP210" s="10"/>
+      <c r="AQ210" s="10"/>
+      <c r="AR210" s="10"/>
+      <c r="AS210" s="10"/>
+      <c r="AT210" s="10"/>
+      <c r="AU210" s="10"/>
+      <c r="AV210" s="10"/>
+      <c r="AW210" s="10"/>
+      <c r="AX210" s="10"/>
+      <c r="AY210" s="10"/>
+      <c r="AZ210" s="10"/>
+      <c r="BA210" s="10"/>
+      <c r="BB210" s="10"/>
+      <c r="BC210" s="10"/>
+      <c r="BD210" s="10"/>
+      <c r="BE210" s="10"/>
+      <c r="BF210" s="10"/>
+      <c r="BH210" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI210" s="10"/>
+      <c r="BJ210" s="10"/>
+      <c r="BK210" s="10"/>
+      <c r="BL210" s="10"/>
+      <c r="BM210" s="10"/>
+      <c r="BN210" s="10"/>
+      <c r="BO210" s="10"/>
+      <c r="BP210" s="10"/>
+      <c r="BQ210" s="10"/>
+      <c r="BR210" s="10"/>
+      <c r="BS210" s="10"/>
+      <c r="BT210" s="10"/>
+      <c r="BU210" s="10"/>
+      <c r="BV210" s="10"/>
+      <c r="BW210" s="10"/>
+      <c r="BX210" s="10"/>
+      <c r="BY210" s="10"/>
+      <c r="BZ210" s="10"/>
+      <c r="CA210" s="10"/>
+      <c r="CB210" s="10"/>
+      <c r="CC210" s="10"/>
+      <c r="CD210" s="10"/>
+      <c r="CE210" s="10"/>
+      <c r="CF210" s="10"/>
+      <c r="CG210" s="10"/>
+      <c r="CH210" s="10"/>
+      <c r="CI210" s="10"/>
+      <c r="CJ210" s="10"/>
+      <c r="CK210" s="10"/>
+      <c r="CL210" s="10"/>
+    </row>
+    <row r="211" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C211" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
+      <c r="L211" s="10"/>
+      <c r="M211" s="10"/>
+      <c r="N211" s="10"/>
+      <c r="O211" s="10"/>
+      <c r="P211" s="10"/>
+      <c r="Q211" s="10"/>
+      <c r="R211" s="10"/>
+      <c r="S211" s="10"/>
+      <c r="T211" s="10"/>
+      <c r="U211" s="10"/>
+      <c r="V211" s="10"/>
+      <c r="W211" s="10"/>
+      <c r="X211" s="10"/>
+      <c r="Y211" s="10"/>
+      <c r="Z211" s="10"/>
+      <c r="AA211" s="10"/>
+      <c r="AB211" s="10"/>
+      <c r="AC211" s="10"/>
+      <c r="AD211" s="10"/>
+      <c r="AF211" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG211" s="10"/>
+      <c r="AH211" s="10"/>
+      <c r="AI211" s="10"/>
+      <c r="AJ211" s="10"/>
+      <c r="AK211" s="10"/>
+      <c r="AL211" s="10"/>
+      <c r="AM211" s="10"/>
+      <c r="AN211" s="10"/>
+      <c r="AO211" s="10"/>
+      <c r="AP211" s="10"/>
+      <c r="AQ211" s="10"/>
+      <c r="AR211" s="10"/>
+      <c r="AS211" s="10"/>
+      <c r="AT211" s="10"/>
+      <c r="AU211" s="10"/>
+      <c r="AV211" s="10"/>
+      <c r="AW211" s="10"/>
+      <c r="AX211" s="10"/>
+      <c r="AY211" s="10"/>
+      <c r="AZ211" s="10"/>
+      <c r="BA211" s="10"/>
+      <c r="BB211" s="10"/>
+      <c r="BC211" s="10"/>
+      <c r="BD211" s="10"/>
+      <c r="BE211" s="10"/>
+      <c r="BF211" s="10"/>
+      <c r="BH211" s="9"/>
+      <c r="BI211" s="10"/>
+      <c r="BJ211" s="10"/>
+      <c r="BK211" s="10"/>
+      <c r="BL211" s="10"/>
+      <c r="BM211" s="10"/>
+      <c r="BN211" s="10"/>
+      <c r="BO211" s="10"/>
+      <c r="BP211" s="10"/>
+      <c r="BQ211" s="10"/>
+      <c r="BR211" s="10"/>
+      <c r="BS211" s="10"/>
+      <c r="BT211" s="10"/>
+      <c r="BU211" s="10"/>
+      <c r="BV211" s="10"/>
+      <c r="BW211" s="10"/>
+      <c r="BX211" s="10"/>
+      <c r="BY211" s="10"/>
+      <c r="BZ211" s="10"/>
+      <c r="CA211" s="10"/>
+      <c r="CB211" s="10"/>
+      <c r="CC211" s="10"/>
+      <c r="CD211" s="10"/>
+      <c r="CE211" s="10"/>
+      <c r="CF211" s="10"/>
+      <c r="CG211" s="10"/>
+      <c r="CH211" s="10"/>
+      <c r="CI211" s="10"/>
+      <c r="CJ211" s="10"/>
+      <c r="CK211" s="10"/>
+      <c r="CL211" s="10"/>
+    </row>
+    <row r="212" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C212" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
+      <c r="P212" s="10"/>
+      <c r="Q212" s="10"/>
+      <c r="R212" s="10"/>
+      <c r="S212" s="10"/>
+      <c r="T212" s="10"/>
+      <c r="U212" s="10"/>
+      <c r="V212" s="10"/>
+      <c r="W212" s="10"/>
+      <c r="X212" s="10"/>
+      <c r="Y212" s="10"/>
+      <c r="Z212" s="10"/>
+      <c r="AA212" s="10"/>
+      <c r="AB212" s="10"/>
+      <c r="AC212" s="10"/>
+      <c r="AD212" s="10"/>
+      <c r="AF212" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG212" s="10"/>
+      <c r="AH212" s="10"/>
+      <c r="AI212" s="10"/>
+      <c r="AJ212" s="10"/>
+      <c r="AK212" s="10"/>
+      <c r="AL212" s="10"/>
+      <c r="AM212" s="10"/>
+      <c r="AN212" s="10"/>
+      <c r="AO212" s="10"/>
+      <c r="AP212" s="10"/>
+      <c r="AQ212" s="10"/>
+      <c r="AR212" s="10"/>
+      <c r="AS212" s="10"/>
+      <c r="AT212" s="10"/>
+      <c r="AU212" s="10"/>
+      <c r="AV212" s="10"/>
+      <c r="AW212" s="10"/>
+      <c r="AX212" s="10"/>
+      <c r="AY212" s="10"/>
+      <c r="AZ212" s="10"/>
+      <c r="BA212" s="10"/>
+      <c r="BB212" s="10"/>
+      <c r="BC212" s="10"/>
+      <c r="BD212" s="10"/>
+      <c r="BE212" s="10"/>
+      <c r="BF212" s="10"/>
+      <c r="BH212" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI212" s="10"/>
+      <c r="BJ212" s="10"/>
+      <c r="BK212" s="10"/>
+      <c r="BL212" s="10"/>
+      <c r="BM212" s="10"/>
+      <c r="BN212" s="10"/>
+      <c r="BO212" s="10"/>
+      <c r="BP212" s="10"/>
+      <c r="BQ212" s="10"/>
+      <c r="BR212" s="10"/>
+      <c r="BS212" s="10"/>
+      <c r="BT212" s="10"/>
+      <c r="BU212" s="10"/>
+      <c r="BV212" s="10"/>
+      <c r="BW212" s="10"/>
+      <c r="BX212" s="10"/>
+      <c r="BY212" s="10"/>
+      <c r="BZ212" s="10"/>
+      <c r="CA212" s="10"/>
+      <c r="CB212" s="10"/>
+      <c r="CC212" s="10"/>
+      <c r="CD212" s="10"/>
+      <c r="CE212" s="10"/>
+      <c r="CF212" s="10"/>
+      <c r="CG212" s="10"/>
+      <c r="CH212" s="10"/>
+      <c r="CI212" s="10"/>
+      <c r="CJ212" s="10"/>
+      <c r="CK212" s="10"/>
+      <c r="CL212" s="10"/>
+    </row>
+    <row r="213" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C213" s="9"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="10"/>
+      <c r="N213" s="10"/>
+      <c r="O213" s="10"/>
+      <c r="P213" s="10"/>
+      <c r="Q213" s="10"/>
+      <c r="R213" s="10"/>
+      <c r="S213" s="10"/>
+      <c r="T213" s="10"/>
+      <c r="U213" s="10"/>
+      <c r="V213" s="10"/>
+      <c r="W213" s="10"/>
+      <c r="X213" s="10"/>
+      <c r="Y213" s="10"/>
+      <c r="Z213" s="10"/>
+      <c r="AA213" s="10"/>
+      <c r="AB213" s="10"/>
+      <c r="AC213" s="10"/>
+      <c r="AD213" s="10"/>
+      <c r="AF213" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG213" s="10"/>
+      <c r="AH213" s="10"/>
+      <c r="AI213" s="10"/>
+      <c r="AJ213" s="10"/>
+      <c r="AK213" s="10"/>
+      <c r="AL213" s="10"/>
+      <c r="AM213" s="10"/>
+      <c r="AN213" s="10"/>
+      <c r="AO213" s="10"/>
+      <c r="AP213" s="10"/>
+      <c r="AQ213" s="10"/>
+      <c r="AR213" s="10"/>
+      <c r="AS213" s="10"/>
+      <c r="AT213" s="10"/>
+      <c r="AU213" s="10"/>
+      <c r="AV213" s="10"/>
+      <c r="AW213" s="10"/>
+      <c r="AX213" s="10"/>
+      <c r="AY213" s="10"/>
+      <c r="AZ213" s="10"/>
+      <c r="BA213" s="10"/>
+      <c r="BB213" s="10"/>
+      <c r="BC213" s="10"/>
+      <c r="BD213" s="10"/>
+      <c r="BE213" s="10"/>
+      <c r="BF213" s="10"/>
+      <c r="BH213" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI213" s="10"/>
+      <c r="BJ213" s="10"/>
+      <c r="BK213" s="10"/>
+      <c r="BL213" s="10"/>
+      <c r="BM213" s="10"/>
+      <c r="BN213" s="10"/>
+      <c r="BO213" s="10"/>
+      <c r="BP213" s="10"/>
+      <c r="BQ213" s="10"/>
+      <c r="BR213" s="10"/>
+      <c r="BS213" s="10"/>
+      <c r="BT213" s="10"/>
+      <c r="BU213" s="10"/>
+      <c r="BV213" s="10"/>
+      <c r="BW213" s="10"/>
+      <c r="BX213" s="10"/>
+      <c r="BY213" s="10"/>
+      <c r="BZ213" s="10"/>
+      <c r="CA213" s="10"/>
+      <c r="CB213" s="10"/>
+      <c r="CC213" s="10"/>
+      <c r="CD213" s="10"/>
+      <c r="CE213" s="10"/>
+      <c r="CF213" s="10"/>
+      <c r="CG213" s="10"/>
+      <c r="CH213" s="10"/>
+      <c r="CI213" s="10"/>
+      <c r="CJ213" s="10"/>
+      <c r="CK213" s="10"/>
+      <c r="CL213" s="10"/>
+    </row>
+    <row r="214" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C214" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+      <c r="K214" s="10"/>
+      <c r="L214" s="10"/>
+      <c r="M214" s="10"/>
+      <c r="N214" s="10"/>
+      <c r="O214" s="10"/>
+      <c r="P214" s="10"/>
+      <c r="Q214" s="10"/>
+      <c r="R214" s="10"/>
+      <c r="S214" s="10"/>
+      <c r="T214" s="10"/>
+      <c r="U214" s="10"/>
+      <c r="V214" s="10"/>
+      <c r="W214" s="10"/>
+      <c r="X214" s="10"/>
+      <c r="Y214" s="10"/>
+      <c r="Z214" s="10"/>
+      <c r="AA214" s="10"/>
+      <c r="AB214" s="10"/>
+      <c r="AC214" s="10"/>
+      <c r="AD214" s="10"/>
+      <c r="AF214" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG214" s="10"/>
+      <c r="AH214" s="10"/>
+      <c r="AI214" s="10"/>
+      <c r="AJ214" s="10"/>
+      <c r="AK214" s="10"/>
+      <c r="AL214" s="10"/>
+      <c r="AM214" s="10"/>
+      <c r="AN214" s="10"/>
+      <c r="AO214" s="10"/>
+      <c r="AP214" s="10"/>
+      <c r="AQ214" s="10"/>
+      <c r="AR214" s="10"/>
+      <c r="AS214" s="10"/>
+      <c r="AT214" s="10"/>
+      <c r="AU214" s="10"/>
+      <c r="AV214" s="10"/>
+      <c r="AW214" s="10"/>
+      <c r="AX214" s="10"/>
+      <c r="AY214" s="10"/>
+      <c r="AZ214" s="10"/>
+      <c r="BA214" s="10"/>
+      <c r="BB214" s="10"/>
+      <c r="BC214" s="10"/>
+      <c r="BD214" s="10"/>
+      <c r="BE214" s="10"/>
+      <c r="BF214" s="10"/>
+    </row>
+    <row r="215" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C215" s="9"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="10"/>
+      <c r="N215" s="10"/>
+      <c r="O215" s="10"/>
+      <c r="P215" s="10"/>
+      <c r="Q215" s="10"/>
+      <c r="R215" s="10"/>
+      <c r="S215" s="10"/>
+      <c r="T215" s="10"/>
+      <c r="U215" s="10"/>
+      <c r="V215" s="10"/>
+      <c r="W215" s="10"/>
+      <c r="X215" s="10"/>
+      <c r="Y215" s="10"/>
+      <c r="Z215" s="10"/>
+      <c r="AA215" s="10"/>
+      <c r="AB215" s="10"/>
+      <c r="AC215" s="10"/>
+      <c r="AD215" s="10"/>
+      <c r="AF215" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG215" s="10"/>
+      <c r="AH215" s="10"/>
+      <c r="AI215" s="10"/>
+      <c r="AJ215" s="10"/>
+      <c r="AK215" s="10"/>
+      <c r="AL215" s="10"/>
+      <c r="AM215" s="10"/>
+      <c r="AN215" s="10"/>
+      <c r="AO215" s="10"/>
+      <c r="AP215" s="10"/>
+      <c r="AQ215" s="10"/>
+      <c r="AR215" s="10"/>
+      <c r="AS215" s="10"/>
+      <c r="AT215" s="10"/>
+      <c r="AU215" s="10"/>
+      <c r="AV215" s="10"/>
+      <c r="AW215" s="10"/>
+      <c r="AX215" s="10"/>
+      <c r="AY215" s="10"/>
+      <c r="AZ215" s="10"/>
+      <c r="BA215" s="10"/>
+      <c r="BB215" s="10"/>
+      <c r="BC215" s="10"/>
+      <c r="BD215" s="10"/>
+      <c r="BE215" s="10"/>
+      <c r="BF215" s="10"/>
+    </row>
+    <row r="216" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C216" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+      <c r="U216" s="10"/>
+      <c r="V216" s="10"/>
+      <c r="W216" s="10"/>
+      <c r="X216" s="10"/>
+      <c r="Y216" s="10"/>
+      <c r="Z216" s="10"/>
+      <c r="AA216" s="10"/>
+      <c r="AB216" s="10"/>
+      <c r="AC216" s="10"/>
+      <c r="AD216" s="10"/>
+      <c r="AF216" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG216" s="10"/>
+      <c r="AH216" s="10"/>
+      <c r="AI216" s="10"/>
+      <c r="AJ216" s="10"/>
+      <c r="AK216" s="10"/>
+      <c r="AL216" s="10"/>
+      <c r="AM216" s="10"/>
+      <c r="AN216" s="10"/>
+      <c r="AO216" s="10"/>
+      <c r="AP216" s="10"/>
+      <c r="AQ216" s="10"/>
+      <c r="AR216" s="10"/>
+      <c r="AS216" s="10"/>
+      <c r="AT216" s="10"/>
+      <c r="AU216" s="10"/>
+      <c r="AV216" s="10"/>
+      <c r="AW216" s="10"/>
+      <c r="AX216" s="10"/>
+      <c r="AY216" s="10"/>
+      <c r="AZ216" s="10"/>
+      <c r="BA216" s="10"/>
+      <c r="BB216" s="10"/>
+      <c r="BC216" s="10"/>
+      <c r="BD216" s="10"/>
+      <c r="BE216" s="10"/>
+      <c r="BF216" s="10"/>
+    </row>
+    <row r="217" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C217" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10"/>
+      <c r="R217" s="10"/>
+      <c r="S217" s="10"/>
+      <c r="T217" s="10"/>
+      <c r="U217" s="10"/>
+      <c r="V217" s="10"/>
+      <c r="W217" s="10"/>
+      <c r="X217" s="10"/>
+      <c r="Y217" s="10"/>
+      <c r="Z217" s="10"/>
+      <c r="AA217" s="10"/>
+      <c r="AB217" s="10"/>
+      <c r="AC217" s="10"/>
+      <c r="AD217" s="10"/>
+      <c r="AF217" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG217" s="10"/>
+      <c r="AH217" s="10"/>
+      <c r="AI217" s="10"/>
+      <c r="AJ217" s="10"/>
+      <c r="AK217" s="10"/>
+      <c r="AL217" s="10"/>
+      <c r="AM217" s="10"/>
+      <c r="AN217" s="10"/>
+      <c r="AO217" s="10"/>
+      <c r="AP217" s="10"/>
+      <c r="AQ217" s="10"/>
+      <c r="AR217" s="10"/>
+      <c r="AS217" s="10"/>
+      <c r="AT217" s="10"/>
+      <c r="AU217" s="10"/>
+      <c r="AV217" s="10"/>
+      <c r="AW217" s="10"/>
+      <c r="AX217" s="10"/>
+      <c r="AY217" s="10"/>
+      <c r="AZ217" s="10"/>
+      <c r="BA217" s="10"/>
+      <c r="BB217" s="10"/>
+      <c r="BC217" s="10"/>
+      <c r="BD217" s="10"/>
+      <c r="BE217" s="10"/>
+      <c r="BF217" s="10"/>
+    </row>
+    <row r="218" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C218" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+      <c r="N218" s="10"/>
+      <c r="O218" s="10"/>
+      <c r="P218" s="10"/>
+      <c r="Q218" s="10"/>
+      <c r="R218" s="10"/>
+      <c r="S218" s="10"/>
+      <c r="T218" s="10"/>
+      <c r="U218" s="10"/>
+      <c r="V218" s="10"/>
+      <c r="W218" s="10"/>
+      <c r="X218" s="10"/>
+      <c r="Y218" s="10"/>
+      <c r="Z218" s="10"/>
+      <c r="AA218" s="10"/>
+      <c r="AB218" s="10"/>
+      <c r="AC218" s="10"/>
+      <c r="AD218" s="10"/>
+      <c r="AF218" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG218" s="10"/>
+      <c r="AH218" s="10"/>
+      <c r="AI218" s="10"/>
+      <c r="AJ218" s="10"/>
+      <c r="AK218" s="10"/>
+      <c r="AL218" s="10"/>
+      <c r="AM218" s="10"/>
+      <c r="AN218" s="10"/>
+      <c r="AO218" s="10"/>
+      <c r="AP218" s="10"/>
+      <c r="AQ218" s="10"/>
+      <c r="AR218" s="10"/>
+      <c r="AS218" s="10"/>
+      <c r="AT218" s="10"/>
+      <c r="AU218" s="10"/>
+      <c r="AV218" s="10"/>
+      <c r="AW218" s="10"/>
+      <c r="AX218" s="10"/>
+      <c r="AY218" s="10"/>
+      <c r="AZ218" s="10"/>
+      <c r="BA218" s="10"/>
+      <c r="BB218" s="10"/>
+      <c r="BC218" s="10"/>
+      <c r="BD218" s="10"/>
+      <c r="BE218" s="10"/>
+      <c r="BF218" s="10"/>
+    </row>
+    <row r="219" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C219" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="10"/>
+      <c r="N219" s="10"/>
+      <c r="O219" s="10"/>
+      <c r="P219" s="10"/>
+      <c r="Q219" s="10"/>
+      <c r="R219" s="10"/>
+      <c r="S219" s="10"/>
+      <c r="T219" s="10"/>
+      <c r="U219" s="10"/>
+      <c r="V219" s="10"/>
+      <c r="W219" s="10"/>
+      <c r="X219" s="10"/>
+      <c r="Y219" s="10"/>
+      <c r="Z219" s="10"/>
+      <c r="AA219" s="10"/>
+      <c r="AB219" s="10"/>
+      <c r="AC219" s="10"/>
+      <c r="AD219" s="10"/>
+      <c r="AF219" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG219" s="10"/>
+      <c r="AH219" s="10"/>
+      <c r="AI219" s="10"/>
+      <c r="AJ219" s="10"/>
+      <c r="AK219" s="10"/>
+      <c r="AL219" s="10"/>
+      <c r="AM219" s="10"/>
+      <c r="AN219" s="10"/>
+      <c r="AO219" s="10"/>
+      <c r="AP219" s="10"/>
+      <c r="AQ219" s="10"/>
+      <c r="AR219" s="10"/>
+      <c r="AS219" s="10"/>
+      <c r="AT219" s="10"/>
+      <c r="AU219" s="10"/>
+      <c r="AV219" s="10"/>
+      <c r="AW219" s="10"/>
+      <c r="AX219" s="10"/>
+      <c r="AY219" s="10"/>
+      <c r="AZ219" s="10"/>
+      <c r="BA219" s="10"/>
+      <c r="BB219" s="10"/>
+      <c r="BC219" s="10"/>
+      <c r="BD219" s="10"/>
+      <c r="BE219" s="10"/>
+      <c r="BF219" s="10"/>
+    </row>
+    <row r="220" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C220" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+      <c r="N220" s="10"/>
+      <c r="O220" s="10"/>
+      <c r="P220" s="10"/>
+      <c r="Q220" s="10"/>
+      <c r="R220" s="10"/>
+      <c r="S220" s="10"/>
+      <c r="T220" s="10"/>
+      <c r="U220" s="10"/>
+      <c r="V220" s="10"/>
+      <c r="W220" s="10"/>
+      <c r="X220" s="10"/>
+      <c r="Y220" s="10"/>
+      <c r="Z220" s="10"/>
+      <c r="AA220" s="10"/>
+      <c r="AB220" s="10"/>
+      <c r="AC220" s="10"/>
+      <c r="AD220" s="10"/>
+      <c r="AF220" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG220" s="10"/>
+      <c r="AH220" s="10"/>
+      <c r="AI220" s="10"/>
+      <c r="AJ220" s="10"/>
+      <c r="AK220" s="10"/>
+      <c r="AL220" s="10"/>
+      <c r="AM220" s="10"/>
+      <c r="AN220" s="10"/>
+      <c r="AO220" s="10"/>
+      <c r="AP220" s="10"/>
+      <c r="AQ220" s="10"/>
+      <c r="AR220" s="10"/>
+      <c r="AS220" s="10"/>
+      <c r="AT220" s="10"/>
+      <c r="AU220" s="10"/>
+      <c r="AV220" s="10"/>
+      <c r="AW220" s="10"/>
+      <c r="AX220" s="10"/>
+      <c r="AY220" s="10"/>
+      <c r="AZ220" s="10"/>
+      <c r="BA220" s="10"/>
+      <c r="BB220" s="10"/>
+      <c r="BC220" s="10"/>
+      <c r="BD220" s="10"/>
+      <c r="BE220" s="10"/>
+      <c r="BF220" s="10"/>
+    </row>
+    <row r="221" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C221" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10"/>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+      <c r="U221" s="10"/>
+      <c r="V221" s="10"/>
+      <c r="W221" s="10"/>
+      <c r="X221" s="10"/>
+      <c r="Y221" s="10"/>
+      <c r="Z221" s="10"/>
+      <c r="AA221" s="10"/>
+      <c r="AB221" s="10"/>
+      <c r="AC221" s="10"/>
+      <c r="AD221" s="10"/>
+      <c r="AF221" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG221" s="10"/>
+      <c r="AH221" s="10"/>
+      <c r="AI221" s="10"/>
+      <c r="AJ221" s="10"/>
+      <c r="AK221" s="10"/>
+      <c r="AL221" s="10"/>
+      <c r="AM221" s="10"/>
+      <c r="AN221" s="10"/>
+      <c r="AO221" s="10"/>
+      <c r="AP221" s="10"/>
+      <c r="AQ221" s="10"/>
+      <c r="AR221" s="10"/>
+      <c r="AS221" s="10"/>
+      <c r="AT221" s="10"/>
+      <c r="AU221" s="10"/>
+      <c r="AV221" s="10"/>
+      <c r="AW221" s="10"/>
+      <c r="AX221" s="10"/>
+      <c r="AY221" s="10"/>
+      <c r="AZ221" s="10"/>
+      <c r="BA221" s="10"/>
+      <c r="BB221" s="10"/>
+      <c r="BC221" s="10"/>
+      <c r="BD221" s="10"/>
+      <c r="BE221" s="10"/>
+      <c r="BF221" s="10"/>
+    </row>
+    <row r="222" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C222" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="10"/>
+      <c r="S222" s="10"/>
+      <c r="T222" s="10"/>
+      <c r="U222" s="10"/>
+      <c r="V222" s="10"/>
+      <c r="W222" s="10"/>
+      <c r="X222" s="10"/>
+      <c r="Y222" s="10"/>
+      <c r="Z222" s="10"/>
+      <c r="AA222" s="10"/>
+      <c r="AB222" s="10"/>
+      <c r="AC222" s="10"/>
+      <c r="AD222" s="10"/>
+      <c r="AF222" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG222" s="10"/>
+      <c r="AH222" s="10"/>
+      <c r="AI222" s="10"/>
+      <c r="AJ222" s="10"/>
+      <c r="AK222" s="10"/>
+      <c r="AL222" s="10"/>
+      <c r="AM222" s="10"/>
+      <c r="AN222" s="10"/>
+      <c r="AO222" s="10"/>
+      <c r="AP222" s="10"/>
+      <c r="AQ222" s="10"/>
+      <c r="AR222" s="10"/>
+      <c r="AS222" s="10"/>
+      <c r="AT222" s="10"/>
+      <c r="AU222" s="10"/>
+      <c r="AV222" s="10"/>
+      <c r="AW222" s="10"/>
+      <c r="AX222" s="10"/>
+      <c r="AY222" s="10"/>
+      <c r="AZ222" s="10"/>
+      <c r="BA222" s="10"/>
+      <c r="BB222" s="10"/>
+      <c r="BC222" s="10"/>
+      <c r="BD222" s="10"/>
+      <c r="BE222" s="10"/>
+      <c r="BF222" s="10"/>
+    </row>
+    <row r="223" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C223" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="10"/>
+      <c r="N223" s="10"/>
+      <c r="O223" s="10"/>
+      <c r="P223" s="10"/>
+      <c r="Q223" s="10"/>
+      <c r="R223" s="10"/>
+      <c r="S223" s="10"/>
+      <c r="T223" s="10"/>
+      <c r="U223" s="10"/>
+      <c r="V223" s="10"/>
+      <c r="W223" s="10"/>
+      <c r="X223" s="10"/>
+      <c r="Y223" s="10"/>
+      <c r="Z223" s="10"/>
+      <c r="AA223" s="10"/>
+      <c r="AB223" s="10"/>
+      <c r="AC223" s="10"/>
+      <c r="AD223" s="10"/>
+      <c r="AF223" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG223" s="10"/>
+      <c r="AH223" s="10"/>
+      <c r="AI223" s="10"/>
+      <c r="AJ223" s="10"/>
+      <c r="AK223" s="10"/>
+      <c r="AL223" s="10"/>
+      <c r="AM223" s="10"/>
+      <c r="AN223" s="10"/>
+      <c r="AO223" s="10"/>
+      <c r="AP223" s="10"/>
+      <c r="AQ223" s="10"/>
+      <c r="AR223" s="10"/>
+      <c r="AS223" s="10"/>
+      <c r="AT223" s="10"/>
+      <c r="AU223" s="10"/>
+      <c r="AV223" s="10"/>
+      <c r="AW223" s="10"/>
+      <c r="AX223" s="10"/>
+      <c r="AY223" s="10"/>
+      <c r="AZ223" s="10"/>
+      <c r="BA223" s="10"/>
+      <c r="BB223" s="10"/>
+      <c r="BC223" s="10"/>
+      <c r="BD223" s="10"/>
+      <c r="BE223" s="10"/>
+      <c r="BF223" s="10"/>
+    </row>
+    <row r="224" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C224" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="10"/>
+      <c r="N224" s="10"/>
+      <c r="O224" s="10"/>
+      <c r="P224" s="10"/>
+      <c r="Q224" s="10"/>
+      <c r="R224" s="10"/>
+      <c r="S224" s="10"/>
+      <c r="T224" s="10"/>
+      <c r="U224" s="10"/>
+      <c r="V224" s="10"/>
+      <c r="W224" s="10"/>
+      <c r="X224" s="10"/>
+      <c r="Y224" s="10"/>
+      <c r="Z224" s="10"/>
+      <c r="AA224" s="10"/>
+      <c r="AB224" s="10"/>
+      <c r="AC224" s="10"/>
+      <c r="AD224" s="10"/>
+      <c r="AF224" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG224" s="10"/>
+      <c r="AH224" s="10"/>
+      <c r="AI224" s="10"/>
+      <c r="AJ224" s="10"/>
+      <c r="AK224" s="10"/>
+      <c r="AL224" s="10"/>
+      <c r="AM224" s="10"/>
+      <c r="AN224" s="10"/>
+      <c r="AO224" s="10"/>
+      <c r="AP224" s="10"/>
+      <c r="AQ224" s="10"/>
+      <c r="AR224" s="10"/>
+      <c r="AS224" s="10"/>
+      <c r="AT224" s="10"/>
+      <c r="AU224" s="10"/>
+      <c r="AV224" s="10"/>
+      <c r="AW224" s="10"/>
+      <c r="AX224" s="10"/>
+      <c r="AY224" s="10"/>
+      <c r="AZ224" s="10"/>
+      <c r="BA224" s="10"/>
+      <c r="BB224" s="10"/>
+      <c r="BC224" s="10"/>
+      <c r="BD224" s="10"/>
+      <c r="BE224" s="10"/>
+      <c r="BF224" s="10"/>
+    </row>
+    <row r="225" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C225" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="10"/>
+      <c r="N225" s="10"/>
+      <c r="O225" s="10"/>
+      <c r="P225" s="10"/>
+      <c r="Q225" s="10"/>
+      <c r="R225" s="10"/>
+      <c r="S225" s="10"/>
+      <c r="T225" s="10"/>
+      <c r="U225" s="10"/>
+      <c r="V225" s="10"/>
+      <c r="W225" s="10"/>
+      <c r="X225" s="10"/>
+      <c r="Y225" s="10"/>
+      <c r="Z225" s="10"/>
+      <c r="AA225" s="10"/>
+      <c r="AB225" s="10"/>
+      <c r="AC225" s="10"/>
+      <c r="AD225" s="10"/>
+      <c r="AF225" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG225" s="10"/>
+      <c r="AH225" s="10"/>
+      <c r="AI225" s="10"/>
+      <c r="AJ225" s="10"/>
+      <c r="AK225" s="10"/>
+      <c r="AL225" s="10"/>
+      <c r="AM225" s="10"/>
+      <c r="AN225" s="10"/>
+      <c r="AO225" s="10"/>
+      <c r="AP225" s="10"/>
+      <c r="AQ225" s="10"/>
+      <c r="AR225" s="10"/>
+      <c r="AS225" s="10"/>
+      <c r="AT225" s="10"/>
+      <c r="AU225" s="10"/>
+      <c r="AV225" s="10"/>
+      <c r="AW225" s="10"/>
+      <c r="AX225" s="10"/>
+      <c r="AY225" s="10"/>
+      <c r="AZ225" s="10"/>
+      <c r="BA225" s="10"/>
+      <c r="BB225" s="10"/>
+      <c r="BC225" s="10"/>
+      <c r="BD225" s="10"/>
+      <c r="BE225" s="10"/>
+      <c r="BF225" s="10"/>
+    </row>
+    <row r="226" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C226" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="10"/>
+      <c r="N226" s="10"/>
+      <c r="O226" s="10"/>
+      <c r="P226" s="10"/>
+      <c r="Q226" s="10"/>
+      <c r="R226" s="10"/>
+      <c r="S226" s="10"/>
+      <c r="T226" s="10"/>
+      <c r="U226" s="10"/>
+      <c r="V226" s="10"/>
+      <c r="W226" s="10"/>
+      <c r="X226" s="10"/>
+      <c r="Y226" s="10"/>
+      <c r="Z226" s="10"/>
+      <c r="AA226" s="10"/>
+      <c r="AB226" s="10"/>
+      <c r="AC226" s="10"/>
+      <c r="AD226" s="10"/>
+      <c r="AF226" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG226" s="10"/>
+      <c r="AH226" s="10"/>
+      <c r="AI226" s="10"/>
+      <c r="AJ226" s="10"/>
+      <c r="AK226" s="10"/>
+      <c r="AL226" s="10"/>
+      <c r="AM226" s="10"/>
+      <c r="AN226" s="10"/>
+      <c r="AO226" s="10"/>
+      <c r="AP226" s="10"/>
+      <c r="AQ226" s="10"/>
+      <c r="AR226" s="10"/>
+      <c r="AS226" s="10"/>
+      <c r="AT226" s="10"/>
+      <c r="AU226" s="10"/>
+      <c r="AV226" s="10"/>
+      <c r="AW226" s="10"/>
+      <c r="AX226" s="10"/>
+      <c r="AY226" s="10"/>
+      <c r="AZ226" s="10"/>
+      <c r="BA226" s="10"/>
+      <c r="BB226" s="10"/>
+      <c r="BC226" s="10"/>
+      <c r="BD226" s="10"/>
+      <c r="BE226" s="10"/>
+      <c r="BF226" s="10"/>
+    </row>
+    <row r="227" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C227" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
+      <c r="L227" s="10"/>
+      <c r="M227" s="10"/>
+      <c r="N227" s="10"/>
+      <c r="O227" s="10"/>
+      <c r="P227" s="10"/>
+      <c r="Q227" s="10"/>
+      <c r="R227" s="10"/>
+      <c r="S227" s="10"/>
+      <c r="T227" s="10"/>
+      <c r="U227" s="10"/>
+      <c r="V227" s="10"/>
+      <c r="W227" s="10"/>
+      <c r="X227" s="10"/>
+      <c r="Y227" s="10"/>
+      <c r="Z227" s="10"/>
+      <c r="AA227" s="10"/>
+      <c r="AB227" s="10"/>
+      <c r="AC227" s="10"/>
+      <c r="AD227" s="10"/>
+      <c r="AF227" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG227" s="10"/>
+      <c r="AH227" s="10"/>
+      <c r="AI227" s="10"/>
+      <c r="AJ227" s="10"/>
+      <c r="AK227" s="10"/>
+      <c r="AL227" s="10"/>
+      <c r="AM227" s="10"/>
+      <c r="AN227" s="10"/>
+      <c r="AO227" s="10"/>
+      <c r="AP227" s="10"/>
+      <c r="AQ227" s="10"/>
+      <c r="AR227" s="10"/>
+      <c r="AS227" s="10"/>
+      <c r="AT227" s="10"/>
+      <c r="AU227" s="10"/>
+      <c r="AV227" s="10"/>
+      <c r="AW227" s="10"/>
+      <c r="AX227" s="10"/>
+      <c r="AY227" s="10"/>
+      <c r="AZ227" s="10"/>
+      <c r="BA227" s="10"/>
+      <c r="BB227" s="10"/>
+      <c r="BC227" s="10"/>
+      <c r="BD227" s="10"/>
+      <c r="BE227" s="10"/>
+      <c r="BF227" s="10"/>
+    </row>
+    <row r="228" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C228" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="10"/>
+      <c r="O228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
+      <c r="S228" s="10"/>
+      <c r="T228" s="10"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
+      <c r="X228" s="10"/>
+      <c r="Y228" s="10"/>
+      <c r="Z228" s="10"/>
+      <c r="AA228" s="10"/>
+      <c r="AB228" s="10"/>
+      <c r="AC228" s="10"/>
+      <c r="AD228" s="10"/>
+      <c r="AF228" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG228" s="10"/>
+      <c r="AH228" s="10"/>
+      <c r="AI228" s="10"/>
+      <c r="AJ228" s="10"/>
+      <c r="AK228" s="10"/>
+      <c r="AL228" s="10"/>
+      <c r="AM228" s="10"/>
+      <c r="AN228" s="10"/>
+      <c r="AO228" s="10"/>
+      <c r="AP228" s="10"/>
+      <c r="AQ228" s="10"/>
+      <c r="AR228" s="10"/>
+      <c r="AS228" s="10"/>
+      <c r="AT228" s="10"/>
+      <c r="AU228" s="10"/>
+      <c r="AV228" s="10"/>
+      <c r="AW228" s="10"/>
+      <c r="AX228" s="10"/>
+      <c r="AY228" s="10"/>
+      <c r="AZ228" s="10"/>
+      <c r="BA228" s="10"/>
+      <c r="BB228" s="10"/>
+      <c r="BC228" s="10"/>
+      <c r="BD228" s="10"/>
+      <c r="BE228" s="10"/>
+      <c r="BF228" s="10"/>
+    </row>
+    <row r="229" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C229" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="10"/>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
+      <c r="X229" s="10"/>
+      <c r="Y229" s="10"/>
+      <c r="Z229" s="10"/>
+      <c r="AA229" s="10"/>
+      <c r="AB229" s="10"/>
+      <c r="AC229" s="10"/>
+      <c r="AD229" s="10"/>
+      <c r="AF229" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG229" s="10"/>
+      <c r="AH229" s="10"/>
+      <c r="AI229" s="10"/>
+      <c r="AJ229" s="10"/>
+      <c r="AK229" s="10"/>
+      <c r="AL229" s="10"/>
+      <c r="AM229" s="10"/>
+      <c r="AN229" s="10"/>
+      <c r="AO229" s="10"/>
+      <c r="AP229" s="10"/>
+      <c r="AQ229" s="10"/>
+      <c r="AR229" s="10"/>
+      <c r="AS229" s="10"/>
+      <c r="AT229" s="10"/>
+      <c r="AU229" s="10"/>
+      <c r="AV229" s="10"/>
+      <c r="AW229" s="10"/>
+      <c r="AX229" s="10"/>
+      <c r="AY229" s="10"/>
+      <c r="AZ229" s="10"/>
+      <c r="BA229" s="10"/>
+      <c r="BB229" s="10"/>
+      <c r="BC229" s="10"/>
+      <c r="BD229" s="10"/>
+      <c r="BE229" s="10"/>
+      <c r="BF229" s="10"/>
+    </row>
+    <row r="230" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C230" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="10"/>
+      <c r="N230" s="10"/>
+      <c r="O230" s="10"/>
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
+      <c r="S230" s="10"/>
+      <c r="T230" s="10"/>
+      <c r="U230" s="10"/>
+      <c r="V230" s="10"/>
+      <c r="W230" s="10"/>
+      <c r="X230" s="10"/>
+      <c r="Y230" s="10"/>
+      <c r="Z230" s="10"/>
+      <c r="AA230" s="10"/>
+      <c r="AB230" s="10"/>
+      <c r="AC230" s="10"/>
+      <c r="AD230" s="10"/>
+      <c r="AF230" s="9"/>
+      <c r="AG230" s="10"/>
+      <c r="AH230" s="10"/>
+      <c r="AI230" s="10"/>
+      <c r="AJ230" s="10"/>
+      <c r="AK230" s="10"/>
+      <c r="AL230" s="10"/>
+      <c r="AM230" s="10"/>
+      <c r="AN230" s="10"/>
+      <c r="AO230" s="10"/>
+      <c r="AP230" s="10"/>
+      <c r="AQ230" s="10"/>
+      <c r="AR230" s="10"/>
+      <c r="AS230" s="10"/>
+      <c r="AT230" s="10"/>
+      <c r="AU230" s="10"/>
+      <c r="AV230" s="10"/>
+      <c r="AW230" s="10"/>
+      <c r="AX230" s="10"/>
+      <c r="AY230" s="10"/>
+      <c r="AZ230" s="10"/>
+      <c r="BA230" s="10"/>
+      <c r="BB230" s="10"/>
+      <c r="BC230" s="10"/>
+      <c r="BD230" s="10"/>
+      <c r="BE230" s="10"/>
+      <c r="BF230" s="10"/>
+    </row>
+    <row r="231" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C231" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+      <c r="N231" s="10"/>
+      <c r="O231" s="10"/>
+      <c r="P231" s="10"/>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="S231" s="10"/>
+      <c r="T231" s="10"/>
+      <c r="U231" s="10"/>
+      <c r="V231" s="10"/>
+      <c r="W231" s="10"/>
+      <c r="X231" s="10"/>
+      <c r="Y231" s="10"/>
+      <c r="Z231" s="10"/>
+      <c r="AA231" s="10"/>
+      <c r="AB231" s="10"/>
+      <c r="AC231" s="10"/>
+      <c r="AD231" s="10"/>
+      <c r="AF231" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG231" s="10"/>
+      <c r="AH231" s="10"/>
+      <c r="AI231" s="10"/>
+      <c r="AJ231" s="10"/>
+      <c r="AK231" s="10"/>
+      <c r="AL231" s="10"/>
+      <c r="AM231" s="10"/>
+      <c r="AN231" s="10"/>
+      <c r="AO231" s="10"/>
+      <c r="AP231" s="10"/>
+      <c r="AQ231" s="10"/>
+      <c r="AR231" s="10"/>
+      <c r="AS231" s="10"/>
+      <c r="AT231" s="10"/>
+      <c r="AU231" s="10"/>
+      <c r="AV231" s="10"/>
+      <c r="AW231" s="10"/>
+      <c r="AX231" s="10"/>
+      <c r="AY231" s="10"/>
+      <c r="AZ231" s="10"/>
+      <c r="BA231" s="10"/>
+      <c r="BB231" s="10"/>
+      <c r="BC231" s="10"/>
+      <c r="BD231" s="10"/>
+      <c r="BE231" s="10"/>
+      <c r="BF231" s="10"/>
+    </row>
+    <row r="232" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C232" s="9"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="10"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+      <c r="W232" s="10"/>
+      <c r="X232" s="10"/>
+      <c r="Y232" s="10"/>
+      <c r="Z232" s="10"/>
+      <c r="AA232" s="10"/>
+      <c r="AB232" s="10"/>
+      <c r="AC232" s="10"/>
+      <c r="AD232" s="10"/>
+      <c r="AF232" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG232" s="10"/>
+      <c r="AH232" s="10"/>
+      <c r="AI232" s="10"/>
+      <c r="AJ232" s="10"/>
+      <c r="AK232" s="10"/>
+      <c r="AL232" s="10"/>
+      <c r="AM232" s="10"/>
+      <c r="AN232" s="10"/>
+      <c r="AO232" s="10"/>
+      <c r="AP232" s="10"/>
+      <c r="AQ232" s="10"/>
+      <c r="AR232" s="10"/>
+      <c r="AS232" s="10"/>
+      <c r="AT232" s="10"/>
+      <c r="AU232" s="10"/>
+      <c r="AV232" s="10"/>
+      <c r="AW232" s="10"/>
+      <c r="AX232" s="10"/>
+      <c r="AY232" s="10"/>
+      <c r="AZ232" s="10"/>
+      <c r="BA232" s="10"/>
+      <c r="BB232" s="10"/>
+      <c r="BC232" s="10"/>
+      <c r="BD232" s="10"/>
+      <c r="BE232" s="10"/>
+      <c r="BF232" s="10"/>
+    </row>
+    <row r="233" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C233" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10"/>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+      <c r="U233" s="10"/>
+      <c r="V233" s="10"/>
+      <c r="W233" s="10"/>
+      <c r="X233" s="10"/>
+      <c r="Y233" s="10"/>
+      <c r="Z233" s="10"/>
+      <c r="AA233" s="10"/>
+      <c r="AB233" s="10"/>
+      <c r="AC233" s="10"/>
+      <c r="AD233" s="10"/>
+    </row>
+    <row r="234" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C234" s="9"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="10"/>
+      <c r="R234" s="10"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="10"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+      <c r="W234" s="10"/>
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+      <c r="Z234" s="10"/>
+      <c r="AA234" s="10"/>
+      <c r="AB234" s="10"/>
+      <c r="AC234" s="10"/>
+      <c r="AD234" s="10"/>
+    </row>
+    <row r="235" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C235" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10"/>
+      <c r="R235" s="10"/>
+      <c r="S235" s="10"/>
+      <c r="T235" s="10"/>
+      <c r="U235" s="10"/>
+      <c r="V235" s="10"/>
+      <c r="W235" s="10"/>
+      <c r="X235" s="10"/>
+      <c r="Y235" s="10"/>
+      <c r="Z235" s="10"/>
+      <c r="AA235" s="10"/>
+      <c r="AB235" s="10"/>
+      <c r="AC235" s="10"/>
+      <c r="AD235" s="10"/>
+    </row>
+    <row r="236" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C236" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+      <c r="P236" s="10"/>
+      <c r="Q236" s="10"/>
+      <c r="R236" s="10"/>
+      <c r="S236" s="10"/>
+      <c r="T236" s="10"/>
+      <c r="U236" s="10"/>
+      <c r="V236" s="10"/>
+      <c r="W236" s="10"/>
+      <c r="X236" s="10"/>
+      <c r="Y236" s="10"/>
+      <c r="Z236" s="10"/>
+      <c r="AA236" s="10"/>
+      <c r="AB236" s="10"/>
+      <c r="AC236" s="10"/>
+      <c r="AD236" s="10"/>
+    </row>
+    <row r="237" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C237" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="10"/>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+      <c r="P237" s="10"/>
+      <c r="Q237" s="10"/>
+      <c r="R237" s="10"/>
+      <c r="S237" s="10"/>
+      <c r="T237" s="10"/>
+      <c r="U237" s="10"/>
+      <c r="V237" s="10"/>
+      <c r="W237" s="10"/>
+      <c r="X237" s="10"/>
+      <c r="Y237" s="10"/>
+      <c r="Z237" s="10"/>
+      <c r="AA237" s="10"/>
+      <c r="AB237" s="10"/>
+      <c r="AC237" s="10"/>
+      <c r="AD237" s="10"/>
+    </row>
+    <row r="238" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C238" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="K238" s="10"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="10"/>
+      <c r="P238" s="10"/>
+      <c r="Q238" s="10"/>
+      <c r="R238" s="10"/>
+      <c r="S238" s="10"/>
+      <c r="T238" s="10"/>
+      <c r="U238" s="10"/>
+      <c r="V238" s="10"/>
+      <c r="W238" s="10"/>
+      <c r="X238" s="10"/>
+      <c r="Y238" s="10"/>
+      <c r="Z238" s="10"/>
+      <c r="AA238" s="10"/>
+      <c r="AB238" s="10"/>
+      <c r="AC238" s="10"/>
+      <c r="AD238" s="10"/>
+    </row>
+    <row r="239" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C239" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
+      <c r="S239" s="10"/>
+      <c r="T239" s="10"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="10"/>
+      <c r="W239" s="10"/>
+      <c r="X239" s="10"/>
+      <c r="Y239" s="10"/>
+      <c r="Z239" s="10"/>
+      <c r="AA239" s="10"/>
+      <c r="AB239" s="10"/>
+      <c r="AC239" s="10"/>
+      <c r="AD239" s="10"/>
+    </row>
+    <row r="240" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C240" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="10"/>
+      <c r="S240" s="10"/>
+      <c r="T240" s="10"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="10"/>
+      <c r="W240" s="10"/>
+      <c r="X240" s="10"/>
+      <c r="Y240" s="10"/>
+      <c r="Z240" s="10"/>
+      <c r="AA240" s="10"/>
+      <c r="AB240" s="10"/>
+      <c r="AC240" s="10"/>
+      <c r="AD240" s="10"/>
+    </row>
+    <row r="241" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C241" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
+      <c r="S241" s="10"/>
+      <c r="T241" s="10"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+      <c r="W241" s="10"/>
+      <c r="X241" s="10"/>
+      <c r="Y241" s="10"/>
+      <c r="Z241" s="10"/>
+      <c r="AA241" s="10"/>
+      <c r="AB241" s="10"/>
+      <c r="AC241" s="10"/>
+      <c r="AD241" s="10"/>
+    </row>
+    <row r="242" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C242" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="10"/>
+      <c r="N242" s="10"/>
+      <c r="O242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="10"/>
+      <c r="S242" s="10"/>
+      <c r="T242" s="10"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="10"/>
+      <c r="W242" s="10"/>
+      <c r="X242" s="10"/>
+      <c r="Y242" s="10"/>
+      <c r="Z242" s="10"/>
+      <c r="AA242" s="10"/>
+      <c r="AB242" s="10"/>
+      <c r="AC242" s="10"/>
+      <c r="AD242" s="10"/>
+    </row>
+    <row r="243" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C243" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
+      <c r="M243" s="10"/>
+      <c r="N243" s="10"/>
+      <c r="O243" s="10"/>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
+      <c r="S243" s="10"/>
+      <c r="T243" s="10"/>
+      <c r="U243" s="10"/>
+      <c r="V243" s="10"/>
+      <c r="W243" s="10"/>
+      <c r="X243" s="10"/>
+      <c r="Y243" s="10"/>
+      <c r="Z243" s="10"/>
+      <c r="AA243" s="10"/>
+      <c r="AB243" s="10"/>
+      <c r="AC243" s="10"/>
+      <c r="AD243" s="10"/>
+    </row>
+    <row r="244" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C244" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="10"/>
+      <c r="M244" s="10"/>
+      <c r="N244" s="10"/>
+      <c r="O244" s="10"/>
+      <c r="P244" s="10"/>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
+      <c r="S244" s="10"/>
+      <c r="T244" s="10"/>
+      <c r="U244" s="10"/>
+      <c r="V244" s="10"/>
+      <c r="W244" s="10"/>
+      <c r="X244" s="10"/>
+      <c r="Y244" s="10"/>
+      <c r="Z244" s="10"/>
+      <c r="AA244" s="10"/>
+      <c r="AB244" s="10"/>
+      <c r="AC244" s="10"/>
+      <c r="AD244" s="10"/>
+    </row>
+    <row r="245" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C245" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+      <c r="W245" s="10"/>
+      <c r="X245" s="10"/>
+      <c r="Y245" s="10"/>
+      <c r="Z245" s="10"/>
+      <c r="AA245" s="10"/>
+      <c r="AB245" s="10"/>
+      <c r="AC245" s="10"/>
+      <c r="AD245" s="10"/>
+    </row>
+    <row r="246" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C246" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
+      <c r="M246" s="10"/>
+      <c r="N246" s="10"/>
+      <c r="O246" s="10"/>
+      <c r="P246" s="10"/>
+      <c r="Q246" s="10"/>
+      <c r="R246" s="10"/>
+      <c r="S246" s="10"/>
+      <c r="T246" s="10"/>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
+      <c r="W246" s="10"/>
+      <c r="X246" s="10"/>
+      <c r="Y246" s="10"/>
+      <c r="Z246" s="10"/>
+      <c r="AA246" s="10"/>
+      <c r="AB246" s="10"/>
+      <c r="AC246" s="10"/>
+      <c r="AD246" s="10"/>
+    </row>
+    <row r="247" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C247" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="10"/>
+      <c r="M247" s="10"/>
+      <c r="N247" s="10"/>
+      <c r="O247" s="10"/>
+      <c r="P247" s="10"/>
+      <c r="Q247" s="10"/>
+      <c r="R247" s="10"/>
+      <c r="S247" s="10"/>
+      <c r="T247" s="10"/>
+      <c r="U247" s="10"/>
+      <c r="V247" s="10"/>
+      <c r="W247" s="10"/>
+      <c r="X247" s="10"/>
+      <c r="Y247" s="10"/>
+      <c r="Z247" s="10"/>
+      <c r="AA247" s="10"/>
+      <c r="AB247" s="10"/>
+      <c r="AC247" s="10"/>
+      <c r="AD247" s="10"/>
+    </row>
+    <row r="248" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C248" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
+      <c r="L248" s="10"/>
+      <c r="M248" s="10"/>
+      <c r="N248" s="10"/>
+      <c r="O248" s="10"/>
+      <c r="P248" s="10"/>
+      <c r="Q248" s="10"/>
+      <c r="R248" s="10"/>
+      <c r="S248" s="10"/>
+      <c r="T248" s="10"/>
+      <c r="U248" s="10"/>
+      <c r="V248" s="10"/>
+      <c r="W248" s="10"/>
+      <c r="X248" s="10"/>
+      <c r="Y248" s="10"/>
+      <c r="Z248" s="10"/>
+      <c r="AA248" s="10"/>
+      <c r="AB248" s="10"/>
+      <c r="AC248" s="10"/>
+      <c r="AD248" s="10"/>
+    </row>
+    <row r="249" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C249" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10"/>
+      <c r="R249" s="10"/>
+      <c r="S249" s="10"/>
+      <c r="T249" s="10"/>
+      <c r="U249" s="10"/>
+      <c r="V249" s="10"/>
+      <c r="W249" s="10"/>
+      <c r="X249" s="10"/>
+      <c r="Y249" s="10"/>
+      <c r="Z249" s="10"/>
+      <c r="AA249" s="10"/>
+      <c r="AB249" s="10"/>
+      <c r="AC249" s="10"/>
+      <c r="AD249" s="10"/>
+    </row>
+    <row r="250" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C250" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
+      <c r="L250" s="10"/>
+      <c r="M250" s="10"/>
+      <c r="N250" s="10"/>
+      <c r="O250" s="10"/>
+      <c r="P250" s="10"/>
+      <c r="Q250" s="10"/>
+      <c r="R250" s="10"/>
+      <c r="S250" s="10"/>
+      <c r="T250" s="10"/>
+      <c r="U250" s="10"/>
+      <c r="V250" s="10"/>
+      <c r="W250" s="10"/>
+      <c r="X250" s="10"/>
+      <c r="Y250" s="10"/>
+      <c r="Z250" s="10"/>
+      <c r="AA250" s="10"/>
+      <c r="AB250" s="10"/>
+      <c r="AC250" s="10"/>
+      <c r="AD250" s="10"/>
+    </row>
+    <row r="251" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C251" s="9"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="10"/>
+      <c r="N251" s="10"/>
+      <c r="O251" s="10"/>
+      <c r="P251" s="10"/>
+      <c r="Q251" s="10"/>
+      <c r="R251" s="10"/>
+      <c r="S251" s="10"/>
+      <c r="T251" s="10"/>
+      <c r="U251" s="10"/>
+      <c r="V251" s="10"/>
+      <c r="W251" s="10"/>
+      <c r="X251" s="10"/>
+      <c r="Y251" s="10"/>
+      <c r="Z251" s="10"/>
+      <c r="AA251" s="10"/>
+      <c r="AB251" s="10"/>
+      <c r="AC251" s="10"/>
+      <c r="AD251" s="10"/>
+    </row>
+    <row r="252" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C252" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10"/>
+      <c r="L252" s="10"/>
+      <c r="M252" s="10"/>
+      <c r="N252" s="10"/>
+      <c r="O252" s="10"/>
+      <c r="P252" s="10"/>
+      <c r="Q252" s="10"/>
+      <c r="R252" s="10"/>
+      <c r="S252" s="10"/>
+      <c r="T252" s="10"/>
+      <c r="U252" s="10"/>
+      <c r="V252" s="10"/>
+      <c r="W252" s="10"/>
+      <c r="X252" s="10"/>
+      <c r="Y252" s="10"/>
+      <c r="Z252" s="10"/>
+      <c r="AA252" s="10"/>
+      <c r="AB252" s="10"/>
+      <c r="AC252" s="10"/>
+      <c r="AD252" s="10"/>
+    </row>
+    <row r="253" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C253" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10"/>
+      <c r="L253" s="10"/>
+      <c r="M253" s="10"/>
+      <c r="N253" s="10"/>
+      <c r="O253" s="10"/>
+      <c r="P253" s="10"/>
+      <c r="Q253" s="10"/>
+      <c r="R253" s="10"/>
+      <c r="S253" s="10"/>
+      <c r="T253" s="10"/>
+      <c r="U253" s="10"/>
+      <c r="V253" s="10"/>
+      <c r="W253" s="10"/>
+      <c r="X253" s="10"/>
+      <c r="Y253" s="10"/>
+      <c r="Z253" s="10"/>
+      <c r="AA253" s="10"/>
+      <c r="AB253" s="10"/>
+      <c r="AC253" s="10"/>
+      <c r="AD253" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
+++ b/Step Migrasi MFAPPL - OLSS/Step Migrasi MFAPPL - OLSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Step Migrasi MFAPPL - OLSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A8CD3-710F-4B72-81A5-159789CD782A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{514C1330-4EF6-42B0-9BA9-0787E17F320F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8E471E09-CA1A-4575-8A0B-A795130353BC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>Migrasi data recon, minta dulu data recon di kirim ke PIC MFAPPL jika belum di kirim ( filter by Agreement Number )</t>
   </si>
@@ -99,51 +99,6 @@
   </si>
   <si>
     <t>20220613MON</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_agreement a where a.agreementnumber = '0000744/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_detail_schedules a where a.agreementnumber = '0000744/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_detail_schedules_merge a where a.agreementnumber = '0000744/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_financed_objects a where a.agreementnumber = '0000744/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_payment_schedules a where a.agreementnumber = '0000744/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_skd a where a.skd_number = '0000694/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from db_owner.recon_skd_detail a where a.skd_number = '0000694/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from Tb_MKT_SKD a where a.SKDNo = '0000694/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from Tb_MKT_SKD_Dtl a where a.IdTb_MKT_SKD = 4442;</t>
-  </si>
-  <si>
-    <t>select a.* from OPLAgreement a where a.AgreementNumber = '0000744/4/08/08/2022';</t>
-  </si>
-  <si>
-    <t>select a.* from OPLAgreementDetails a where a.IdOPLAgreement = 3498;</t>
-  </si>
-  <si>
-    <t>select a.* from Tb_BIL_PaySchedule a where a.IdOPLAgreement = 3498;</t>
-  </si>
-  <si>
-    <t>select a.* from Tb_BIL_PayScheduleDtl a where a.IdTb_BIL_PaySchedule = 4515;</t>
-  </si>
-  <si>
-    <t>select a.* from OPLUObjectLease a where a.IdOPLAgreement = 3498;</t>
-  </si>
-  <si>
-    <t>select a.* from Tb_OPL_Unit a where a.CreatedBy = 'Migrasi MFAPPL' and convert(date, a.CreatedDate) = '2022-10-03' order by a.CreatedDate desc;</t>
   </si>
   <si>
     <t>SETELAH MIGRASI CEK DI AGREEMENT BERIKUT:</t>
@@ -419,6 +374,60 @@
   </si>
   <si>
     <t>where a.AgreementNumber = '0000744/4/08/08/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_agreement a where a.agreementnumber = '0000154/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_detail_schedules a where a.agreementnumber = '0000154/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_detail_schedules_merge a where a.agreementnumber = '0000154/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_financed_objects a where a.agreementnumber = '0000154/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_payment_schedules a where a.agreementnumber = '0000154/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_skd a where a.skd_number = '0000164/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from db_owner.recon_skd_detail a where a.skd_number = '0000164/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MKT_SKD a where a.SKDNo = '0000164/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MKT_SKD_Dtl a where a.IdTb_MKT_SKD = 4471;</t>
+  </si>
+  <si>
+    <t>select a.* from OPLAgreement a where a.AgreementNumber = '0000154/4/04/06/2022';</t>
+  </si>
+  <si>
+    <t>select a.* from OPLAgreementDetails a where a.IdOPLAgreement = 3539;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_BIL_PaySchedule a where a.IdOPLAgreement = 3539;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_BIL_PayScheduleDtl a where a.IdTb_BIL_PaySchedule = 5550;</t>
+  </si>
+  <si>
+    <t>select a.* from OPLUObjectLease a where a.IdOPLAgreement = 3539;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_OPL_Unit a where a.CreatedBy = 'Migrasi MFAPPL' and convert(date, a.CreatedDate) = '2022-10-17' order by a.CreatedDate desc;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MGT_UnitStatusLoc a where a.CreatedBy = 'Migrasi MFAPPL' and convert(date, a.CreatedDate) = '2022-10-17';</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MGT_Current a where a.IdOPLAgreement = 3539;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_MTN_Monschdl a where a.AgreementNumber = '0000154/4/04/06/2022';</t>
   </si>
 </sst>
 </file>
@@ -2145,13 +2154,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>17547</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2196,13 +2205,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>131952</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>37476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2247,13 +2256,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>93852</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>189876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2298,13 +2307,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>17547</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>123286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2349,13 +2358,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>141643</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>170809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2400,13 +2409,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>8119</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2451,13 +2460,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>160519</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2483,6 +2492,108 @@
         <a:xfrm>
           <a:off x="723900" y="23964900"/>
           <a:ext cx="11247619" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>179571</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>75571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916A299A-F760-4A70-AC8B-21EFC34F4AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="33147000"/>
+          <a:ext cx="11228571" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>141471</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>37471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2752561E-27D5-43F4-89F6-742736B3ABF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="33299400"/>
+          <a:ext cx="11228571" cy="5028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46E3CBB-14E6-4306-99B4-EDC2BEE6A34A}">
-  <dimension ref="C22:CL253"/>
+  <dimension ref="C22:CL280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,7 +3059,7 @@
   <sheetData>
     <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2995,7 +3106,7 @@
     </row>
     <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3042,7 +3153,7 @@
     </row>
     <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3089,7 +3200,7 @@
     </row>
     <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3136,7 +3247,7 @@
     </row>
     <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3183,7 +3294,7 @@
     </row>
     <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3223,7 +3334,7 @@
     </row>
     <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3263,7 +3374,7 @@
     </row>
     <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3300,7 +3411,7 @@
     </row>
     <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3337,7 +3448,7 @@
     </row>
     <row r="33" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D33" s="4" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3374,7 +3485,7 @@
     </row>
     <row r="34" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D34" s="4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3411,7 +3522,7 @@
     </row>
     <row r="35" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D35" s="4" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3448,7 +3559,7 @@
     </row>
     <row r="36" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D36" s="4" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3485,7 +3596,7 @@
     </row>
     <row r="37" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D37" s="4" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3522,7 +3633,7 @@
     </row>
     <row r="39" spans="4:61" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3582,2489 +3693,221 @@
       <c r="BH39" s="5"/>
       <c r="BI39" s="5"/>
     </row>
-    <row r="179" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C179" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C181" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C185" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="187" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C187" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF187" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH187" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="189" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C189" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-      <c r="K189" s="10"/>
-      <c r="L189" s="10"/>
-      <c r="M189" s="10"/>
-      <c r="N189" s="10"/>
-      <c r="O189" s="10"/>
-      <c r="P189" s="10"/>
-      <c r="Q189" s="10"/>
-      <c r="R189" s="10"/>
-      <c r="S189" s="10"/>
-      <c r="T189" s="10"/>
-      <c r="U189" s="10"/>
-      <c r="V189" s="10"/>
-      <c r="W189" s="10"/>
-      <c r="X189" s="10"/>
-      <c r="Y189" s="10"/>
-      <c r="Z189" s="10"/>
-      <c r="AA189" s="10"/>
-      <c r="AB189" s="10"/>
-      <c r="AC189" s="10"/>
-      <c r="AD189" s="10"/>
-      <c r="AF189" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG189" s="10"/>
-      <c r="AH189" s="10"/>
-      <c r="AI189" s="10"/>
-      <c r="AJ189" s="10"/>
-      <c r="AK189" s="10"/>
-      <c r="AL189" s="10"/>
-      <c r="AM189" s="10"/>
-      <c r="AN189" s="10"/>
-      <c r="AO189" s="10"/>
-      <c r="AP189" s="10"/>
-      <c r="AQ189" s="10"/>
-      <c r="AR189" s="10"/>
-      <c r="AS189" s="10"/>
-      <c r="AT189" s="10"/>
-      <c r="AU189" s="10"/>
-      <c r="AV189" s="10"/>
-      <c r="AW189" s="10"/>
-      <c r="AX189" s="10"/>
-      <c r="AY189" s="10"/>
-      <c r="AZ189" s="10"/>
-      <c r="BA189" s="10"/>
-      <c r="BB189" s="10"/>
-      <c r="BC189" s="10"/>
-      <c r="BD189" s="10"/>
-      <c r="BE189" s="10"/>
-      <c r="BF189" s="10"/>
-      <c r="BH189" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI189" s="10"/>
-      <c r="BJ189" s="10"/>
-      <c r="BK189" s="10"/>
-      <c r="BL189" s="10"/>
-      <c r="BM189" s="10"/>
-      <c r="BN189" s="10"/>
-      <c r="BO189" s="10"/>
-      <c r="BP189" s="10"/>
-      <c r="BQ189" s="10"/>
-      <c r="BR189" s="10"/>
-      <c r="BS189" s="10"/>
-      <c r="BT189" s="10"/>
-      <c r="BU189" s="10"/>
-      <c r="BV189" s="10"/>
-      <c r="BW189" s="10"/>
-      <c r="BX189" s="10"/>
-      <c r="BY189" s="10"/>
-      <c r="BZ189" s="10"/>
-      <c r="CA189" s="10"/>
-      <c r="CB189" s="10"/>
-      <c r="CC189" s="10"/>
-      <c r="CD189" s="10"/>
-      <c r="CE189" s="10"/>
-      <c r="CF189" s="10"/>
-      <c r="CG189" s="10"/>
-      <c r="CH189" s="10"/>
-      <c r="CI189" s="10"/>
-      <c r="CJ189" s="10"/>
-      <c r="CK189" s="10"/>
-      <c r="CL189" s="10"/>
-    </row>
-    <row r="190" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C190" s="9"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
-      <c r="L190" s="10"/>
-      <c r="M190" s="10"/>
-      <c r="N190" s="10"/>
-      <c r="O190" s="10"/>
-      <c r="P190" s="10"/>
-      <c r="Q190" s="10"/>
-      <c r="R190" s="10"/>
-      <c r="S190" s="10"/>
-      <c r="T190" s="10"/>
-      <c r="U190" s="10"/>
-      <c r="V190" s="10"/>
-      <c r="W190" s="10"/>
-      <c r="X190" s="10"/>
-      <c r="Y190" s="10"/>
-      <c r="Z190" s="10"/>
-      <c r="AA190" s="10"/>
-      <c r="AB190" s="10"/>
-      <c r="AC190" s="10"/>
-      <c r="AD190" s="10"/>
-      <c r="AF190" s="9"/>
-      <c r="AG190" s="10"/>
-      <c r="AH190" s="10"/>
-      <c r="AI190" s="10"/>
-      <c r="AJ190" s="10"/>
-      <c r="AK190" s="10"/>
-      <c r="AL190" s="10"/>
-      <c r="AM190" s="10"/>
-      <c r="AN190" s="10"/>
-      <c r="AO190" s="10"/>
-      <c r="AP190" s="10"/>
-      <c r="AQ190" s="10"/>
-      <c r="AR190" s="10"/>
-      <c r="AS190" s="10"/>
-      <c r="AT190" s="10"/>
-      <c r="AU190" s="10"/>
-      <c r="AV190" s="10"/>
-      <c r="AW190" s="10"/>
-      <c r="AX190" s="10"/>
-      <c r="AY190" s="10"/>
-      <c r="AZ190" s="10"/>
-      <c r="BA190" s="10"/>
-      <c r="BB190" s="10"/>
-      <c r="BC190" s="10"/>
-      <c r="BD190" s="10"/>
-      <c r="BE190" s="10"/>
-      <c r="BF190" s="10"/>
-      <c r="BH190" s="9"/>
-      <c r="BI190" s="10"/>
-      <c r="BJ190" s="10"/>
-      <c r="BK190" s="10"/>
-      <c r="BL190" s="10"/>
-      <c r="BM190" s="10"/>
-      <c r="BN190" s="10"/>
-      <c r="BO190" s="10"/>
-      <c r="BP190" s="10"/>
-      <c r="BQ190" s="10"/>
-      <c r="BR190" s="10"/>
-      <c r="BS190" s="10"/>
-      <c r="BT190" s="10"/>
-      <c r="BU190" s="10"/>
-      <c r="BV190" s="10"/>
-      <c r="BW190" s="10"/>
-      <c r="BX190" s="10"/>
-      <c r="BY190" s="10"/>
-      <c r="BZ190" s="10"/>
-      <c r="CA190" s="10"/>
-      <c r="CB190" s="10"/>
-      <c r="CC190" s="10"/>
-      <c r="CD190" s="10"/>
-      <c r="CE190" s="10"/>
-      <c r="CF190" s="10"/>
-      <c r="CG190" s="10"/>
-      <c r="CH190" s="10"/>
-      <c r="CI190" s="10"/>
-      <c r="CJ190" s="10"/>
-      <c r="CK190" s="10"/>
-      <c r="CL190" s="10"/>
-    </row>
-    <row r="191" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C191" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="10"/>
-      <c r="L191" s="10"/>
-      <c r="M191" s="10"/>
-      <c r="N191" s="10"/>
-      <c r="O191" s="10"/>
-      <c r="P191" s="10"/>
-      <c r="Q191" s="10"/>
-      <c r="R191" s="10"/>
-      <c r="S191" s="10"/>
-      <c r="T191" s="10"/>
-      <c r="U191" s="10"/>
-      <c r="V191" s="10"/>
-      <c r="W191" s="10"/>
-      <c r="X191" s="10"/>
-      <c r="Y191" s="10"/>
-      <c r="Z191" s="10"/>
-      <c r="AA191" s="10"/>
-      <c r="AB191" s="10"/>
-      <c r="AC191" s="10"/>
-      <c r="AD191" s="10"/>
-      <c r="AF191" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG191" s="10"/>
-      <c r="AH191" s="10"/>
-      <c r="AI191" s="10"/>
-      <c r="AJ191" s="10"/>
-      <c r="AK191" s="10"/>
-      <c r="AL191" s="10"/>
-      <c r="AM191" s="10"/>
-      <c r="AN191" s="10"/>
-      <c r="AO191" s="10"/>
-      <c r="AP191" s="10"/>
-      <c r="AQ191" s="10"/>
-      <c r="AR191" s="10"/>
-      <c r="AS191" s="10"/>
-      <c r="AT191" s="10"/>
-      <c r="AU191" s="10"/>
-      <c r="AV191" s="10"/>
-      <c r="AW191" s="10"/>
-      <c r="AX191" s="10"/>
-      <c r="AY191" s="10"/>
-      <c r="AZ191" s="10"/>
-      <c r="BA191" s="10"/>
-      <c r="BB191" s="10"/>
-      <c r="BC191" s="10"/>
-      <c r="BD191" s="10"/>
-      <c r="BE191" s="10"/>
-      <c r="BF191" s="10"/>
-      <c r="BH191" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI191" s="10"/>
-      <c r="BJ191" s="10"/>
-      <c r="BK191" s="10"/>
-      <c r="BL191" s="10"/>
-      <c r="BM191" s="10"/>
-      <c r="BN191" s="10"/>
-      <c r="BO191" s="10"/>
-      <c r="BP191" s="10"/>
-      <c r="BQ191" s="10"/>
-      <c r="BR191" s="10"/>
-      <c r="BS191" s="10"/>
-      <c r="BT191" s="10"/>
-      <c r="BU191" s="10"/>
-      <c r="BV191" s="10"/>
-      <c r="BW191" s="10"/>
-      <c r="BX191" s="10"/>
-      <c r="BY191" s="10"/>
-      <c r="BZ191" s="10"/>
-      <c r="CA191" s="10"/>
-      <c r="CB191" s="10"/>
-      <c r="CC191" s="10"/>
-      <c r="CD191" s="10"/>
-      <c r="CE191" s="10"/>
-      <c r="CF191" s="10"/>
-      <c r="CG191" s="10"/>
-      <c r="CH191" s="10"/>
-      <c r="CI191" s="10"/>
-      <c r="CJ191" s="10"/>
-      <c r="CK191" s="10"/>
-      <c r="CL191" s="10"/>
-    </row>
-    <row r="192" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C192" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10"/>
-      <c r="L192" s="10"/>
-      <c r="M192" s="10"/>
-      <c r="N192" s="10"/>
-      <c r="O192" s="10"/>
-      <c r="P192" s="10"/>
-      <c r="Q192" s="10"/>
-      <c r="R192" s="10"/>
-      <c r="S192" s="10"/>
-      <c r="T192" s="10"/>
-      <c r="U192" s="10"/>
-      <c r="V192" s="10"/>
-      <c r="W192" s="10"/>
-      <c r="X192" s="10"/>
-      <c r="Y192" s="10"/>
-      <c r="Z192" s="10"/>
-      <c r="AA192" s="10"/>
-      <c r="AB192" s="10"/>
-      <c r="AC192" s="10"/>
-      <c r="AD192" s="10"/>
-      <c r="AF192" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG192" s="10"/>
-      <c r="AH192" s="10"/>
-      <c r="AI192" s="10"/>
-      <c r="AJ192" s="10"/>
-      <c r="AK192" s="10"/>
-      <c r="AL192" s="10"/>
-      <c r="AM192" s="10"/>
-      <c r="AN192" s="10"/>
-      <c r="AO192" s="10"/>
-      <c r="AP192" s="10"/>
-      <c r="AQ192" s="10"/>
-      <c r="AR192" s="10"/>
-      <c r="AS192" s="10"/>
-      <c r="AT192" s="10"/>
-      <c r="AU192" s="10"/>
-      <c r="AV192" s="10"/>
-      <c r="AW192" s="10"/>
-      <c r="AX192" s="10"/>
-      <c r="AY192" s="10"/>
-      <c r="AZ192" s="10"/>
-      <c r="BA192" s="10"/>
-      <c r="BB192" s="10"/>
-      <c r="BC192" s="10"/>
-      <c r="BD192" s="10"/>
-      <c r="BE192" s="10"/>
-      <c r="BF192" s="10"/>
-      <c r="BH192" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI192" s="10"/>
-      <c r="BJ192" s="10"/>
-      <c r="BK192" s="10"/>
-      <c r="BL192" s="10"/>
-      <c r="BM192" s="10"/>
-      <c r="BN192" s="10"/>
-      <c r="BO192" s="10"/>
-      <c r="BP192" s="10"/>
-      <c r="BQ192" s="10"/>
-      <c r="BR192" s="10"/>
-      <c r="BS192" s="10"/>
-      <c r="BT192" s="10"/>
-      <c r="BU192" s="10"/>
-      <c r="BV192" s="10"/>
-      <c r="BW192" s="10"/>
-      <c r="BX192" s="10"/>
-      <c r="BY192" s="10"/>
-      <c r="BZ192" s="10"/>
-      <c r="CA192" s="10"/>
-      <c r="CB192" s="10"/>
-      <c r="CC192" s="10"/>
-      <c r="CD192" s="10"/>
-      <c r="CE192" s="10"/>
-      <c r="CF192" s="10"/>
-      <c r="CG192" s="10"/>
-      <c r="CH192" s="10"/>
-      <c r="CI192" s="10"/>
-      <c r="CJ192" s="10"/>
-      <c r="CK192" s="10"/>
-      <c r="CL192" s="10"/>
-    </row>
-    <row r="193" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C193" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-      <c r="K193" s="10"/>
-      <c r="L193" s="10"/>
-      <c r="M193" s="10"/>
-      <c r="N193" s="10"/>
-      <c r="O193" s="10"/>
-      <c r="P193" s="10"/>
-      <c r="Q193" s="10"/>
-      <c r="R193" s="10"/>
-      <c r="S193" s="10"/>
-      <c r="T193" s="10"/>
-      <c r="U193" s="10"/>
-      <c r="V193" s="10"/>
-      <c r="W193" s="10"/>
-      <c r="X193" s="10"/>
-      <c r="Y193" s="10"/>
-      <c r="Z193" s="10"/>
-      <c r="AA193" s="10"/>
-      <c r="AB193" s="10"/>
-      <c r="AC193" s="10"/>
-      <c r="AD193" s="10"/>
-      <c r="AF193" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG193" s="10"/>
-      <c r="AH193" s="10"/>
-      <c r="AI193" s="10"/>
-      <c r="AJ193" s="10"/>
-      <c r="AK193" s="10"/>
-      <c r="AL193" s="10"/>
-      <c r="AM193" s="10"/>
-      <c r="AN193" s="10"/>
-      <c r="AO193" s="10"/>
-      <c r="AP193" s="10"/>
-      <c r="AQ193" s="10"/>
-      <c r="AR193" s="10"/>
-      <c r="AS193" s="10"/>
-      <c r="AT193" s="10"/>
-      <c r="AU193" s="10"/>
-      <c r="AV193" s="10"/>
-      <c r="AW193" s="10"/>
-      <c r="AX193" s="10"/>
-      <c r="AY193" s="10"/>
-      <c r="AZ193" s="10"/>
-      <c r="BA193" s="10"/>
-      <c r="BB193" s="10"/>
-      <c r="BC193" s="10"/>
-      <c r="BD193" s="10"/>
-      <c r="BE193" s="10"/>
-      <c r="BF193" s="10"/>
-      <c r="BH193" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BI193" s="10"/>
-      <c r="BJ193" s="10"/>
-      <c r="BK193" s="10"/>
-      <c r="BL193" s="10"/>
-      <c r="BM193" s="10"/>
-      <c r="BN193" s="10"/>
-      <c r="BO193" s="10"/>
-      <c r="BP193" s="10"/>
-      <c r="BQ193" s="10"/>
-      <c r="BR193" s="10"/>
-      <c r="BS193" s="10"/>
-      <c r="BT193" s="10"/>
-      <c r="BU193" s="10"/>
-      <c r="BV193" s="10"/>
-      <c r="BW193" s="10"/>
-      <c r="BX193" s="10"/>
-      <c r="BY193" s="10"/>
-      <c r="BZ193" s="10"/>
-      <c r="CA193" s="10"/>
-      <c r="CB193" s="10"/>
-      <c r="CC193" s="10"/>
-      <c r="CD193" s="10"/>
-      <c r="CE193" s="10"/>
-      <c r="CF193" s="10"/>
-      <c r="CG193" s="10"/>
-      <c r="CH193" s="10"/>
-      <c r="CI193" s="10"/>
-      <c r="CJ193" s="10"/>
-      <c r="CK193" s="10"/>
-      <c r="CL193" s="10"/>
-    </row>
-    <row r="194" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C194" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="10"/>
-      <c r="M194" s="10"/>
-      <c r="N194" s="10"/>
-      <c r="O194" s="10"/>
-      <c r="P194" s="10"/>
-      <c r="Q194" s="10"/>
-      <c r="R194" s="10"/>
-      <c r="S194" s="10"/>
-      <c r="T194" s="10"/>
-      <c r="U194" s="10"/>
-      <c r="V194" s="10"/>
-      <c r="W194" s="10"/>
-      <c r="X194" s="10"/>
-      <c r="Y194" s="10"/>
-      <c r="Z194" s="10"/>
-      <c r="AA194" s="10"/>
-      <c r="AB194" s="10"/>
-      <c r="AC194" s="10"/>
-      <c r="AD194" s="10"/>
-      <c r="AF194" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG194" s="10"/>
-      <c r="AH194" s="10"/>
-      <c r="AI194" s="10"/>
-      <c r="AJ194" s="10"/>
-      <c r="AK194" s="10"/>
-      <c r="AL194" s="10"/>
-      <c r="AM194" s="10"/>
-      <c r="AN194" s="10"/>
-      <c r="AO194" s="10"/>
-      <c r="AP194" s="10"/>
-      <c r="AQ194" s="10"/>
-      <c r="AR194" s="10"/>
-      <c r="AS194" s="10"/>
-      <c r="AT194" s="10"/>
-      <c r="AU194" s="10"/>
-      <c r="AV194" s="10"/>
-      <c r="AW194" s="10"/>
-      <c r="AX194" s="10"/>
-      <c r="AY194" s="10"/>
-      <c r="AZ194" s="10"/>
-      <c r="BA194" s="10"/>
-      <c r="BB194" s="10"/>
-      <c r="BC194" s="10"/>
-      <c r="BD194" s="10"/>
-      <c r="BE194" s="10"/>
-      <c r="BF194" s="10"/>
-      <c r="BH194" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI194" s="10"/>
-      <c r="BJ194" s="10"/>
-      <c r="BK194" s="10"/>
-      <c r="BL194" s="10"/>
-      <c r="BM194" s="10"/>
-      <c r="BN194" s="10"/>
-      <c r="BO194" s="10"/>
-      <c r="BP194" s="10"/>
-      <c r="BQ194" s="10"/>
-      <c r="BR194" s="10"/>
-      <c r="BS194" s="10"/>
-      <c r="BT194" s="10"/>
-      <c r="BU194" s="10"/>
-      <c r="BV194" s="10"/>
-      <c r="BW194" s="10"/>
-      <c r="BX194" s="10"/>
-      <c r="BY194" s="10"/>
-      <c r="BZ194" s="10"/>
-      <c r="CA194" s="10"/>
-      <c r="CB194" s="10"/>
-      <c r="CC194" s="10"/>
-      <c r="CD194" s="10"/>
-      <c r="CE194" s="10"/>
-      <c r="CF194" s="10"/>
-      <c r="CG194" s="10"/>
-      <c r="CH194" s="10"/>
-      <c r="CI194" s="10"/>
-      <c r="CJ194" s="10"/>
-      <c r="CK194" s="10"/>
-      <c r="CL194" s="10"/>
-    </row>
-    <row r="195" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C195" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="10"/>
-      <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
-      <c r="Q195" s="10"/>
-      <c r="R195" s="10"/>
-      <c r="S195" s="10"/>
-      <c r="T195" s="10"/>
-      <c r="U195" s="10"/>
-      <c r="V195" s="10"/>
-      <c r="W195" s="10"/>
-      <c r="X195" s="10"/>
-      <c r="Y195" s="10"/>
-      <c r="Z195" s="10"/>
-      <c r="AA195" s="10"/>
-      <c r="AB195" s="10"/>
-      <c r="AC195" s="10"/>
-      <c r="AD195" s="10"/>
-      <c r="AF195" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG195" s="10"/>
-      <c r="AH195" s="10"/>
-      <c r="AI195" s="10"/>
-      <c r="AJ195" s="10"/>
-      <c r="AK195" s="10"/>
-      <c r="AL195" s="10"/>
-      <c r="AM195" s="10"/>
-      <c r="AN195" s="10"/>
-      <c r="AO195" s="10"/>
-      <c r="AP195" s="10"/>
-      <c r="AQ195" s="10"/>
-      <c r="AR195" s="10"/>
-      <c r="AS195" s="10"/>
-      <c r="AT195" s="10"/>
-      <c r="AU195" s="10"/>
-      <c r="AV195" s="10"/>
-      <c r="AW195" s="10"/>
-      <c r="AX195" s="10"/>
-      <c r="AY195" s="10"/>
-      <c r="AZ195" s="10"/>
-      <c r="BA195" s="10"/>
-      <c r="BB195" s="10"/>
-      <c r="BC195" s="10"/>
-      <c r="BD195" s="10"/>
-      <c r="BE195" s="10"/>
-      <c r="BF195" s="10"/>
-      <c r="BH195" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI195" s="10"/>
-      <c r="BJ195" s="10"/>
-      <c r="BK195" s="10"/>
-      <c r="BL195" s="10"/>
-      <c r="BM195" s="10"/>
-      <c r="BN195" s="10"/>
-      <c r="BO195" s="10"/>
-      <c r="BP195" s="10"/>
-      <c r="BQ195" s="10"/>
-      <c r="BR195" s="10"/>
-      <c r="BS195" s="10"/>
-      <c r="BT195" s="10"/>
-      <c r="BU195" s="10"/>
-      <c r="BV195" s="10"/>
-      <c r="BW195" s="10"/>
-      <c r="BX195" s="10"/>
-      <c r="BY195" s="10"/>
-      <c r="BZ195" s="10"/>
-      <c r="CA195" s="10"/>
-      <c r="CB195" s="10"/>
-      <c r="CC195" s="10"/>
-      <c r="CD195" s="10"/>
-      <c r="CE195" s="10"/>
-      <c r="CF195" s="10"/>
-      <c r="CG195" s="10"/>
-      <c r="CH195" s="10"/>
-      <c r="CI195" s="10"/>
-      <c r="CJ195" s="10"/>
-      <c r="CK195" s="10"/>
-      <c r="CL195" s="10"/>
-    </row>
-    <row r="196" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C196" s="9"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-      <c r="K196" s="10"/>
-      <c r="L196" s="10"/>
-      <c r="M196" s="10"/>
-      <c r="N196" s="10"/>
-      <c r="O196" s="10"/>
-      <c r="P196" s="10"/>
-      <c r="Q196" s="10"/>
-      <c r="R196" s="10"/>
-      <c r="S196" s="10"/>
-      <c r="T196" s="10"/>
-      <c r="U196" s="10"/>
-      <c r="V196" s="10"/>
-      <c r="W196" s="10"/>
-      <c r="X196" s="10"/>
-      <c r="Y196" s="10"/>
-      <c r="Z196" s="10"/>
-      <c r="AA196" s="10"/>
-      <c r="AB196" s="10"/>
-      <c r="AC196" s="10"/>
-      <c r="AD196" s="10"/>
-      <c r="AF196" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG196" s="10"/>
-      <c r="AH196" s="10"/>
-      <c r="AI196" s="10"/>
-      <c r="AJ196" s="10"/>
-      <c r="AK196" s="10"/>
-      <c r="AL196" s="10"/>
-      <c r="AM196" s="10"/>
-      <c r="AN196" s="10"/>
-      <c r="AO196" s="10"/>
-      <c r="AP196" s="10"/>
-      <c r="AQ196" s="10"/>
-      <c r="AR196" s="10"/>
-      <c r="AS196" s="10"/>
-      <c r="AT196" s="10"/>
-      <c r="AU196" s="10"/>
-      <c r="AV196" s="10"/>
-      <c r="AW196" s="10"/>
-      <c r="AX196" s="10"/>
-      <c r="AY196" s="10"/>
-      <c r="AZ196" s="10"/>
-      <c r="BA196" s="10"/>
-      <c r="BB196" s="10"/>
-      <c r="BC196" s="10"/>
-      <c r="BD196" s="10"/>
-      <c r="BE196" s="10"/>
-      <c r="BF196" s="10"/>
-      <c r="BH196" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI196" s="10"/>
-      <c r="BJ196" s="10"/>
-      <c r="BK196" s="10"/>
-      <c r="BL196" s="10"/>
-      <c r="BM196" s="10"/>
-      <c r="BN196" s="10"/>
-      <c r="BO196" s="10"/>
-      <c r="BP196" s="10"/>
-      <c r="BQ196" s="10"/>
-      <c r="BR196" s="10"/>
-      <c r="BS196" s="10"/>
-      <c r="BT196" s="10"/>
-      <c r="BU196" s="10"/>
-      <c r="BV196" s="10"/>
-      <c r="BW196" s="10"/>
-      <c r="BX196" s="10"/>
-      <c r="BY196" s="10"/>
-      <c r="BZ196" s="10"/>
-      <c r="CA196" s="10"/>
-      <c r="CB196" s="10"/>
-      <c r="CC196" s="10"/>
-      <c r="CD196" s="10"/>
-      <c r="CE196" s="10"/>
-      <c r="CF196" s="10"/>
-      <c r="CG196" s="10"/>
-      <c r="CH196" s="10"/>
-      <c r="CI196" s="10"/>
-      <c r="CJ196" s="10"/>
-      <c r="CK196" s="10"/>
-      <c r="CL196" s="10"/>
-    </row>
-    <row r="197" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C197" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-      <c r="K197" s="10"/>
-      <c r="L197" s="10"/>
-      <c r="M197" s="10"/>
-      <c r="N197" s="10"/>
-      <c r="O197" s="10"/>
-      <c r="P197" s="10"/>
-      <c r="Q197" s="10"/>
-      <c r="R197" s="10"/>
-      <c r="S197" s="10"/>
-      <c r="T197" s="10"/>
-      <c r="U197" s="10"/>
-      <c r="V197" s="10"/>
-      <c r="W197" s="10"/>
-      <c r="X197" s="10"/>
-      <c r="Y197" s="10"/>
-      <c r="Z197" s="10"/>
-      <c r="AA197" s="10"/>
-      <c r="AB197" s="10"/>
-      <c r="AC197" s="10"/>
-      <c r="AD197" s="10"/>
-      <c r="AF197" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG197" s="10"/>
-      <c r="AH197" s="10"/>
-      <c r="AI197" s="10"/>
-      <c r="AJ197" s="10"/>
-      <c r="AK197" s="10"/>
-      <c r="AL197" s="10"/>
-      <c r="AM197" s="10"/>
-      <c r="AN197" s="10"/>
-      <c r="AO197" s="10"/>
-      <c r="AP197" s="10"/>
-      <c r="AQ197" s="10"/>
-      <c r="AR197" s="10"/>
-      <c r="AS197" s="10"/>
-      <c r="AT197" s="10"/>
-      <c r="AU197" s="10"/>
-      <c r="AV197" s="10"/>
-      <c r="AW197" s="10"/>
-      <c r="AX197" s="10"/>
-      <c r="AY197" s="10"/>
-      <c r="AZ197" s="10"/>
-      <c r="BA197" s="10"/>
-      <c r="BB197" s="10"/>
-      <c r="BC197" s="10"/>
-      <c r="BD197" s="10"/>
-      <c r="BE197" s="10"/>
-      <c r="BF197" s="10"/>
-      <c r="BH197" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI197" s="10"/>
-      <c r="BJ197" s="10"/>
-      <c r="BK197" s="10"/>
-      <c r="BL197" s="10"/>
-      <c r="BM197" s="10"/>
-      <c r="BN197" s="10"/>
-      <c r="BO197" s="10"/>
-      <c r="BP197" s="10"/>
-      <c r="BQ197" s="10"/>
-      <c r="BR197" s="10"/>
-      <c r="BS197" s="10"/>
-      <c r="BT197" s="10"/>
-      <c r="BU197" s="10"/>
-      <c r="BV197" s="10"/>
-      <c r="BW197" s="10"/>
-      <c r="BX197" s="10"/>
-      <c r="BY197" s="10"/>
-      <c r="BZ197" s="10"/>
-      <c r="CA197" s="10"/>
-      <c r="CB197" s="10"/>
-      <c r="CC197" s="10"/>
-      <c r="CD197" s="10"/>
-      <c r="CE197" s="10"/>
-      <c r="CF197" s="10"/>
-      <c r="CG197" s="10"/>
-      <c r="CH197" s="10"/>
-      <c r="CI197" s="10"/>
-      <c r="CJ197" s="10"/>
-      <c r="CK197" s="10"/>
-      <c r="CL197" s="10"/>
-    </row>
-    <row r="198" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C198" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="10"/>
-      <c r="L198" s="10"/>
-      <c r="M198" s="10"/>
-      <c r="N198" s="10"/>
-      <c r="O198" s="10"/>
-      <c r="P198" s="10"/>
-      <c r="Q198" s="10"/>
-      <c r="R198" s="10"/>
-      <c r="S198" s="10"/>
-      <c r="T198" s="10"/>
-      <c r="U198" s="10"/>
-      <c r="V198" s="10"/>
-      <c r="W198" s="10"/>
-      <c r="X198" s="10"/>
-      <c r="Y198" s="10"/>
-      <c r="Z198" s="10"/>
-      <c r="AA198" s="10"/>
-      <c r="AB198" s="10"/>
-      <c r="AC198" s="10"/>
-      <c r="AD198" s="10"/>
-      <c r="AF198" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG198" s="10"/>
-      <c r="AH198" s="10"/>
-      <c r="AI198" s="10"/>
-      <c r="AJ198" s="10"/>
-      <c r="AK198" s="10"/>
-      <c r="AL198" s="10"/>
-      <c r="AM198" s="10"/>
-      <c r="AN198" s="10"/>
-      <c r="AO198" s="10"/>
-      <c r="AP198" s="10"/>
-      <c r="AQ198" s="10"/>
-      <c r="AR198" s="10"/>
-      <c r="AS198" s="10"/>
-      <c r="AT198" s="10"/>
-      <c r="AU198" s="10"/>
-      <c r="AV198" s="10"/>
-      <c r="AW198" s="10"/>
-      <c r="AX198" s="10"/>
-      <c r="AY198" s="10"/>
-      <c r="AZ198" s="10"/>
-      <c r="BA198" s="10"/>
-      <c r="BB198" s="10"/>
-      <c r="BC198" s="10"/>
-      <c r="BD198" s="10"/>
-      <c r="BE198" s="10"/>
-      <c r="BF198" s="10"/>
-      <c r="BH198" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI198" s="10"/>
-      <c r="BJ198" s="10"/>
-      <c r="BK198" s="10"/>
-      <c r="BL198" s="10"/>
-      <c r="BM198" s="10"/>
-      <c r="BN198" s="10"/>
-      <c r="BO198" s="10"/>
-      <c r="BP198" s="10"/>
-      <c r="BQ198" s="10"/>
-      <c r="BR198" s="10"/>
-      <c r="BS198" s="10"/>
-      <c r="BT198" s="10"/>
-      <c r="BU198" s="10"/>
-      <c r="BV198" s="10"/>
-      <c r="BW198" s="10"/>
-      <c r="BX198" s="10"/>
-      <c r="BY198" s="10"/>
-      <c r="BZ198" s="10"/>
-      <c r="CA198" s="10"/>
-      <c r="CB198" s="10"/>
-      <c r="CC198" s="10"/>
-      <c r="CD198" s="10"/>
-      <c r="CE198" s="10"/>
-      <c r="CF198" s="10"/>
-      <c r="CG198" s="10"/>
-      <c r="CH198" s="10"/>
-      <c r="CI198" s="10"/>
-      <c r="CJ198" s="10"/>
-      <c r="CK198" s="10"/>
-      <c r="CL198" s="10"/>
-    </row>
-    <row r="199" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C199" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-      <c r="K199" s="10"/>
-      <c r="L199" s="10"/>
-      <c r="M199" s="10"/>
-      <c r="N199" s="10"/>
-      <c r="O199" s="10"/>
-      <c r="P199" s="10"/>
-      <c r="Q199" s="10"/>
-      <c r="R199" s="10"/>
-      <c r="S199" s="10"/>
-      <c r="T199" s="10"/>
-      <c r="U199" s="10"/>
-      <c r="V199" s="10"/>
-      <c r="W199" s="10"/>
-      <c r="X199" s="10"/>
-      <c r="Y199" s="10"/>
-      <c r="Z199" s="10"/>
-      <c r="AA199" s="10"/>
-      <c r="AB199" s="10"/>
-      <c r="AC199" s="10"/>
-      <c r="AD199" s="10"/>
-      <c r="AF199" s="9"/>
-      <c r="AG199" s="10"/>
-      <c r="AH199" s="10"/>
-      <c r="AI199" s="10"/>
-      <c r="AJ199" s="10"/>
-      <c r="AK199" s="10"/>
-      <c r="AL199" s="10"/>
-      <c r="AM199" s="10"/>
-      <c r="AN199" s="10"/>
-      <c r="AO199" s="10"/>
-      <c r="AP199" s="10"/>
-      <c r="AQ199" s="10"/>
-      <c r="AR199" s="10"/>
-      <c r="AS199" s="10"/>
-      <c r="AT199" s="10"/>
-      <c r="AU199" s="10"/>
-      <c r="AV199" s="10"/>
-      <c r="AW199" s="10"/>
-      <c r="AX199" s="10"/>
-      <c r="AY199" s="10"/>
-      <c r="AZ199" s="10"/>
-      <c r="BA199" s="10"/>
-      <c r="BB199" s="10"/>
-      <c r="BC199" s="10"/>
-      <c r="BD199" s="10"/>
-      <c r="BE199" s="10"/>
-      <c r="BF199" s="10"/>
-      <c r="BH199" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI199" s="10"/>
-      <c r="BJ199" s="10"/>
-      <c r="BK199" s="10"/>
-      <c r="BL199" s="10"/>
-      <c r="BM199" s="10"/>
-      <c r="BN199" s="10"/>
-      <c r="BO199" s="10"/>
-      <c r="BP199" s="10"/>
-      <c r="BQ199" s="10"/>
-      <c r="BR199" s="10"/>
-      <c r="BS199" s="10"/>
-      <c r="BT199" s="10"/>
-      <c r="BU199" s="10"/>
-      <c r="BV199" s="10"/>
-      <c r="BW199" s="10"/>
-      <c r="BX199" s="10"/>
-      <c r="BY199" s="10"/>
-      <c r="BZ199" s="10"/>
-      <c r="CA199" s="10"/>
-      <c r="CB199" s="10"/>
-      <c r="CC199" s="10"/>
-      <c r="CD199" s="10"/>
-      <c r="CE199" s="10"/>
-      <c r="CF199" s="10"/>
-      <c r="CG199" s="10"/>
-      <c r="CH199" s="10"/>
-      <c r="CI199" s="10"/>
-      <c r="CJ199" s="10"/>
-      <c r="CK199" s="10"/>
-      <c r="CL199" s="10"/>
-    </row>
-    <row r="200" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C200" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
-      <c r="K200" s="10"/>
-      <c r="L200" s="10"/>
-      <c r="M200" s="10"/>
-      <c r="N200" s="10"/>
-      <c r="O200" s="10"/>
-      <c r="P200" s="10"/>
-      <c r="Q200" s="10"/>
-      <c r="R200" s="10"/>
-      <c r="S200" s="10"/>
-      <c r="T200" s="10"/>
-      <c r="U200" s="10"/>
-      <c r="V200" s="10"/>
-      <c r="W200" s="10"/>
-      <c r="X200" s="10"/>
-      <c r="Y200" s="10"/>
-      <c r="Z200" s="10"/>
-      <c r="AA200" s="10"/>
-      <c r="AB200" s="10"/>
-      <c r="AC200" s="10"/>
-      <c r="AD200" s="10"/>
-      <c r="AF200" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG200" s="10"/>
-      <c r="AH200" s="10"/>
-      <c r="AI200" s="10"/>
-      <c r="AJ200" s="10"/>
-      <c r="AK200" s="10"/>
-      <c r="AL200" s="10"/>
-      <c r="AM200" s="10"/>
-      <c r="AN200" s="10"/>
-      <c r="AO200" s="10"/>
-      <c r="AP200" s="10"/>
-      <c r="AQ200" s="10"/>
-      <c r="AR200" s="10"/>
-      <c r="AS200" s="10"/>
-      <c r="AT200" s="10"/>
-      <c r="AU200" s="10"/>
-      <c r="AV200" s="10"/>
-      <c r="AW200" s="10"/>
-      <c r="AX200" s="10"/>
-      <c r="AY200" s="10"/>
-      <c r="AZ200" s="10"/>
-      <c r="BA200" s="10"/>
-      <c r="BB200" s="10"/>
-      <c r="BC200" s="10"/>
-      <c r="BD200" s="10"/>
-      <c r="BE200" s="10"/>
-      <c r="BF200" s="10"/>
-      <c r="BH200" s="9"/>
-      <c r="BI200" s="10"/>
-      <c r="BJ200" s="10"/>
-      <c r="BK200" s="10"/>
-      <c r="BL200" s="10"/>
-      <c r="BM200" s="10"/>
-      <c r="BN200" s="10"/>
-      <c r="BO200" s="10"/>
-      <c r="BP200" s="10"/>
-      <c r="BQ200" s="10"/>
-      <c r="BR200" s="10"/>
-      <c r="BS200" s="10"/>
-      <c r="BT200" s="10"/>
-      <c r="BU200" s="10"/>
-      <c r="BV200" s="10"/>
-      <c r="BW200" s="10"/>
-      <c r="BX200" s="10"/>
-      <c r="BY200" s="10"/>
-      <c r="BZ200" s="10"/>
-      <c r="CA200" s="10"/>
-      <c r="CB200" s="10"/>
-      <c r="CC200" s="10"/>
-      <c r="CD200" s="10"/>
-      <c r="CE200" s="10"/>
-      <c r="CF200" s="10"/>
-      <c r="CG200" s="10"/>
-      <c r="CH200" s="10"/>
-      <c r="CI200" s="10"/>
-      <c r="CJ200" s="10"/>
-      <c r="CK200" s="10"/>
-      <c r="CL200" s="10"/>
-    </row>
-    <row r="201" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C201" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="10"/>
-      <c r="M201" s="10"/>
-      <c r="N201" s="10"/>
-      <c r="O201" s="10"/>
-      <c r="P201" s="10"/>
-      <c r="Q201" s="10"/>
-      <c r="R201" s="10"/>
-      <c r="S201" s="10"/>
-      <c r="T201" s="10"/>
-      <c r="U201" s="10"/>
-      <c r="V201" s="10"/>
-      <c r="W201" s="10"/>
-      <c r="X201" s="10"/>
-      <c r="Y201" s="10"/>
-      <c r="Z201" s="10"/>
-      <c r="AA201" s="10"/>
-      <c r="AB201" s="10"/>
-      <c r="AC201" s="10"/>
-      <c r="AD201" s="10"/>
-      <c r="AF201" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG201" s="10"/>
-      <c r="AH201" s="10"/>
-      <c r="AI201" s="10"/>
-      <c r="AJ201" s="10"/>
-      <c r="AK201" s="10"/>
-      <c r="AL201" s="10"/>
-      <c r="AM201" s="10"/>
-      <c r="AN201" s="10"/>
-      <c r="AO201" s="10"/>
-      <c r="AP201" s="10"/>
-      <c r="AQ201" s="10"/>
-      <c r="AR201" s="10"/>
-      <c r="AS201" s="10"/>
-      <c r="AT201" s="10"/>
-      <c r="AU201" s="10"/>
-      <c r="AV201" s="10"/>
-      <c r="AW201" s="10"/>
-      <c r="AX201" s="10"/>
-      <c r="AY201" s="10"/>
-      <c r="AZ201" s="10"/>
-      <c r="BA201" s="10"/>
-      <c r="BB201" s="10"/>
-      <c r="BC201" s="10"/>
-      <c r="BD201" s="10"/>
-      <c r="BE201" s="10"/>
-      <c r="BF201" s="10"/>
-      <c r="BH201" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI201" s="10"/>
-      <c r="BJ201" s="10"/>
-      <c r="BK201" s="10"/>
-      <c r="BL201" s="10"/>
-      <c r="BM201" s="10"/>
-      <c r="BN201" s="10"/>
-      <c r="BO201" s="10"/>
-      <c r="BP201" s="10"/>
-      <c r="BQ201" s="10"/>
-      <c r="BR201" s="10"/>
-      <c r="BS201" s="10"/>
-      <c r="BT201" s="10"/>
-      <c r="BU201" s="10"/>
-      <c r="BV201" s="10"/>
-      <c r="BW201" s="10"/>
-      <c r="BX201" s="10"/>
-      <c r="BY201" s="10"/>
-      <c r="BZ201" s="10"/>
-      <c r="CA201" s="10"/>
-      <c r="CB201" s="10"/>
-      <c r="CC201" s="10"/>
-      <c r="CD201" s="10"/>
-      <c r="CE201" s="10"/>
-      <c r="CF201" s="10"/>
-      <c r="CG201" s="10"/>
-      <c r="CH201" s="10"/>
-      <c r="CI201" s="10"/>
-      <c r="CJ201" s="10"/>
-      <c r="CK201" s="10"/>
-      <c r="CL201" s="10"/>
-    </row>
-    <row r="202" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C202" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="10"/>
-      <c r="L202" s="10"/>
-      <c r="M202" s="10"/>
-      <c r="N202" s="10"/>
-      <c r="O202" s="10"/>
-      <c r="P202" s="10"/>
-      <c r="Q202" s="10"/>
-      <c r="R202" s="10"/>
-      <c r="S202" s="10"/>
-      <c r="T202" s="10"/>
-      <c r="U202" s="10"/>
-      <c r="V202" s="10"/>
-      <c r="W202" s="10"/>
-      <c r="X202" s="10"/>
-      <c r="Y202" s="10"/>
-      <c r="Z202" s="10"/>
-      <c r="AA202" s="10"/>
-      <c r="AB202" s="10"/>
-      <c r="AC202" s="10"/>
-      <c r="AD202" s="10"/>
-      <c r="AF202" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG202" s="10"/>
-      <c r="AH202" s="10"/>
-      <c r="AI202" s="10"/>
-      <c r="AJ202" s="10"/>
-      <c r="AK202" s="10"/>
-      <c r="AL202" s="10"/>
-      <c r="AM202" s="10"/>
-      <c r="AN202" s="10"/>
-      <c r="AO202" s="10"/>
-      <c r="AP202" s="10"/>
-      <c r="AQ202" s="10"/>
-      <c r="AR202" s="10"/>
-      <c r="AS202" s="10"/>
-      <c r="AT202" s="10"/>
-      <c r="AU202" s="10"/>
-      <c r="AV202" s="10"/>
-      <c r="AW202" s="10"/>
-      <c r="AX202" s="10"/>
-      <c r="AY202" s="10"/>
-      <c r="AZ202" s="10"/>
-      <c r="BA202" s="10"/>
-      <c r="BB202" s="10"/>
-      <c r="BC202" s="10"/>
-      <c r="BD202" s="10"/>
-      <c r="BE202" s="10"/>
-      <c r="BF202" s="10"/>
-      <c r="BH202" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI202" s="10"/>
-      <c r="BJ202" s="10"/>
-      <c r="BK202" s="10"/>
-      <c r="BL202" s="10"/>
-      <c r="BM202" s="10"/>
-      <c r="BN202" s="10"/>
-      <c r="BO202" s="10"/>
-      <c r="BP202" s="10"/>
-      <c r="BQ202" s="10"/>
-      <c r="BR202" s="10"/>
-      <c r="BS202" s="10"/>
-      <c r="BT202" s="10"/>
-      <c r="BU202" s="10"/>
-      <c r="BV202" s="10"/>
-      <c r="BW202" s="10"/>
-      <c r="BX202" s="10"/>
-      <c r="BY202" s="10"/>
-      <c r="BZ202" s="10"/>
-      <c r="CA202" s="10"/>
-      <c r="CB202" s="10"/>
-      <c r="CC202" s="10"/>
-      <c r="CD202" s="10"/>
-      <c r="CE202" s="10"/>
-      <c r="CF202" s="10"/>
-      <c r="CG202" s="10"/>
-      <c r="CH202" s="10"/>
-      <c r="CI202" s="10"/>
-      <c r="CJ202" s="10"/>
-      <c r="CK202" s="10"/>
-      <c r="CL202" s="10"/>
-    </row>
-    <row r="203" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C203" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="10"/>
-      <c r="L203" s="10"/>
-      <c r="M203" s="10"/>
-      <c r="N203" s="10"/>
-      <c r="O203" s="10"/>
-      <c r="P203" s="10"/>
-      <c r="Q203" s="10"/>
-      <c r="R203" s="10"/>
-      <c r="S203" s="10"/>
-      <c r="T203" s="10"/>
-      <c r="U203" s="10"/>
-      <c r="V203" s="10"/>
-      <c r="W203" s="10"/>
-      <c r="X203" s="10"/>
-      <c r="Y203" s="10"/>
-      <c r="Z203" s="10"/>
-      <c r="AA203" s="10"/>
-      <c r="AB203" s="10"/>
-      <c r="AC203" s="10"/>
-      <c r="AD203" s="10"/>
-      <c r="AF203" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG203" s="10"/>
-      <c r="AH203" s="10"/>
-      <c r="AI203" s="10"/>
-      <c r="AJ203" s="10"/>
-      <c r="AK203" s="10"/>
-      <c r="AL203" s="10"/>
-      <c r="AM203" s="10"/>
-      <c r="AN203" s="10"/>
-      <c r="AO203" s="10"/>
-      <c r="AP203" s="10"/>
-      <c r="AQ203" s="10"/>
-      <c r="AR203" s="10"/>
-      <c r="AS203" s="10"/>
-      <c r="AT203" s="10"/>
-      <c r="AU203" s="10"/>
-      <c r="AV203" s="10"/>
-      <c r="AW203" s="10"/>
-      <c r="AX203" s="10"/>
-      <c r="AY203" s="10"/>
-      <c r="AZ203" s="10"/>
-      <c r="BA203" s="10"/>
-      <c r="BB203" s="10"/>
-      <c r="BC203" s="10"/>
-      <c r="BD203" s="10"/>
-      <c r="BE203" s="10"/>
-      <c r="BF203" s="10"/>
-      <c r="BH203" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BI203" s="10"/>
-      <c r="BJ203" s="10"/>
-      <c r="BK203" s="10"/>
-      <c r="BL203" s="10"/>
-      <c r="BM203" s="10"/>
-      <c r="BN203" s="10"/>
-      <c r="BO203" s="10"/>
-      <c r="BP203" s="10"/>
-      <c r="BQ203" s="10"/>
-      <c r="BR203" s="10"/>
-      <c r="BS203" s="10"/>
-      <c r="BT203" s="10"/>
-      <c r="BU203" s="10"/>
-      <c r="BV203" s="10"/>
-      <c r="BW203" s="10"/>
-      <c r="BX203" s="10"/>
-      <c r="BY203" s="10"/>
-      <c r="BZ203" s="10"/>
-      <c r="CA203" s="10"/>
-      <c r="CB203" s="10"/>
-      <c r="CC203" s="10"/>
-      <c r="CD203" s="10"/>
-      <c r="CE203" s="10"/>
-      <c r="CF203" s="10"/>
-      <c r="CG203" s="10"/>
-      <c r="CH203" s="10"/>
-      <c r="CI203" s="10"/>
-      <c r="CJ203" s="10"/>
-      <c r="CK203" s="10"/>
-      <c r="CL203" s="10"/>
-    </row>
-    <row r="204" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C204" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
-      <c r="L204" s="10"/>
-      <c r="M204" s="10"/>
-      <c r="N204" s="10"/>
-      <c r="O204" s="10"/>
-      <c r="P204" s="10"/>
-      <c r="Q204" s="10"/>
-      <c r="R204" s="10"/>
-      <c r="S204" s="10"/>
-      <c r="T204" s="10"/>
-      <c r="U204" s="10"/>
-      <c r="V204" s="10"/>
-      <c r="W204" s="10"/>
-      <c r="X204" s="10"/>
-      <c r="Y204" s="10"/>
-      <c r="Z204" s="10"/>
-      <c r="AA204" s="10"/>
-      <c r="AB204" s="10"/>
-      <c r="AC204" s="10"/>
-      <c r="AD204" s="10"/>
-      <c r="AF204" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG204" s="10"/>
-      <c r="AH204" s="10"/>
-      <c r="AI204" s="10"/>
-      <c r="AJ204" s="10"/>
-      <c r="AK204" s="10"/>
-      <c r="AL204" s="10"/>
-      <c r="AM204" s="10"/>
-      <c r="AN204" s="10"/>
-      <c r="AO204" s="10"/>
-      <c r="AP204" s="10"/>
-      <c r="AQ204" s="10"/>
-      <c r="AR204" s="10"/>
-      <c r="AS204" s="10"/>
-      <c r="AT204" s="10"/>
-      <c r="AU204" s="10"/>
-      <c r="AV204" s="10"/>
-      <c r="AW204" s="10"/>
-      <c r="AX204" s="10"/>
-      <c r="AY204" s="10"/>
-      <c r="AZ204" s="10"/>
-      <c r="BA204" s="10"/>
-      <c r="BB204" s="10"/>
-      <c r="BC204" s="10"/>
-      <c r="BD204" s="10"/>
-      <c r="BE204" s="10"/>
-      <c r="BF204" s="10"/>
-      <c r="BH204" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI204" s="10"/>
-      <c r="BJ204" s="10"/>
-      <c r="BK204" s="10"/>
-      <c r="BL204" s="10"/>
-      <c r="BM204" s="10"/>
-      <c r="BN204" s="10"/>
-      <c r="BO204" s="10"/>
-      <c r="BP204" s="10"/>
-      <c r="BQ204" s="10"/>
-      <c r="BR204" s="10"/>
-      <c r="BS204" s="10"/>
-      <c r="BT204" s="10"/>
-      <c r="BU204" s="10"/>
-      <c r="BV204" s="10"/>
-      <c r="BW204" s="10"/>
-      <c r="BX204" s="10"/>
-      <c r="BY204" s="10"/>
-      <c r="BZ204" s="10"/>
-      <c r="CA204" s="10"/>
-      <c r="CB204" s="10"/>
-      <c r="CC204" s="10"/>
-      <c r="CD204" s="10"/>
-      <c r="CE204" s="10"/>
-      <c r="CF204" s="10"/>
-      <c r="CG204" s="10"/>
-      <c r="CH204" s="10"/>
-      <c r="CI204" s="10"/>
-      <c r="CJ204" s="10"/>
-      <c r="CK204" s="10"/>
-      <c r="CL204" s="10"/>
-    </row>
-    <row r="205" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C205" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-      <c r="K205" s="10"/>
-      <c r="L205" s="10"/>
-      <c r="M205" s="10"/>
-      <c r="N205" s="10"/>
-      <c r="O205" s="10"/>
-      <c r="P205" s="10"/>
-      <c r="Q205" s="10"/>
-      <c r="R205" s="10"/>
-      <c r="S205" s="10"/>
-      <c r="T205" s="10"/>
-      <c r="U205" s="10"/>
-      <c r="V205" s="10"/>
-      <c r="W205" s="10"/>
-      <c r="X205" s="10"/>
-      <c r="Y205" s="10"/>
-      <c r="Z205" s="10"/>
-      <c r="AA205" s="10"/>
-      <c r="AB205" s="10"/>
-      <c r="AC205" s="10"/>
-      <c r="AD205" s="10"/>
-      <c r="AF205" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG205" s="10"/>
-      <c r="AH205" s="10"/>
-      <c r="AI205" s="10"/>
-      <c r="AJ205" s="10"/>
-      <c r="AK205" s="10"/>
-      <c r="AL205" s="10"/>
-      <c r="AM205" s="10"/>
-      <c r="AN205" s="10"/>
-      <c r="AO205" s="10"/>
-      <c r="AP205" s="10"/>
-      <c r="AQ205" s="10"/>
-      <c r="AR205" s="10"/>
-      <c r="AS205" s="10"/>
-      <c r="AT205" s="10"/>
-      <c r="AU205" s="10"/>
-      <c r="AV205" s="10"/>
-      <c r="AW205" s="10"/>
-      <c r="AX205" s="10"/>
-      <c r="AY205" s="10"/>
-      <c r="AZ205" s="10"/>
-      <c r="BA205" s="10"/>
-      <c r="BB205" s="10"/>
-      <c r="BC205" s="10"/>
-      <c r="BD205" s="10"/>
-      <c r="BE205" s="10"/>
-      <c r="BF205" s="10"/>
-      <c r="BH205" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI205" s="10"/>
-      <c r="BJ205" s="10"/>
-      <c r="BK205" s="10"/>
-      <c r="BL205" s="10"/>
-      <c r="BM205" s="10"/>
-      <c r="BN205" s="10"/>
-      <c r="BO205" s="10"/>
-      <c r="BP205" s="10"/>
-      <c r="BQ205" s="10"/>
-      <c r="BR205" s="10"/>
-      <c r="BS205" s="10"/>
-      <c r="BT205" s="10"/>
-      <c r="BU205" s="10"/>
-      <c r="BV205" s="10"/>
-      <c r="BW205" s="10"/>
-      <c r="BX205" s="10"/>
-      <c r="BY205" s="10"/>
-      <c r="BZ205" s="10"/>
-      <c r="CA205" s="10"/>
-      <c r="CB205" s="10"/>
-      <c r="CC205" s="10"/>
-      <c r="CD205" s="10"/>
-      <c r="CE205" s="10"/>
-      <c r="CF205" s="10"/>
-      <c r="CG205" s="10"/>
-      <c r="CH205" s="10"/>
-      <c r="CI205" s="10"/>
-      <c r="CJ205" s="10"/>
-      <c r="CK205" s="10"/>
-      <c r="CL205" s="10"/>
-    </row>
-    <row r="206" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C206" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-      <c r="K206" s="10"/>
-      <c r="L206" s="10"/>
-      <c r="M206" s="10"/>
-      <c r="N206" s="10"/>
-      <c r="O206" s="10"/>
-      <c r="P206" s="10"/>
-      <c r="Q206" s="10"/>
-      <c r="R206" s="10"/>
-      <c r="S206" s="10"/>
-      <c r="T206" s="10"/>
-      <c r="U206" s="10"/>
-      <c r="V206" s="10"/>
-      <c r="W206" s="10"/>
-      <c r="X206" s="10"/>
-      <c r="Y206" s="10"/>
-      <c r="Z206" s="10"/>
-      <c r="AA206" s="10"/>
-      <c r="AB206" s="10"/>
-      <c r="AC206" s="10"/>
-      <c r="AD206" s="10"/>
-      <c r="AF206" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG206" s="10"/>
-      <c r="AH206" s="10"/>
-      <c r="AI206" s="10"/>
-      <c r="AJ206" s="10"/>
-      <c r="AK206" s="10"/>
-      <c r="AL206" s="10"/>
-      <c r="AM206" s="10"/>
-      <c r="AN206" s="10"/>
-      <c r="AO206" s="10"/>
-      <c r="AP206" s="10"/>
-      <c r="AQ206" s="10"/>
-      <c r="AR206" s="10"/>
-      <c r="AS206" s="10"/>
-      <c r="AT206" s="10"/>
-      <c r="AU206" s="10"/>
-      <c r="AV206" s="10"/>
-      <c r="AW206" s="10"/>
-      <c r="AX206" s="10"/>
-      <c r="AY206" s="10"/>
-      <c r="AZ206" s="10"/>
-      <c r="BA206" s="10"/>
-      <c r="BB206" s="10"/>
-      <c r="BC206" s="10"/>
-      <c r="BD206" s="10"/>
-      <c r="BE206" s="10"/>
-      <c r="BF206" s="10"/>
-      <c r="BH206" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI206" s="10"/>
-      <c r="BJ206" s="10"/>
-      <c r="BK206" s="10"/>
-      <c r="BL206" s="10"/>
-      <c r="BM206" s="10"/>
-      <c r="BN206" s="10"/>
-      <c r="BO206" s="10"/>
-      <c r="BP206" s="10"/>
-      <c r="BQ206" s="10"/>
-      <c r="BR206" s="10"/>
-      <c r="BS206" s="10"/>
-      <c r="BT206" s="10"/>
-      <c r="BU206" s="10"/>
-      <c r="BV206" s="10"/>
-      <c r="BW206" s="10"/>
-      <c r="BX206" s="10"/>
-      <c r="BY206" s="10"/>
-      <c r="BZ206" s="10"/>
-      <c r="CA206" s="10"/>
-      <c r="CB206" s="10"/>
-      <c r="CC206" s="10"/>
-      <c r="CD206" s="10"/>
-      <c r="CE206" s="10"/>
-      <c r="CF206" s="10"/>
-      <c r="CG206" s="10"/>
-      <c r="CH206" s="10"/>
-      <c r="CI206" s="10"/>
-      <c r="CJ206" s="10"/>
-      <c r="CK206" s="10"/>
-      <c r="CL206" s="10"/>
-    </row>
-    <row r="207" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C207" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
-      <c r="I207" s="10"/>
-      <c r="J207" s="10"/>
-      <c r="K207" s="10"/>
-      <c r="L207" s="10"/>
-      <c r="M207" s="10"/>
-      <c r="N207" s="10"/>
-      <c r="O207" s="10"/>
-      <c r="P207" s="10"/>
-      <c r="Q207" s="10"/>
-      <c r="R207" s="10"/>
-      <c r="S207" s="10"/>
-      <c r="T207" s="10"/>
-      <c r="U207" s="10"/>
-      <c r="V207" s="10"/>
-      <c r="W207" s="10"/>
-      <c r="X207" s="10"/>
-      <c r="Y207" s="10"/>
-      <c r="Z207" s="10"/>
-      <c r="AA207" s="10"/>
-      <c r="AB207" s="10"/>
-      <c r="AC207" s="10"/>
-      <c r="AD207" s="10"/>
-      <c r="AF207" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG207" s="10"/>
-      <c r="AH207" s="10"/>
-      <c r="AI207" s="10"/>
-      <c r="AJ207" s="10"/>
-      <c r="AK207" s="10"/>
-      <c r="AL207" s="10"/>
-      <c r="AM207" s="10"/>
-      <c r="AN207" s="10"/>
-      <c r="AO207" s="10"/>
-      <c r="AP207" s="10"/>
-      <c r="AQ207" s="10"/>
-      <c r="AR207" s="10"/>
-      <c r="AS207" s="10"/>
-      <c r="AT207" s="10"/>
-      <c r="AU207" s="10"/>
-      <c r="AV207" s="10"/>
-      <c r="AW207" s="10"/>
-      <c r="AX207" s="10"/>
-      <c r="AY207" s="10"/>
-      <c r="AZ207" s="10"/>
-      <c r="BA207" s="10"/>
-      <c r="BB207" s="10"/>
-      <c r="BC207" s="10"/>
-      <c r="BD207" s="10"/>
-      <c r="BE207" s="10"/>
-      <c r="BF207" s="10"/>
-      <c r="BH207" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI207" s="10"/>
-      <c r="BJ207" s="10"/>
-      <c r="BK207" s="10"/>
-      <c r="BL207" s="10"/>
-      <c r="BM207" s="10"/>
-      <c r="BN207" s="10"/>
-      <c r="BO207" s="10"/>
-      <c r="BP207" s="10"/>
-      <c r="BQ207" s="10"/>
-      <c r="BR207" s="10"/>
-      <c r="BS207" s="10"/>
-      <c r="BT207" s="10"/>
-      <c r="BU207" s="10"/>
-      <c r="BV207" s="10"/>
-      <c r="BW207" s="10"/>
-      <c r="BX207" s="10"/>
-      <c r="BY207" s="10"/>
-      <c r="BZ207" s="10"/>
-      <c r="CA207" s="10"/>
-      <c r="CB207" s="10"/>
-      <c r="CC207" s="10"/>
-      <c r="CD207" s="10"/>
-      <c r="CE207" s="10"/>
-      <c r="CF207" s="10"/>
-      <c r="CG207" s="10"/>
-      <c r="CH207" s="10"/>
-      <c r="CI207" s="10"/>
-      <c r="CJ207" s="10"/>
-      <c r="CK207" s="10"/>
-      <c r="CL207" s="10"/>
-    </row>
-    <row r="208" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C208" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-      <c r="K208" s="10"/>
-      <c r="L208" s="10"/>
-      <c r="M208" s="10"/>
-      <c r="N208" s="10"/>
-      <c r="O208" s="10"/>
-      <c r="P208" s="10"/>
-      <c r="Q208" s="10"/>
-      <c r="R208" s="10"/>
-      <c r="S208" s="10"/>
-      <c r="T208" s="10"/>
-      <c r="U208" s="10"/>
-      <c r="V208" s="10"/>
-      <c r="W208" s="10"/>
-      <c r="X208" s="10"/>
-      <c r="Y208" s="10"/>
-      <c r="Z208" s="10"/>
-      <c r="AA208" s="10"/>
-      <c r="AB208" s="10"/>
-      <c r="AC208" s="10"/>
-      <c r="AD208" s="10"/>
-      <c r="AF208" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG208" s="10"/>
-      <c r="AH208" s="10"/>
-      <c r="AI208" s="10"/>
-      <c r="AJ208" s="10"/>
-      <c r="AK208" s="10"/>
-      <c r="AL208" s="10"/>
-      <c r="AM208" s="10"/>
-      <c r="AN208" s="10"/>
-      <c r="AO208" s="10"/>
-      <c r="AP208" s="10"/>
-      <c r="AQ208" s="10"/>
-      <c r="AR208" s="10"/>
-      <c r="AS208" s="10"/>
-      <c r="AT208" s="10"/>
-      <c r="AU208" s="10"/>
-      <c r="AV208" s="10"/>
-      <c r="AW208" s="10"/>
-      <c r="AX208" s="10"/>
-      <c r="AY208" s="10"/>
-      <c r="AZ208" s="10"/>
-      <c r="BA208" s="10"/>
-      <c r="BB208" s="10"/>
-      <c r="BC208" s="10"/>
-      <c r="BD208" s="10"/>
-      <c r="BE208" s="10"/>
-      <c r="BF208" s="10"/>
-      <c r="BH208" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI208" s="10"/>
-      <c r="BJ208" s="10"/>
-      <c r="BK208" s="10"/>
-      <c r="BL208" s="10"/>
-      <c r="BM208" s="10"/>
-      <c r="BN208" s="10"/>
-      <c r="BO208" s="10"/>
-      <c r="BP208" s="10"/>
-      <c r="BQ208" s="10"/>
-      <c r="BR208" s="10"/>
-      <c r="BS208" s="10"/>
-      <c r="BT208" s="10"/>
-      <c r="BU208" s="10"/>
-      <c r="BV208" s="10"/>
-      <c r="BW208" s="10"/>
-      <c r="BX208" s="10"/>
-      <c r="BY208" s="10"/>
-      <c r="BZ208" s="10"/>
-      <c r="CA208" s="10"/>
-      <c r="CB208" s="10"/>
-      <c r="CC208" s="10"/>
-      <c r="CD208" s="10"/>
-      <c r="CE208" s="10"/>
-      <c r="CF208" s="10"/>
-      <c r="CG208" s="10"/>
-      <c r="CH208" s="10"/>
-      <c r="CI208" s="10"/>
-      <c r="CJ208" s="10"/>
-      <c r="CK208" s="10"/>
-      <c r="CL208" s="10"/>
-    </row>
-    <row r="209" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C209" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
-      <c r="L209" s="10"/>
-      <c r="M209" s="10"/>
-      <c r="N209" s="10"/>
-      <c r="O209" s="10"/>
-      <c r="P209" s="10"/>
-      <c r="Q209" s="10"/>
-      <c r="R209" s="10"/>
-      <c r="S209" s="10"/>
-      <c r="T209" s="10"/>
-      <c r="U209" s="10"/>
-      <c r="V209" s="10"/>
-      <c r="W209" s="10"/>
-      <c r="X209" s="10"/>
-      <c r="Y209" s="10"/>
-      <c r="Z209" s="10"/>
-      <c r="AA209" s="10"/>
-      <c r="AB209" s="10"/>
-      <c r="AC209" s="10"/>
-      <c r="AD209" s="10"/>
-      <c r="AF209" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG209" s="10"/>
-      <c r="AH209" s="10"/>
-      <c r="AI209" s="10"/>
-      <c r="AJ209" s="10"/>
-      <c r="AK209" s="10"/>
-      <c r="AL209" s="10"/>
-      <c r="AM209" s="10"/>
-      <c r="AN209" s="10"/>
-      <c r="AO209" s="10"/>
-      <c r="AP209" s="10"/>
-      <c r="AQ209" s="10"/>
-      <c r="AR209" s="10"/>
-      <c r="AS209" s="10"/>
-      <c r="AT209" s="10"/>
-      <c r="AU209" s="10"/>
-      <c r="AV209" s="10"/>
-      <c r="AW209" s="10"/>
-      <c r="AX209" s="10"/>
-      <c r="AY209" s="10"/>
-      <c r="AZ209" s="10"/>
-      <c r="BA209" s="10"/>
-      <c r="BB209" s="10"/>
-      <c r="BC209" s="10"/>
-      <c r="BD209" s="10"/>
-      <c r="BE209" s="10"/>
-      <c r="BF209" s="10"/>
-      <c r="BH209" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI209" s="10"/>
-      <c r="BJ209" s="10"/>
-      <c r="BK209" s="10"/>
-      <c r="BL209" s="10"/>
-      <c r="BM209" s="10"/>
-      <c r="BN209" s="10"/>
-      <c r="BO209" s="10"/>
-      <c r="BP209" s="10"/>
-      <c r="BQ209" s="10"/>
-      <c r="BR209" s="10"/>
-      <c r="BS209" s="10"/>
-      <c r="BT209" s="10"/>
-      <c r="BU209" s="10"/>
-      <c r="BV209" s="10"/>
-      <c r="BW209" s="10"/>
-      <c r="BX209" s="10"/>
-      <c r="BY209" s="10"/>
-      <c r="BZ209" s="10"/>
-      <c r="CA209" s="10"/>
-      <c r="CB209" s="10"/>
-      <c r="CC209" s="10"/>
-      <c r="CD209" s="10"/>
-      <c r="CE209" s="10"/>
-      <c r="CF209" s="10"/>
-      <c r="CG209" s="10"/>
-      <c r="CH209" s="10"/>
-      <c r="CI209" s="10"/>
-      <c r="CJ209" s="10"/>
-      <c r="CK209" s="10"/>
-      <c r="CL209" s="10"/>
-    </row>
-    <row r="210" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C210" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-      <c r="L210" s="10"/>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10"/>
-      <c r="O210" s="10"/>
-      <c r="P210" s="10"/>
-      <c r="Q210" s="10"/>
-      <c r="R210" s="10"/>
-      <c r="S210" s="10"/>
-      <c r="T210" s="10"/>
-      <c r="U210" s="10"/>
-      <c r="V210" s="10"/>
-      <c r="W210" s="10"/>
-      <c r="X210" s="10"/>
-      <c r="Y210" s="10"/>
-      <c r="Z210" s="10"/>
-      <c r="AA210" s="10"/>
-      <c r="AB210" s="10"/>
-      <c r="AC210" s="10"/>
-      <c r="AD210" s="10"/>
-      <c r="AF210" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG210" s="10"/>
-      <c r="AH210" s="10"/>
-      <c r="AI210" s="10"/>
-      <c r="AJ210" s="10"/>
-      <c r="AK210" s="10"/>
-      <c r="AL210" s="10"/>
-      <c r="AM210" s="10"/>
-      <c r="AN210" s="10"/>
-      <c r="AO210" s="10"/>
-      <c r="AP210" s="10"/>
-      <c r="AQ210" s="10"/>
-      <c r="AR210" s="10"/>
-      <c r="AS210" s="10"/>
-      <c r="AT210" s="10"/>
-      <c r="AU210" s="10"/>
-      <c r="AV210" s="10"/>
-      <c r="AW210" s="10"/>
-      <c r="AX210" s="10"/>
-      <c r="AY210" s="10"/>
-      <c r="AZ210" s="10"/>
-      <c r="BA210" s="10"/>
-      <c r="BB210" s="10"/>
-      <c r="BC210" s="10"/>
-      <c r="BD210" s="10"/>
-      <c r="BE210" s="10"/>
-      <c r="BF210" s="10"/>
-      <c r="BH210" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI210" s="10"/>
-      <c r="BJ210" s="10"/>
-      <c r="BK210" s="10"/>
-      <c r="BL210" s="10"/>
-      <c r="BM210" s="10"/>
-      <c r="BN210" s="10"/>
-      <c r="BO210" s="10"/>
-      <c r="BP210" s="10"/>
-      <c r="BQ210" s="10"/>
-      <c r="BR210" s="10"/>
-      <c r="BS210" s="10"/>
-      <c r="BT210" s="10"/>
-      <c r="BU210" s="10"/>
-      <c r="BV210" s="10"/>
-      <c r="BW210" s="10"/>
-      <c r="BX210" s="10"/>
-      <c r="BY210" s="10"/>
-      <c r="BZ210" s="10"/>
-      <c r="CA210" s="10"/>
-      <c r="CB210" s="10"/>
-      <c r="CC210" s="10"/>
-      <c r="CD210" s="10"/>
-      <c r="CE210" s="10"/>
-      <c r="CF210" s="10"/>
-      <c r="CG210" s="10"/>
-      <c r="CH210" s="10"/>
-      <c r="CI210" s="10"/>
-      <c r="CJ210" s="10"/>
-      <c r="CK210" s="10"/>
-      <c r="CL210" s="10"/>
-    </row>
-    <row r="211" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C211" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-      <c r="L211" s="10"/>
-      <c r="M211" s="10"/>
-      <c r="N211" s="10"/>
-      <c r="O211" s="10"/>
-      <c r="P211" s="10"/>
-      <c r="Q211" s="10"/>
-      <c r="R211" s="10"/>
-      <c r="S211" s="10"/>
-      <c r="T211" s="10"/>
-      <c r="U211" s="10"/>
-      <c r="V211" s="10"/>
-      <c r="W211" s="10"/>
-      <c r="X211" s="10"/>
-      <c r="Y211" s="10"/>
-      <c r="Z211" s="10"/>
-      <c r="AA211" s="10"/>
-      <c r="AB211" s="10"/>
-      <c r="AC211" s="10"/>
-      <c r="AD211" s="10"/>
-      <c r="AF211" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG211" s="10"/>
-      <c r="AH211" s="10"/>
-      <c r="AI211" s="10"/>
-      <c r="AJ211" s="10"/>
-      <c r="AK211" s="10"/>
-      <c r="AL211" s="10"/>
-      <c r="AM211" s="10"/>
-      <c r="AN211" s="10"/>
-      <c r="AO211" s="10"/>
-      <c r="AP211" s="10"/>
-      <c r="AQ211" s="10"/>
-      <c r="AR211" s="10"/>
-      <c r="AS211" s="10"/>
-      <c r="AT211" s="10"/>
-      <c r="AU211" s="10"/>
-      <c r="AV211" s="10"/>
-      <c r="AW211" s="10"/>
-      <c r="AX211" s="10"/>
-      <c r="AY211" s="10"/>
-      <c r="AZ211" s="10"/>
-      <c r="BA211" s="10"/>
-      <c r="BB211" s="10"/>
-      <c r="BC211" s="10"/>
-      <c r="BD211" s="10"/>
-      <c r="BE211" s="10"/>
-      <c r="BF211" s="10"/>
-      <c r="BH211" s="9"/>
-      <c r="BI211" s="10"/>
-      <c r="BJ211" s="10"/>
-      <c r="BK211" s="10"/>
-      <c r="BL211" s="10"/>
-      <c r="BM211" s="10"/>
-      <c r="BN211" s="10"/>
-      <c r="BO211" s="10"/>
-      <c r="BP211" s="10"/>
-      <c r="BQ211" s="10"/>
-      <c r="BR211" s="10"/>
-      <c r="BS211" s="10"/>
-      <c r="BT211" s="10"/>
-      <c r="BU211" s="10"/>
-      <c r="BV211" s="10"/>
-      <c r="BW211" s="10"/>
-      <c r="BX211" s="10"/>
-      <c r="BY211" s="10"/>
-      <c r="BZ211" s="10"/>
-      <c r="CA211" s="10"/>
-      <c r="CB211" s="10"/>
-      <c r="CC211" s="10"/>
-      <c r="CD211" s="10"/>
-      <c r="CE211" s="10"/>
-      <c r="CF211" s="10"/>
-      <c r="CG211" s="10"/>
-      <c r="CH211" s="10"/>
-      <c r="CI211" s="10"/>
-      <c r="CJ211" s="10"/>
-      <c r="CK211" s="10"/>
-      <c r="CL211" s="10"/>
+    <row r="40" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+    </row>
+    <row r="41" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+    </row>
+    <row r="42" spans="4:61" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="212" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C212" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
-      <c r="L212" s="10"/>
-      <c r="M212" s="10"/>
-      <c r="N212" s="10"/>
-      <c r="O212" s="10"/>
-      <c r="P212" s="10"/>
-      <c r="Q212" s="10"/>
-      <c r="R212" s="10"/>
-      <c r="S212" s="10"/>
-      <c r="T212" s="10"/>
-      <c r="U212" s="10"/>
-      <c r="V212" s="10"/>
-      <c r="W212" s="10"/>
-      <c r="X212" s="10"/>
-      <c r="Y212" s="10"/>
-      <c r="Z212" s="10"/>
-      <c r="AA212" s="10"/>
-      <c r="AB212" s="10"/>
-      <c r="AC212" s="10"/>
-      <c r="AD212" s="10"/>
-      <c r="AF212" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG212" s="10"/>
-      <c r="AH212" s="10"/>
-      <c r="AI212" s="10"/>
-      <c r="AJ212" s="10"/>
-      <c r="AK212" s="10"/>
-      <c r="AL212" s="10"/>
-      <c r="AM212" s="10"/>
-      <c r="AN212" s="10"/>
-      <c r="AO212" s="10"/>
-      <c r="AP212" s="10"/>
-      <c r="AQ212" s="10"/>
-      <c r="AR212" s="10"/>
-      <c r="AS212" s="10"/>
-      <c r="AT212" s="10"/>
-      <c r="AU212" s="10"/>
-      <c r="AV212" s="10"/>
-      <c r="AW212" s="10"/>
-      <c r="AX212" s="10"/>
-      <c r="AY212" s="10"/>
-      <c r="AZ212" s="10"/>
-      <c r="BA212" s="10"/>
-      <c r="BB212" s="10"/>
-      <c r="BC212" s="10"/>
-      <c r="BD212" s="10"/>
-      <c r="BE212" s="10"/>
-      <c r="BF212" s="10"/>
-      <c r="BH212" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI212" s="10"/>
-      <c r="BJ212" s="10"/>
-      <c r="BK212" s="10"/>
-      <c r="BL212" s="10"/>
-      <c r="BM212" s="10"/>
-      <c r="BN212" s="10"/>
-      <c r="BO212" s="10"/>
-      <c r="BP212" s="10"/>
-      <c r="BQ212" s="10"/>
-      <c r="BR212" s="10"/>
-      <c r="BS212" s="10"/>
-      <c r="BT212" s="10"/>
-      <c r="BU212" s="10"/>
-      <c r="BV212" s="10"/>
-      <c r="BW212" s="10"/>
-      <c r="BX212" s="10"/>
-      <c r="BY212" s="10"/>
-      <c r="BZ212" s="10"/>
-      <c r="CA212" s="10"/>
-      <c r="CB212" s="10"/>
-      <c r="CC212" s="10"/>
-      <c r="CD212" s="10"/>
-      <c r="CE212" s="10"/>
-      <c r="CF212" s="10"/>
-      <c r="CG212" s="10"/>
-      <c r="CH212" s="10"/>
-      <c r="CI212" s="10"/>
-      <c r="CJ212" s="10"/>
-      <c r="CK212" s="10"/>
-      <c r="CL212" s="10"/>
-    </row>
-    <row r="213" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C213" s="9"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-      <c r="K213" s="10"/>
-      <c r="L213" s="10"/>
-      <c r="M213" s="10"/>
-      <c r="N213" s="10"/>
-      <c r="O213" s="10"/>
-      <c r="P213" s="10"/>
-      <c r="Q213" s="10"/>
-      <c r="R213" s="10"/>
-      <c r="S213" s="10"/>
-      <c r="T213" s="10"/>
-      <c r="U213" s="10"/>
-      <c r="V213" s="10"/>
-      <c r="W213" s="10"/>
-      <c r="X213" s="10"/>
-      <c r="Y213" s="10"/>
-      <c r="Z213" s="10"/>
-      <c r="AA213" s="10"/>
-      <c r="AB213" s="10"/>
-      <c r="AC213" s="10"/>
-      <c r="AD213" s="10"/>
-      <c r="AF213" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG213" s="10"/>
-      <c r="AH213" s="10"/>
-      <c r="AI213" s="10"/>
-      <c r="AJ213" s="10"/>
-      <c r="AK213" s="10"/>
-      <c r="AL213" s="10"/>
-      <c r="AM213" s="10"/>
-      <c r="AN213" s="10"/>
-      <c r="AO213" s="10"/>
-      <c r="AP213" s="10"/>
-      <c r="AQ213" s="10"/>
-      <c r="AR213" s="10"/>
-      <c r="AS213" s="10"/>
-      <c r="AT213" s="10"/>
-      <c r="AU213" s="10"/>
-      <c r="AV213" s="10"/>
-      <c r="AW213" s="10"/>
-      <c r="AX213" s="10"/>
-      <c r="AY213" s="10"/>
-      <c r="AZ213" s="10"/>
-      <c r="BA213" s="10"/>
-      <c r="BB213" s="10"/>
-      <c r="BC213" s="10"/>
-      <c r="BD213" s="10"/>
-      <c r="BE213" s="10"/>
-      <c r="BF213" s="10"/>
-      <c r="BH213" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI213" s="10"/>
-      <c r="BJ213" s="10"/>
-      <c r="BK213" s="10"/>
-      <c r="BL213" s="10"/>
-      <c r="BM213" s="10"/>
-      <c r="BN213" s="10"/>
-      <c r="BO213" s="10"/>
-      <c r="BP213" s="10"/>
-      <c r="BQ213" s="10"/>
-      <c r="BR213" s="10"/>
-      <c r="BS213" s="10"/>
-      <c r="BT213" s="10"/>
-      <c r="BU213" s="10"/>
-      <c r="BV213" s="10"/>
-      <c r="BW213" s="10"/>
-      <c r="BX213" s="10"/>
-      <c r="BY213" s="10"/>
-      <c r="BZ213" s="10"/>
-      <c r="CA213" s="10"/>
-      <c r="CB213" s="10"/>
-      <c r="CC213" s="10"/>
-      <c r="CD213" s="10"/>
-      <c r="CE213" s="10"/>
-      <c r="CF213" s="10"/>
-      <c r="CG213" s="10"/>
-      <c r="CH213" s="10"/>
-      <c r="CI213" s="10"/>
-      <c r="CJ213" s="10"/>
-      <c r="CK213" s="10"/>
-      <c r="CL213" s="10"/>
+      <c r="C212" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="214" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C214" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-      <c r="K214" s="10"/>
-      <c r="L214" s="10"/>
-      <c r="M214" s="10"/>
-      <c r="N214" s="10"/>
-      <c r="O214" s="10"/>
-      <c r="P214" s="10"/>
-      <c r="Q214" s="10"/>
-      <c r="R214" s="10"/>
-      <c r="S214" s="10"/>
-      <c r="T214" s="10"/>
-      <c r="U214" s="10"/>
-      <c r="V214" s="10"/>
-      <c r="W214" s="10"/>
-      <c r="X214" s="10"/>
-      <c r="Y214" s="10"/>
-      <c r="Z214" s="10"/>
-      <c r="AA214" s="10"/>
-      <c r="AB214" s="10"/>
-      <c r="AC214" s="10"/>
-      <c r="AD214" s="10"/>
-      <c r="AF214" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG214" s="10"/>
-      <c r="AH214" s="10"/>
-      <c r="AI214" s="10"/>
-      <c r="AJ214" s="10"/>
-      <c r="AK214" s="10"/>
-      <c r="AL214" s="10"/>
-      <c r="AM214" s="10"/>
-      <c r="AN214" s="10"/>
-      <c r="AO214" s="10"/>
-      <c r="AP214" s="10"/>
-      <c r="AQ214" s="10"/>
-      <c r="AR214" s="10"/>
-      <c r="AS214" s="10"/>
-      <c r="AT214" s="10"/>
-      <c r="AU214" s="10"/>
-      <c r="AV214" s="10"/>
-      <c r="AW214" s="10"/>
-      <c r="AX214" s="10"/>
-      <c r="AY214" s="10"/>
-      <c r="AZ214" s="10"/>
-      <c r="BA214" s="10"/>
-      <c r="BB214" s="10"/>
-      <c r="BC214" s="10"/>
-      <c r="BD214" s="10"/>
-      <c r="BE214" s="10"/>
-      <c r="BF214" s="10"/>
-    </row>
-    <row r="215" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C215" s="9"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="10"/>
-      <c r="P215" s="10"/>
-      <c r="Q215" s="10"/>
-      <c r="R215" s="10"/>
-      <c r="S215" s="10"/>
-      <c r="T215" s="10"/>
-      <c r="U215" s="10"/>
-      <c r="V215" s="10"/>
-      <c r="W215" s="10"/>
-      <c r="X215" s="10"/>
-      <c r="Y215" s="10"/>
-      <c r="Z215" s="10"/>
-      <c r="AA215" s="10"/>
-      <c r="AB215" s="10"/>
-      <c r="AC215" s="10"/>
-      <c r="AD215" s="10"/>
-      <c r="AF215" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG215" s="10"/>
-      <c r="AH215" s="10"/>
-      <c r="AI215" s="10"/>
-      <c r="AJ215" s="10"/>
-      <c r="AK215" s="10"/>
-      <c r="AL215" s="10"/>
-      <c r="AM215" s="10"/>
-      <c r="AN215" s="10"/>
-      <c r="AO215" s="10"/>
-      <c r="AP215" s="10"/>
-      <c r="AQ215" s="10"/>
-      <c r="AR215" s="10"/>
-      <c r="AS215" s="10"/>
-      <c r="AT215" s="10"/>
-      <c r="AU215" s="10"/>
-      <c r="AV215" s="10"/>
-      <c r="AW215" s="10"/>
-      <c r="AX215" s="10"/>
-      <c r="AY215" s="10"/>
-      <c r="AZ215" s="10"/>
-      <c r="BA215" s="10"/>
-      <c r="BB215" s="10"/>
-      <c r="BC215" s="10"/>
-      <c r="BD215" s="10"/>
-      <c r="BE215" s="10"/>
-      <c r="BF215" s="10"/>
+      <c r="C214" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF214" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH214" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="216" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C216" s="9" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D216" s="10"/>
       <c r="E216" s="10"/>
@@ -6094,7 +3937,7 @@
       <c r="AC216" s="10"/>
       <c r="AD216" s="10"/>
       <c r="AF216" s="9" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="AG216" s="10"/>
       <c r="AH216" s="10"/>
@@ -6122,11 +3965,42 @@
       <c r="BD216" s="10"/>
       <c r="BE216" s="10"/>
       <c r="BF216" s="10"/>
+      <c r="BH216" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI216" s="10"/>
+      <c r="BJ216" s="10"/>
+      <c r="BK216" s="10"/>
+      <c r="BL216" s="10"/>
+      <c r="BM216" s="10"/>
+      <c r="BN216" s="10"/>
+      <c r="BO216" s="10"/>
+      <c r="BP216" s="10"/>
+      <c r="BQ216" s="10"/>
+      <c r="BR216" s="10"/>
+      <c r="BS216" s="10"/>
+      <c r="BT216" s="10"/>
+      <c r="BU216" s="10"/>
+      <c r="BV216" s="10"/>
+      <c r="BW216" s="10"/>
+      <c r="BX216" s="10"/>
+      <c r="BY216" s="10"/>
+      <c r="BZ216" s="10"/>
+      <c r="CA216" s="10"/>
+      <c r="CB216" s="10"/>
+      <c r="CC216" s="10"/>
+      <c r="CD216" s="10"/>
+      <c r="CE216" s="10"/>
+      <c r="CF216" s="10"/>
+      <c r="CG216" s="10"/>
+      <c r="CH216" s="10"/>
+      <c r="CI216" s="10"/>
+      <c r="CJ216" s="10"/>
+      <c r="CK216" s="10"/>
+      <c r="CL216" s="10"/>
     </row>
     <row r="217" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C217" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="C217" s="9"/>
       <c r="D217" s="10"/>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
@@ -6154,9 +4028,7 @@
       <c r="AB217" s="10"/>
       <c r="AC217" s="10"/>
       <c r="AD217" s="10"/>
-      <c r="AF217" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="AF217" s="9"/>
       <c r="AG217" s="10"/>
       <c r="AH217" s="10"/>
       <c r="AI217" s="10"/>
@@ -6183,10 +4055,41 @@
       <c r="BD217" s="10"/>
       <c r="BE217" s="10"/>
       <c r="BF217" s="10"/>
+      <c r="BH217" s="9"/>
+      <c r="BI217" s="10"/>
+      <c r="BJ217" s="10"/>
+      <c r="BK217" s="10"/>
+      <c r="BL217" s="10"/>
+      <c r="BM217" s="10"/>
+      <c r="BN217" s="10"/>
+      <c r="BO217" s="10"/>
+      <c r="BP217" s="10"/>
+      <c r="BQ217" s="10"/>
+      <c r="BR217" s="10"/>
+      <c r="BS217" s="10"/>
+      <c r="BT217" s="10"/>
+      <c r="BU217" s="10"/>
+      <c r="BV217" s="10"/>
+      <c r="BW217" s="10"/>
+      <c r="BX217" s="10"/>
+      <c r="BY217" s="10"/>
+      <c r="BZ217" s="10"/>
+      <c r="CA217" s="10"/>
+      <c r="CB217" s="10"/>
+      <c r="CC217" s="10"/>
+      <c r="CD217" s="10"/>
+      <c r="CE217" s="10"/>
+      <c r="CF217" s="10"/>
+      <c r="CG217" s="10"/>
+      <c r="CH217" s="10"/>
+      <c r="CI217" s="10"/>
+      <c r="CJ217" s="10"/>
+      <c r="CK217" s="10"/>
+      <c r="CL217" s="10"/>
     </row>
     <row r="218" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C218" s="9" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D218" s="10"/>
       <c r="E218" s="10"/>
@@ -6216,7 +4119,7 @@
       <c r="AC218" s="10"/>
       <c r="AD218" s="10"/>
       <c r="AF218" s="9" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="AG218" s="10"/>
       <c r="AH218" s="10"/>
@@ -6244,10 +4147,43 @@
       <c r="BD218" s="10"/>
       <c r="BE218" s="10"/>
       <c r="BF218" s="10"/>
+      <c r="BH218" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI218" s="10"/>
+      <c r="BJ218" s="10"/>
+      <c r="BK218" s="10"/>
+      <c r="BL218" s="10"/>
+      <c r="BM218" s="10"/>
+      <c r="BN218" s="10"/>
+      <c r="BO218" s="10"/>
+      <c r="BP218" s="10"/>
+      <c r="BQ218" s="10"/>
+      <c r="BR218" s="10"/>
+      <c r="BS218" s="10"/>
+      <c r="BT218" s="10"/>
+      <c r="BU218" s="10"/>
+      <c r="BV218" s="10"/>
+      <c r="BW218" s="10"/>
+      <c r="BX218" s="10"/>
+      <c r="BY218" s="10"/>
+      <c r="BZ218" s="10"/>
+      <c r="CA218" s="10"/>
+      <c r="CB218" s="10"/>
+      <c r="CC218" s="10"/>
+      <c r="CD218" s="10"/>
+      <c r="CE218" s="10"/>
+      <c r="CF218" s="10"/>
+      <c r="CG218" s="10"/>
+      <c r="CH218" s="10"/>
+      <c r="CI218" s="10"/>
+      <c r="CJ218" s="10"/>
+      <c r="CK218" s="10"/>
+      <c r="CL218" s="10"/>
     </row>
     <row r="219" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C219" s="9" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D219" s="10"/>
       <c r="E219" s="10"/>
@@ -6277,7 +4213,7 @@
       <c r="AC219" s="10"/>
       <c r="AD219" s="10"/>
       <c r="AF219" s="9" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="AG219" s="10"/>
       <c r="AH219" s="10"/>
@@ -6305,10 +4241,43 @@
       <c r="BD219" s="10"/>
       <c r="BE219" s="10"/>
       <c r="BF219" s="10"/>
+      <c r="BH219" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI219" s="10"/>
+      <c r="BJ219" s="10"/>
+      <c r="BK219" s="10"/>
+      <c r="BL219" s="10"/>
+      <c r="BM219" s="10"/>
+      <c r="BN219" s="10"/>
+      <c r="BO219" s="10"/>
+      <c r="BP219" s="10"/>
+      <c r="BQ219" s="10"/>
+      <c r="BR219" s="10"/>
+      <c r="BS219" s="10"/>
+      <c r="BT219" s="10"/>
+      <c r="BU219" s="10"/>
+      <c r="BV219" s="10"/>
+      <c r="BW219" s="10"/>
+      <c r="BX219" s="10"/>
+      <c r="BY219" s="10"/>
+      <c r="BZ219" s="10"/>
+      <c r="CA219" s="10"/>
+      <c r="CB219" s="10"/>
+      <c r="CC219" s="10"/>
+      <c r="CD219" s="10"/>
+      <c r="CE219" s="10"/>
+      <c r="CF219" s="10"/>
+      <c r="CG219" s="10"/>
+      <c r="CH219" s="10"/>
+      <c r="CI219" s="10"/>
+      <c r="CJ219" s="10"/>
+      <c r="CK219" s="10"/>
+      <c r="CL219" s="10"/>
     </row>
     <row r="220" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C220" s="9" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D220" s="10"/>
       <c r="E220" s="10"/>
@@ -6338,7 +4307,7 @@
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
       <c r="AF220" s="9" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="AG220" s="10"/>
       <c r="AH220" s="10"/>
@@ -6366,10 +4335,43 @@
       <c r="BD220" s="10"/>
       <c r="BE220" s="10"/>
       <c r="BF220" s="10"/>
+      <c r="BH220" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI220" s="10"/>
+      <c r="BJ220" s="10"/>
+      <c r="BK220" s="10"/>
+      <c r="BL220" s="10"/>
+      <c r="BM220" s="10"/>
+      <c r="BN220" s="10"/>
+      <c r="BO220" s="10"/>
+      <c r="BP220" s="10"/>
+      <c r="BQ220" s="10"/>
+      <c r="BR220" s="10"/>
+      <c r="BS220" s="10"/>
+      <c r="BT220" s="10"/>
+      <c r="BU220" s="10"/>
+      <c r="BV220" s="10"/>
+      <c r="BW220" s="10"/>
+      <c r="BX220" s="10"/>
+      <c r="BY220" s="10"/>
+      <c r="BZ220" s="10"/>
+      <c r="CA220" s="10"/>
+      <c r="CB220" s="10"/>
+      <c r="CC220" s="10"/>
+      <c r="CD220" s="10"/>
+      <c r="CE220" s="10"/>
+      <c r="CF220" s="10"/>
+      <c r="CG220" s="10"/>
+      <c r="CH220" s="10"/>
+      <c r="CI220" s="10"/>
+      <c r="CJ220" s="10"/>
+      <c r="CK220" s="10"/>
+      <c r="CL220" s="10"/>
     </row>
     <row r="221" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C221" s="9" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="10"/>
@@ -6399,7 +4401,7 @@
       <c r="AC221" s="10"/>
       <c r="AD221" s="10"/>
       <c r="AF221" s="9" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AG221" s="10"/>
       <c r="AH221" s="10"/>
@@ -6427,10 +4429,43 @@
       <c r="BD221" s="10"/>
       <c r="BE221" s="10"/>
       <c r="BF221" s="10"/>
+      <c r="BH221" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI221" s="10"/>
+      <c r="BJ221" s="10"/>
+      <c r="BK221" s="10"/>
+      <c r="BL221" s="10"/>
+      <c r="BM221" s="10"/>
+      <c r="BN221" s="10"/>
+      <c r="BO221" s="10"/>
+      <c r="BP221" s="10"/>
+      <c r="BQ221" s="10"/>
+      <c r="BR221" s="10"/>
+      <c r="BS221" s="10"/>
+      <c r="BT221" s="10"/>
+      <c r="BU221" s="10"/>
+      <c r="BV221" s="10"/>
+      <c r="BW221" s="10"/>
+      <c r="BX221" s="10"/>
+      <c r="BY221" s="10"/>
+      <c r="BZ221" s="10"/>
+      <c r="CA221" s="10"/>
+      <c r="CB221" s="10"/>
+      <c r="CC221" s="10"/>
+      <c r="CD221" s="10"/>
+      <c r="CE221" s="10"/>
+      <c r="CF221" s="10"/>
+      <c r="CG221" s="10"/>
+      <c r="CH221" s="10"/>
+      <c r="CI221" s="10"/>
+      <c r="CJ221" s="10"/>
+      <c r="CK221" s="10"/>
+      <c r="CL221" s="10"/>
     </row>
     <row r="222" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C222" s="9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="10"/>
@@ -6460,7 +4495,7 @@
       <c r="AC222" s="10"/>
       <c r="AD222" s="10"/>
       <c r="AF222" s="9" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AG222" s="10"/>
       <c r="AH222" s="10"/>
@@ -6488,11 +4523,42 @@
       <c r="BD222" s="10"/>
       <c r="BE222" s="10"/>
       <c r="BF222" s="10"/>
+      <c r="BH222" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI222" s="10"/>
+      <c r="BJ222" s="10"/>
+      <c r="BK222" s="10"/>
+      <c r="BL222" s="10"/>
+      <c r="BM222" s="10"/>
+      <c r="BN222" s="10"/>
+      <c r="BO222" s="10"/>
+      <c r="BP222" s="10"/>
+      <c r="BQ222" s="10"/>
+      <c r="BR222" s="10"/>
+      <c r="BS222" s="10"/>
+      <c r="BT222" s="10"/>
+      <c r="BU222" s="10"/>
+      <c r="BV222" s="10"/>
+      <c r="BW222" s="10"/>
+      <c r="BX222" s="10"/>
+      <c r="BY222" s="10"/>
+      <c r="BZ222" s="10"/>
+      <c r="CA222" s="10"/>
+      <c r="CB222" s="10"/>
+      <c r="CC222" s="10"/>
+      <c r="CD222" s="10"/>
+      <c r="CE222" s="10"/>
+      <c r="CF222" s="10"/>
+      <c r="CG222" s="10"/>
+      <c r="CH222" s="10"/>
+      <c r="CI222" s="10"/>
+      <c r="CJ222" s="10"/>
+      <c r="CK222" s="10"/>
+      <c r="CL222" s="10"/>
     </row>
     <row r="223" spans="3:90" x14ac:dyDescent="0.25">
-      <c r="C223" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="C223" s="9"/>
       <c r="D223" s="10"/>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
@@ -6521,7 +4587,7 @@
       <c r="AC223" s="10"/>
       <c r="AD223" s="10"/>
       <c r="AF223" s="9" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="AG223" s="10"/>
       <c r="AH223" s="10"/>
@@ -6549,10 +4615,43 @@
       <c r="BD223" s="10"/>
       <c r="BE223" s="10"/>
       <c r="BF223" s="10"/>
+      <c r="BH223" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI223" s="10"/>
+      <c r="BJ223" s="10"/>
+      <c r="BK223" s="10"/>
+      <c r="BL223" s="10"/>
+      <c r="BM223" s="10"/>
+      <c r="BN223" s="10"/>
+      <c r="BO223" s="10"/>
+      <c r="BP223" s="10"/>
+      <c r="BQ223" s="10"/>
+      <c r="BR223" s="10"/>
+      <c r="BS223" s="10"/>
+      <c r="BT223" s="10"/>
+      <c r="BU223" s="10"/>
+      <c r="BV223" s="10"/>
+      <c r="BW223" s="10"/>
+      <c r="BX223" s="10"/>
+      <c r="BY223" s="10"/>
+      <c r="BZ223" s="10"/>
+      <c r="CA223" s="10"/>
+      <c r="CB223" s="10"/>
+      <c r="CC223" s="10"/>
+      <c r="CD223" s="10"/>
+      <c r="CE223" s="10"/>
+      <c r="CF223" s="10"/>
+      <c r="CG223" s="10"/>
+      <c r="CH223" s="10"/>
+      <c r="CI223" s="10"/>
+      <c r="CJ223" s="10"/>
+      <c r="CK223" s="10"/>
+      <c r="CL223" s="10"/>
     </row>
     <row r="224" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C224" s="9" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="10"/>
@@ -6582,7 +4681,7 @@
       <c r="AC224" s="10"/>
       <c r="AD224" s="10"/>
       <c r="AF224" s="9" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AG224" s="10"/>
       <c r="AH224" s="10"/>
@@ -6610,10 +4709,43 @@
       <c r="BD224" s="10"/>
       <c r="BE224" s="10"/>
       <c r="BF224" s="10"/>
-    </row>
-    <row r="225" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH224" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI224" s="10"/>
+      <c r="BJ224" s="10"/>
+      <c r="BK224" s="10"/>
+      <c r="BL224" s="10"/>
+      <c r="BM224" s="10"/>
+      <c r="BN224" s="10"/>
+      <c r="BO224" s="10"/>
+      <c r="BP224" s="10"/>
+      <c r="BQ224" s="10"/>
+      <c r="BR224" s="10"/>
+      <c r="BS224" s="10"/>
+      <c r="BT224" s="10"/>
+      <c r="BU224" s="10"/>
+      <c r="BV224" s="10"/>
+      <c r="BW224" s="10"/>
+      <c r="BX224" s="10"/>
+      <c r="BY224" s="10"/>
+      <c r="BZ224" s="10"/>
+      <c r="CA224" s="10"/>
+      <c r="CB224" s="10"/>
+      <c r="CC224" s="10"/>
+      <c r="CD224" s="10"/>
+      <c r="CE224" s="10"/>
+      <c r="CF224" s="10"/>
+      <c r="CG224" s="10"/>
+      <c r="CH224" s="10"/>
+      <c r="CI224" s="10"/>
+      <c r="CJ224" s="10"/>
+      <c r="CK224" s="10"/>
+      <c r="CL224" s="10"/>
+    </row>
+    <row r="225" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C225" s="9" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D225" s="10"/>
       <c r="E225" s="10"/>
@@ -6643,7 +4775,7 @@
       <c r="AC225" s="10"/>
       <c r="AD225" s="10"/>
       <c r="AF225" s="9" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="AG225" s="10"/>
       <c r="AH225" s="10"/>
@@ -6671,10 +4803,43 @@
       <c r="BD225" s="10"/>
       <c r="BE225" s="10"/>
       <c r="BF225" s="10"/>
-    </row>
-    <row r="226" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH225" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI225" s="10"/>
+      <c r="BJ225" s="10"/>
+      <c r="BK225" s="10"/>
+      <c r="BL225" s="10"/>
+      <c r="BM225" s="10"/>
+      <c r="BN225" s="10"/>
+      <c r="BO225" s="10"/>
+      <c r="BP225" s="10"/>
+      <c r="BQ225" s="10"/>
+      <c r="BR225" s="10"/>
+      <c r="BS225" s="10"/>
+      <c r="BT225" s="10"/>
+      <c r="BU225" s="10"/>
+      <c r="BV225" s="10"/>
+      <c r="BW225" s="10"/>
+      <c r="BX225" s="10"/>
+      <c r="BY225" s="10"/>
+      <c r="BZ225" s="10"/>
+      <c r="CA225" s="10"/>
+      <c r="CB225" s="10"/>
+      <c r="CC225" s="10"/>
+      <c r="CD225" s="10"/>
+      <c r="CE225" s="10"/>
+      <c r="CF225" s="10"/>
+      <c r="CG225" s="10"/>
+      <c r="CH225" s="10"/>
+      <c r="CI225" s="10"/>
+      <c r="CJ225" s="10"/>
+      <c r="CK225" s="10"/>
+      <c r="CL225" s="10"/>
+    </row>
+    <row r="226" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C226" s="9" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D226" s="10"/>
       <c r="E226" s="10"/>
@@ -6703,9 +4868,7 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10"/>
-      <c r="AF226" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF226" s="9"/>
       <c r="AG226" s="10"/>
       <c r="AH226" s="10"/>
       <c r="AI226" s="10"/>
@@ -6732,10 +4895,43 @@
       <c r="BD226" s="10"/>
       <c r="BE226" s="10"/>
       <c r="BF226" s="10"/>
-    </row>
-    <row r="227" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH226" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI226" s="10"/>
+      <c r="BJ226" s="10"/>
+      <c r="BK226" s="10"/>
+      <c r="BL226" s="10"/>
+      <c r="BM226" s="10"/>
+      <c r="BN226" s="10"/>
+      <c r="BO226" s="10"/>
+      <c r="BP226" s="10"/>
+      <c r="BQ226" s="10"/>
+      <c r="BR226" s="10"/>
+      <c r="BS226" s="10"/>
+      <c r="BT226" s="10"/>
+      <c r="BU226" s="10"/>
+      <c r="BV226" s="10"/>
+      <c r="BW226" s="10"/>
+      <c r="BX226" s="10"/>
+      <c r="BY226" s="10"/>
+      <c r="BZ226" s="10"/>
+      <c r="CA226" s="10"/>
+      <c r="CB226" s="10"/>
+      <c r="CC226" s="10"/>
+      <c r="CD226" s="10"/>
+      <c r="CE226" s="10"/>
+      <c r="CF226" s="10"/>
+      <c r="CG226" s="10"/>
+      <c r="CH226" s="10"/>
+      <c r="CI226" s="10"/>
+      <c r="CJ226" s="10"/>
+      <c r="CK226" s="10"/>
+      <c r="CL226" s="10"/>
+    </row>
+    <row r="227" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C227" s="9" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="10"/>
@@ -6765,7 +4961,7 @@
       <c r="AC227" s="10"/>
       <c r="AD227" s="10"/>
       <c r="AF227" s="9" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AG227" s="10"/>
       <c r="AH227" s="10"/>
@@ -6793,10 +4989,41 @@
       <c r="BD227" s="10"/>
       <c r="BE227" s="10"/>
       <c r="BF227" s="10"/>
-    </row>
-    <row r="228" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH227" s="9"/>
+      <c r="BI227" s="10"/>
+      <c r="BJ227" s="10"/>
+      <c r="BK227" s="10"/>
+      <c r="BL227" s="10"/>
+      <c r="BM227" s="10"/>
+      <c r="BN227" s="10"/>
+      <c r="BO227" s="10"/>
+      <c r="BP227" s="10"/>
+      <c r="BQ227" s="10"/>
+      <c r="BR227" s="10"/>
+      <c r="BS227" s="10"/>
+      <c r="BT227" s="10"/>
+      <c r="BU227" s="10"/>
+      <c r="BV227" s="10"/>
+      <c r="BW227" s="10"/>
+      <c r="BX227" s="10"/>
+      <c r="BY227" s="10"/>
+      <c r="BZ227" s="10"/>
+      <c r="CA227" s="10"/>
+      <c r="CB227" s="10"/>
+      <c r="CC227" s="10"/>
+      <c r="CD227" s="10"/>
+      <c r="CE227" s="10"/>
+      <c r="CF227" s="10"/>
+      <c r="CG227" s="10"/>
+      <c r="CH227" s="10"/>
+      <c r="CI227" s="10"/>
+      <c r="CJ227" s="10"/>
+      <c r="CK227" s="10"/>
+      <c r="CL227" s="10"/>
+    </row>
+    <row r="228" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C228" s="9" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D228" s="10"/>
       <c r="E228" s="10"/>
@@ -6826,7 +5053,7 @@
       <c r="AC228" s="10"/>
       <c r="AD228" s="10"/>
       <c r="AF228" s="9" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="AG228" s="10"/>
       <c r="AH228" s="10"/>
@@ -6854,10 +5081,43 @@
       <c r="BD228" s="10"/>
       <c r="BE228" s="10"/>
       <c r="BF228" s="10"/>
-    </row>
-    <row r="229" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH228" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI228" s="10"/>
+      <c r="BJ228" s="10"/>
+      <c r="BK228" s="10"/>
+      <c r="BL228" s="10"/>
+      <c r="BM228" s="10"/>
+      <c r="BN228" s="10"/>
+      <c r="BO228" s="10"/>
+      <c r="BP228" s="10"/>
+      <c r="BQ228" s="10"/>
+      <c r="BR228" s="10"/>
+      <c r="BS228" s="10"/>
+      <c r="BT228" s="10"/>
+      <c r="BU228" s="10"/>
+      <c r="BV228" s="10"/>
+      <c r="BW228" s="10"/>
+      <c r="BX228" s="10"/>
+      <c r="BY228" s="10"/>
+      <c r="BZ228" s="10"/>
+      <c r="CA228" s="10"/>
+      <c r="CB228" s="10"/>
+      <c r="CC228" s="10"/>
+      <c r="CD228" s="10"/>
+      <c r="CE228" s="10"/>
+      <c r="CF228" s="10"/>
+      <c r="CG228" s="10"/>
+      <c r="CH228" s="10"/>
+      <c r="CI228" s="10"/>
+      <c r="CJ228" s="10"/>
+      <c r="CK228" s="10"/>
+      <c r="CL228" s="10"/>
+    </row>
+    <row r="229" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C229" s="9" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="10"/>
@@ -6887,7 +5147,7 @@
       <c r="AC229" s="10"/>
       <c r="AD229" s="10"/>
       <c r="AF229" s="9" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AG229" s="10"/>
       <c r="AH229" s="10"/>
@@ -6915,10 +5175,43 @@
       <c r="BD229" s="10"/>
       <c r="BE229" s="10"/>
       <c r="BF229" s="10"/>
-    </row>
-    <row r="230" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH229" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI229" s="10"/>
+      <c r="BJ229" s="10"/>
+      <c r="BK229" s="10"/>
+      <c r="BL229" s="10"/>
+      <c r="BM229" s="10"/>
+      <c r="BN229" s="10"/>
+      <c r="BO229" s="10"/>
+      <c r="BP229" s="10"/>
+      <c r="BQ229" s="10"/>
+      <c r="BR229" s="10"/>
+      <c r="BS229" s="10"/>
+      <c r="BT229" s="10"/>
+      <c r="BU229" s="10"/>
+      <c r="BV229" s="10"/>
+      <c r="BW229" s="10"/>
+      <c r="BX229" s="10"/>
+      <c r="BY229" s="10"/>
+      <c r="BZ229" s="10"/>
+      <c r="CA229" s="10"/>
+      <c r="CB229" s="10"/>
+      <c r="CC229" s="10"/>
+      <c r="CD229" s="10"/>
+      <c r="CE229" s="10"/>
+      <c r="CF229" s="10"/>
+      <c r="CG229" s="10"/>
+      <c r="CH229" s="10"/>
+      <c r="CI229" s="10"/>
+      <c r="CJ229" s="10"/>
+      <c r="CK229" s="10"/>
+      <c r="CL229" s="10"/>
+    </row>
+    <row r="230" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C230" s="9" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D230" s="10"/>
       <c r="E230" s="10"/>
@@ -6947,7 +5240,9 @@
       <c r="AB230" s="10"/>
       <c r="AC230" s="10"/>
       <c r="AD230" s="10"/>
-      <c r="AF230" s="9"/>
+      <c r="AF230" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="AG230" s="10"/>
       <c r="AH230" s="10"/>
       <c r="AI230" s="10"/>
@@ -6974,10 +5269,43 @@
       <c r="BD230" s="10"/>
       <c r="BE230" s="10"/>
       <c r="BF230" s="10"/>
-    </row>
-    <row r="231" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH230" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI230" s="10"/>
+      <c r="BJ230" s="10"/>
+      <c r="BK230" s="10"/>
+      <c r="BL230" s="10"/>
+      <c r="BM230" s="10"/>
+      <c r="BN230" s="10"/>
+      <c r="BO230" s="10"/>
+      <c r="BP230" s="10"/>
+      <c r="BQ230" s="10"/>
+      <c r="BR230" s="10"/>
+      <c r="BS230" s="10"/>
+      <c r="BT230" s="10"/>
+      <c r="BU230" s="10"/>
+      <c r="BV230" s="10"/>
+      <c r="BW230" s="10"/>
+      <c r="BX230" s="10"/>
+      <c r="BY230" s="10"/>
+      <c r="BZ230" s="10"/>
+      <c r="CA230" s="10"/>
+      <c r="CB230" s="10"/>
+      <c r="CC230" s="10"/>
+      <c r="CD230" s="10"/>
+      <c r="CE230" s="10"/>
+      <c r="CF230" s="10"/>
+      <c r="CG230" s="10"/>
+      <c r="CH230" s="10"/>
+      <c r="CI230" s="10"/>
+      <c r="CJ230" s="10"/>
+      <c r="CK230" s="10"/>
+      <c r="CL230" s="10"/>
+    </row>
+    <row r="231" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C231" s="9" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="10"/>
@@ -7007,7 +5335,7 @@
       <c r="AC231" s="10"/>
       <c r="AD231" s="10"/>
       <c r="AF231" s="9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="AG231" s="10"/>
       <c r="AH231" s="10"/>
@@ -7035,9 +5363,44 @@
       <c r="BD231" s="10"/>
       <c r="BE231" s="10"/>
       <c r="BF231" s="10"/>
-    </row>
-    <row r="232" spans="3:58" x14ac:dyDescent="0.25">
-      <c r="C232" s="9"/>
+      <c r="BH231" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI231" s="10"/>
+      <c r="BJ231" s="10"/>
+      <c r="BK231" s="10"/>
+      <c r="BL231" s="10"/>
+      <c r="BM231" s="10"/>
+      <c r="BN231" s="10"/>
+      <c r="BO231" s="10"/>
+      <c r="BP231" s="10"/>
+      <c r="BQ231" s="10"/>
+      <c r="BR231" s="10"/>
+      <c r="BS231" s="10"/>
+      <c r="BT231" s="10"/>
+      <c r="BU231" s="10"/>
+      <c r="BV231" s="10"/>
+      <c r="BW231" s="10"/>
+      <c r="BX231" s="10"/>
+      <c r="BY231" s="10"/>
+      <c r="BZ231" s="10"/>
+      <c r="CA231" s="10"/>
+      <c r="CB231" s="10"/>
+      <c r="CC231" s="10"/>
+      <c r="CD231" s="10"/>
+      <c r="CE231" s="10"/>
+      <c r="CF231" s="10"/>
+      <c r="CG231" s="10"/>
+      <c r="CH231" s="10"/>
+      <c r="CI231" s="10"/>
+      <c r="CJ231" s="10"/>
+      <c r="CK231" s="10"/>
+      <c r="CL231" s="10"/>
+    </row>
+    <row r="232" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C232" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D232" s="10"/>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
@@ -7066,7 +5429,7 @@
       <c r="AC232" s="10"/>
       <c r="AD232" s="10"/>
       <c r="AF232" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="AG232" s="10"/>
       <c r="AH232" s="10"/>
@@ -7094,10 +5457,43 @@
       <c r="BD232" s="10"/>
       <c r="BE232" s="10"/>
       <c r="BF232" s="10"/>
-    </row>
-    <row r="233" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="BH232" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI232" s="10"/>
+      <c r="BJ232" s="10"/>
+      <c r="BK232" s="10"/>
+      <c r="BL232" s="10"/>
+      <c r="BM232" s="10"/>
+      <c r="BN232" s="10"/>
+      <c r="BO232" s="10"/>
+      <c r="BP232" s="10"/>
+      <c r="BQ232" s="10"/>
+      <c r="BR232" s="10"/>
+      <c r="BS232" s="10"/>
+      <c r="BT232" s="10"/>
+      <c r="BU232" s="10"/>
+      <c r="BV232" s="10"/>
+      <c r="BW232" s="10"/>
+      <c r="BX232" s="10"/>
+      <c r="BY232" s="10"/>
+      <c r="BZ232" s="10"/>
+      <c r="CA232" s="10"/>
+      <c r="CB232" s="10"/>
+      <c r="CC232" s="10"/>
+      <c r="CD232" s="10"/>
+      <c r="CE232" s="10"/>
+      <c r="CF232" s="10"/>
+      <c r="CG232" s="10"/>
+      <c r="CH232" s="10"/>
+      <c r="CI232" s="10"/>
+      <c r="CJ232" s="10"/>
+      <c r="CK232" s="10"/>
+      <c r="CL232" s="10"/>
+    </row>
+    <row r="233" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C233" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D233" s="10"/>
       <c r="E233" s="10"/>
@@ -7126,9 +5522,73 @@
       <c r="AB233" s="10"/>
       <c r="AC233" s="10"/>
       <c r="AD233" s="10"/>
-    </row>
-    <row r="234" spans="3:58" x14ac:dyDescent="0.25">
-      <c r="C234" s="9"/>
+      <c r="AF233" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG233" s="10"/>
+      <c r="AH233" s="10"/>
+      <c r="AI233" s="10"/>
+      <c r="AJ233" s="10"/>
+      <c r="AK233" s="10"/>
+      <c r="AL233" s="10"/>
+      <c r="AM233" s="10"/>
+      <c r="AN233" s="10"/>
+      <c r="AO233" s="10"/>
+      <c r="AP233" s="10"/>
+      <c r="AQ233" s="10"/>
+      <c r="AR233" s="10"/>
+      <c r="AS233" s="10"/>
+      <c r="AT233" s="10"/>
+      <c r="AU233" s="10"/>
+      <c r="AV233" s="10"/>
+      <c r="AW233" s="10"/>
+      <c r="AX233" s="10"/>
+      <c r="AY233" s="10"/>
+      <c r="AZ233" s="10"/>
+      <c r="BA233" s="10"/>
+      <c r="BB233" s="10"/>
+      <c r="BC233" s="10"/>
+      <c r="BD233" s="10"/>
+      <c r="BE233" s="10"/>
+      <c r="BF233" s="10"/>
+      <c r="BH233" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI233" s="10"/>
+      <c r="BJ233" s="10"/>
+      <c r="BK233" s="10"/>
+      <c r="BL233" s="10"/>
+      <c r="BM233" s="10"/>
+      <c r="BN233" s="10"/>
+      <c r="BO233" s="10"/>
+      <c r="BP233" s="10"/>
+      <c r="BQ233" s="10"/>
+      <c r="BR233" s="10"/>
+      <c r="BS233" s="10"/>
+      <c r="BT233" s="10"/>
+      <c r="BU233" s="10"/>
+      <c r="BV233" s="10"/>
+      <c r="BW233" s="10"/>
+      <c r="BX233" s="10"/>
+      <c r="BY233" s="10"/>
+      <c r="BZ233" s="10"/>
+      <c r="CA233" s="10"/>
+      <c r="CB233" s="10"/>
+      <c r="CC233" s="10"/>
+      <c r="CD233" s="10"/>
+      <c r="CE233" s="10"/>
+      <c r="CF233" s="10"/>
+      <c r="CG233" s="10"/>
+      <c r="CH233" s="10"/>
+      <c r="CI233" s="10"/>
+      <c r="CJ233" s="10"/>
+      <c r="CK233" s="10"/>
+      <c r="CL233" s="10"/>
+    </row>
+    <row r="234" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C234" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D234" s="10"/>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
@@ -7156,10 +5616,72 @@
       <c r="AB234" s="10"/>
       <c r="AC234" s="10"/>
       <c r="AD234" s="10"/>
-    </row>
-    <row r="235" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="AF234" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG234" s="10"/>
+      <c r="AH234" s="10"/>
+      <c r="AI234" s="10"/>
+      <c r="AJ234" s="10"/>
+      <c r="AK234" s="10"/>
+      <c r="AL234" s="10"/>
+      <c r="AM234" s="10"/>
+      <c r="AN234" s="10"/>
+      <c r="AO234" s="10"/>
+      <c r="AP234" s="10"/>
+      <c r="AQ234" s="10"/>
+      <c r="AR234" s="10"/>
+      <c r="AS234" s="10"/>
+      <c r="AT234" s="10"/>
+      <c r="AU234" s="10"/>
+      <c r="AV234" s="10"/>
+      <c r="AW234" s="10"/>
+      <c r="AX234" s="10"/>
+      <c r="AY234" s="10"/>
+      <c r="AZ234" s="10"/>
+      <c r="BA234" s="10"/>
+      <c r="BB234" s="10"/>
+      <c r="BC234" s="10"/>
+      <c r="BD234" s="10"/>
+      <c r="BE234" s="10"/>
+      <c r="BF234" s="10"/>
+      <c r="BH234" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI234" s="10"/>
+      <c r="BJ234" s="10"/>
+      <c r="BK234" s="10"/>
+      <c r="BL234" s="10"/>
+      <c r="BM234" s="10"/>
+      <c r="BN234" s="10"/>
+      <c r="BO234" s="10"/>
+      <c r="BP234" s="10"/>
+      <c r="BQ234" s="10"/>
+      <c r="BR234" s="10"/>
+      <c r="BS234" s="10"/>
+      <c r="BT234" s="10"/>
+      <c r="BU234" s="10"/>
+      <c r="BV234" s="10"/>
+      <c r="BW234" s="10"/>
+      <c r="BX234" s="10"/>
+      <c r="BY234" s="10"/>
+      <c r="BZ234" s="10"/>
+      <c r="CA234" s="10"/>
+      <c r="CB234" s="10"/>
+      <c r="CC234" s="10"/>
+      <c r="CD234" s="10"/>
+      <c r="CE234" s="10"/>
+      <c r="CF234" s="10"/>
+      <c r="CG234" s="10"/>
+      <c r="CH234" s="10"/>
+      <c r="CI234" s="10"/>
+      <c r="CJ234" s="10"/>
+      <c r="CK234" s="10"/>
+      <c r="CL234" s="10"/>
+    </row>
+    <row r="235" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C235" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D235" s="10"/>
       <c r="E235" s="10"/>
@@ -7188,10 +5710,72 @@
       <c r="AB235" s="10"/>
       <c r="AC235" s="10"/>
       <c r="AD235" s="10"/>
-    </row>
-    <row r="236" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="AF235" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG235" s="10"/>
+      <c r="AH235" s="10"/>
+      <c r="AI235" s="10"/>
+      <c r="AJ235" s="10"/>
+      <c r="AK235" s="10"/>
+      <c r="AL235" s="10"/>
+      <c r="AM235" s="10"/>
+      <c r="AN235" s="10"/>
+      <c r="AO235" s="10"/>
+      <c r="AP235" s="10"/>
+      <c r="AQ235" s="10"/>
+      <c r="AR235" s="10"/>
+      <c r="AS235" s="10"/>
+      <c r="AT235" s="10"/>
+      <c r="AU235" s="10"/>
+      <c r="AV235" s="10"/>
+      <c r="AW235" s="10"/>
+      <c r="AX235" s="10"/>
+      <c r="AY235" s="10"/>
+      <c r="AZ235" s="10"/>
+      <c r="BA235" s="10"/>
+      <c r="BB235" s="10"/>
+      <c r="BC235" s="10"/>
+      <c r="BD235" s="10"/>
+      <c r="BE235" s="10"/>
+      <c r="BF235" s="10"/>
+      <c r="BH235" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI235" s="10"/>
+      <c r="BJ235" s="10"/>
+      <c r="BK235" s="10"/>
+      <c r="BL235" s="10"/>
+      <c r="BM235" s="10"/>
+      <c r="BN235" s="10"/>
+      <c r="BO235" s="10"/>
+      <c r="BP235" s="10"/>
+      <c r="BQ235" s="10"/>
+      <c r="BR235" s="10"/>
+      <c r="BS235" s="10"/>
+      <c r="BT235" s="10"/>
+      <c r="BU235" s="10"/>
+      <c r="BV235" s="10"/>
+      <c r="BW235" s="10"/>
+      <c r="BX235" s="10"/>
+      <c r="BY235" s="10"/>
+      <c r="BZ235" s="10"/>
+      <c r="CA235" s="10"/>
+      <c r="CB235" s="10"/>
+      <c r="CC235" s="10"/>
+      <c r="CD235" s="10"/>
+      <c r="CE235" s="10"/>
+      <c r="CF235" s="10"/>
+      <c r="CG235" s="10"/>
+      <c r="CH235" s="10"/>
+      <c r="CI235" s="10"/>
+      <c r="CJ235" s="10"/>
+      <c r="CK235" s="10"/>
+      <c r="CL235" s="10"/>
+    </row>
+    <row r="236" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C236" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D236" s="10"/>
       <c r="E236" s="10"/>
@@ -7220,10 +5804,72 @@
       <c r="AB236" s="10"/>
       <c r="AC236" s="10"/>
       <c r="AD236" s="10"/>
-    </row>
-    <row r="237" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="AF236" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG236" s="10"/>
+      <c r="AH236" s="10"/>
+      <c r="AI236" s="10"/>
+      <c r="AJ236" s="10"/>
+      <c r="AK236" s="10"/>
+      <c r="AL236" s="10"/>
+      <c r="AM236" s="10"/>
+      <c r="AN236" s="10"/>
+      <c r="AO236" s="10"/>
+      <c r="AP236" s="10"/>
+      <c r="AQ236" s="10"/>
+      <c r="AR236" s="10"/>
+      <c r="AS236" s="10"/>
+      <c r="AT236" s="10"/>
+      <c r="AU236" s="10"/>
+      <c r="AV236" s="10"/>
+      <c r="AW236" s="10"/>
+      <c r="AX236" s="10"/>
+      <c r="AY236" s="10"/>
+      <c r="AZ236" s="10"/>
+      <c r="BA236" s="10"/>
+      <c r="BB236" s="10"/>
+      <c r="BC236" s="10"/>
+      <c r="BD236" s="10"/>
+      <c r="BE236" s="10"/>
+      <c r="BF236" s="10"/>
+      <c r="BH236" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI236" s="10"/>
+      <c r="BJ236" s="10"/>
+      <c r="BK236" s="10"/>
+      <c r="BL236" s="10"/>
+      <c r="BM236" s="10"/>
+      <c r="BN236" s="10"/>
+      <c r="BO236" s="10"/>
+      <c r="BP236" s="10"/>
+      <c r="BQ236" s="10"/>
+      <c r="BR236" s="10"/>
+      <c r="BS236" s="10"/>
+      <c r="BT236" s="10"/>
+      <c r="BU236" s="10"/>
+      <c r="BV236" s="10"/>
+      <c r="BW236" s="10"/>
+      <c r="BX236" s="10"/>
+      <c r="BY236" s="10"/>
+      <c r="BZ236" s="10"/>
+      <c r="CA236" s="10"/>
+      <c r="CB236" s="10"/>
+      <c r="CC236" s="10"/>
+      <c r="CD236" s="10"/>
+      <c r="CE236" s="10"/>
+      <c r="CF236" s="10"/>
+      <c r="CG236" s="10"/>
+      <c r="CH236" s="10"/>
+      <c r="CI236" s="10"/>
+      <c r="CJ236" s="10"/>
+      <c r="CK236" s="10"/>
+      <c r="CL236" s="10"/>
+    </row>
+    <row r="237" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C237" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="10"/>
@@ -7252,10 +5898,72 @@
       <c r="AB237" s="10"/>
       <c r="AC237" s="10"/>
       <c r="AD237" s="10"/>
-    </row>
-    <row r="238" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="AF237" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG237" s="10"/>
+      <c r="AH237" s="10"/>
+      <c r="AI237" s="10"/>
+      <c r="AJ237" s="10"/>
+      <c r="AK237" s="10"/>
+      <c r="AL237" s="10"/>
+      <c r="AM237" s="10"/>
+      <c r="AN237" s="10"/>
+      <c r="AO237" s="10"/>
+      <c r="AP237" s="10"/>
+      <c r="AQ237" s="10"/>
+      <c r="AR237" s="10"/>
+      <c r="AS237" s="10"/>
+      <c r="AT237" s="10"/>
+      <c r="AU237" s="10"/>
+      <c r="AV237" s="10"/>
+      <c r="AW237" s="10"/>
+      <c r="AX237" s="10"/>
+      <c r="AY237" s="10"/>
+      <c r="AZ237" s="10"/>
+      <c r="BA237" s="10"/>
+      <c r="BB237" s="10"/>
+      <c r="BC237" s="10"/>
+      <c r="BD237" s="10"/>
+      <c r="BE237" s="10"/>
+      <c r="BF237" s="10"/>
+      <c r="BH237" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI237" s="10"/>
+      <c r="BJ237" s="10"/>
+      <c r="BK237" s="10"/>
+      <c r="BL237" s="10"/>
+      <c r="BM237" s="10"/>
+      <c r="BN237" s="10"/>
+      <c r="BO237" s="10"/>
+      <c r="BP237" s="10"/>
+      <c r="BQ237" s="10"/>
+      <c r="BR237" s="10"/>
+      <c r="BS237" s="10"/>
+      <c r="BT237" s="10"/>
+      <c r="BU237" s="10"/>
+      <c r="BV237" s="10"/>
+      <c r="BW237" s="10"/>
+      <c r="BX237" s="10"/>
+      <c r="BY237" s="10"/>
+      <c r="BZ237" s="10"/>
+      <c r="CA237" s="10"/>
+      <c r="CB237" s="10"/>
+      <c r="CC237" s="10"/>
+      <c r="CD237" s="10"/>
+      <c r="CE237" s="10"/>
+      <c r="CF237" s="10"/>
+      <c r="CG237" s="10"/>
+      <c r="CH237" s="10"/>
+      <c r="CI237" s="10"/>
+      <c r="CJ237" s="10"/>
+      <c r="CK237" s="10"/>
+      <c r="CL237" s="10"/>
+    </row>
+    <row r="238" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C238" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D238" s="10"/>
       <c r="E238" s="10"/>
@@ -7284,10 +5992,70 @@
       <c r="AB238" s="10"/>
       <c r="AC238" s="10"/>
       <c r="AD238" s="10"/>
-    </row>
-    <row r="239" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="AF238" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG238" s="10"/>
+      <c r="AH238" s="10"/>
+      <c r="AI238" s="10"/>
+      <c r="AJ238" s="10"/>
+      <c r="AK238" s="10"/>
+      <c r="AL238" s="10"/>
+      <c r="AM238" s="10"/>
+      <c r="AN238" s="10"/>
+      <c r="AO238" s="10"/>
+      <c r="AP238" s="10"/>
+      <c r="AQ238" s="10"/>
+      <c r="AR238" s="10"/>
+      <c r="AS238" s="10"/>
+      <c r="AT238" s="10"/>
+      <c r="AU238" s="10"/>
+      <c r="AV238" s="10"/>
+      <c r="AW238" s="10"/>
+      <c r="AX238" s="10"/>
+      <c r="AY238" s="10"/>
+      <c r="AZ238" s="10"/>
+      <c r="BA238" s="10"/>
+      <c r="BB238" s="10"/>
+      <c r="BC238" s="10"/>
+      <c r="BD238" s="10"/>
+      <c r="BE238" s="10"/>
+      <c r="BF238" s="10"/>
+      <c r="BH238" s="9"/>
+      <c r="BI238" s="10"/>
+      <c r="BJ238" s="10"/>
+      <c r="BK238" s="10"/>
+      <c r="BL238" s="10"/>
+      <c r="BM238" s="10"/>
+      <c r="BN238" s="10"/>
+      <c r="BO238" s="10"/>
+      <c r="BP238" s="10"/>
+      <c r="BQ238" s="10"/>
+      <c r="BR238" s="10"/>
+      <c r="BS238" s="10"/>
+      <c r="BT238" s="10"/>
+      <c r="BU238" s="10"/>
+      <c r="BV238" s="10"/>
+      <c r="BW238" s="10"/>
+      <c r="BX238" s="10"/>
+      <c r="BY238" s="10"/>
+      <c r="BZ238" s="10"/>
+      <c r="CA238" s="10"/>
+      <c r="CB238" s="10"/>
+      <c r="CC238" s="10"/>
+      <c r="CD238" s="10"/>
+      <c r="CE238" s="10"/>
+      <c r="CF238" s="10"/>
+      <c r="CG238" s="10"/>
+      <c r="CH238" s="10"/>
+      <c r="CI238" s="10"/>
+      <c r="CJ238" s="10"/>
+      <c r="CK238" s="10"/>
+      <c r="CL238" s="10"/>
+    </row>
+    <row r="239" spans="3:90" x14ac:dyDescent="0.25">
       <c r="C239" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="10"/>
@@ -7316,11 +6084,71 @@
       <c r="AB239" s="10"/>
       <c r="AC239" s="10"/>
       <c r="AD239" s="10"/>
-    </row>
-    <row r="240" spans="3:58" x14ac:dyDescent="0.25">
-      <c r="C240" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="AF239" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG239" s="10"/>
+      <c r="AH239" s="10"/>
+      <c r="AI239" s="10"/>
+      <c r="AJ239" s="10"/>
+      <c r="AK239" s="10"/>
+      <c r="AL239" s="10"/>
+      <c r="AM239" s="10"/>
+      <c r="AN239" s="10"/>
+      <c r="AO239" s="10"/>
+      <c r="AP239" s="10"/>
+      <c r="AQ239" s="10"/>
+      <c r="AR239" s="10"/>
+      <c r="AS239" s="10"/>
+      <c r="AT239" s="10"/>
+      <c r="AU239" s="10"/>
+      <c r="AV239" s="10"/>
+      <c r="AW239" s="10"/>
+      <c r="AX239" s="10"/>
+      <c r="AY239" s="10"/>
+      <c r="AZ239" s="10"/>
+      <c r="BA239" s="10"/>
+      <c r="BB239" s="10"/>
+      <c r="BC239" s="10"/>
+      <c r="BD239" s="10"/>
+      <c r="BE239" s="10"/>
+      <c r="BF239" s="10"/>
+      <c r="BH239" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI239" s="10"/>
+      <c r="BJ239" s="10"/>
+      <c r="BK239" s="10"/>
+      <c r="BL239" s="10"/>
+      <c r="BM239" s="10"/>
+      <c r="BN239" s="10"/>
+      <c r="BO239" s="10"/>
+      <c r="BP239" s="10"/>
+      <c r="BQ239" s="10"/>
+      <c r="BR239" s="10"/>
+      <c r="BS239" s="10"/>
+      <c r="BT239" s="10"/>
+      <c r="BU239" s="10"/>
+      <c r="BV239" s="10"/>
+      <c r="BW239" s="10"/>
+      <c r="BX239" s="10"/>
+      <c r="BY239" s="10"/>
+      <c r="BZ239" s="10"/>
+      <c r="CA239" s="10"/>
+      <c r="CB239" s="10"/>
+      <c r="CC239" s="10"/>
+      <c r="CD239" s="10"/>
+      <c r="CE239" s="10"/>
+      <c r="CF239" s="10"/>
+      <c r="CG239" s="10"/>
+      <c r="CH239" s="10"/>
+      <c r="CI239" s="10"/>
+      <c r="CJ239" s="10"/>
+      <c r="CK239" s="10"/>
+      <c r="CL239" s="10"/>
+    </row>
+    <row r="240" spans="3:90" x14ac:dyDescent="0.25">
+      <c r="C240" s="9"/>
       <c r="D240" s="10"/>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
@@ -7348,10 +6176,72 @@
       <c r="AB240" s="10"/>
       <c r="AC240" s="10"/>
       <c r="AD240" s="10"/>
-    </row>
-    <row r="241" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF240" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG240" s="10"/>
+      <c r="AH240" s="10"/>
+      <c r="AI240" s="10"/>
+      <c r="AJ240" s="10"/>
+      <c r="AK240" s="10"/>
+      <c r="AL240" s="10"/>
+      <c r="AM240" s="10"/>
+      <c r="AN240" s="10"/>
+      <c r="AO240" s="10"/>
+      <c r="AP240" s="10"/>
+      <c r="AQ240" s="10"/>
+      <c r="AR240" s="10"/>
+      <c r="AS240" s="10"/>
+      <c r="AT240" s="10"/>
+      <c r="AU240" s="10"/>
+      <c r="AV240" s="10"/>
+      <c r="AW240" s="10"/>
+      <c r="AX240" s="10"/>
+      <c r="AY240" s="10"/>
+      <c r="AZ240" s="10"/>
+      <c r="BA240" s="10"/>
+      <c r="BB240" s="10"/>
+      <c r="BC240" s="10"/>
+      <c r="BD240" s="10"/>
+      <c r="BE240" s="10"/>
+      <c r="BF240" s="10"/>
+      <c r="BH240" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI240" s="10"/>
+      <c r="BJ240" s="10"/>
+      <c r="BK240" s="10"/>
+      <c r="BL240" s="10"/>
+      <c r="BM240" s="10"/>
+      <c r="BN240" s="10"/>
+      <c r="BO240" s="10"/>
+      <c r="BP240" s="10"/>
+      <c r="BQ240" s="10"/>
+      <c r="BR240" s="10"/>
+      <c r="BS240" s="10"/>
+      <c r="BT240" s="10"/>
+      <c r="BU240" s="10"/>
+      <c r="BV240" s="10"/>
+      <c r="BW240" s="10"/>
+      <c r="BX240" s="10"/>
+      <c r="BY240" s="10"/>
+      <c r="BZ240" s="10"/>
+      <c r="CA240" s="10"/>
+      <c r="CB240" s="10"/>
+      <c r="CC240" s="10"/>
+      <c r="CD240" s="10"/>
+      <c r="CE240" s="10"/>
+      <c r="CF240" s="10"/>
+      <c r="CG240" s="10"/>
+      <c r="CH240" s="10"/>
+      <c r="CI240" s="10"/>
+      <c r="CJ240" s="10"/>
+      <c r="CK240" s="10"/>
+      <c r="CL240" s="10"/>
+    </row>
+    <row r="241" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C241" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="10"/>
@@ -7380,11 +6270,38 @@
       <c r="AB241" s="10"/>
       <c r="AC241" s="10"/>
       <c r="AD241" s="10"/>
-    </row>
-    <row r="242" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C242" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="AF241" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG241" s="10"/>
+      <c r="AH241" s="10"/>
+      <c r="AI241" s="10"/>
+      <c r="AJ241" s="10"/>
+      <c r="AK241" s="10"/>
+      <c r="AL241" s="10"/>
+      <c r="AM241" s="10"/>
+      <c r="AN241" s="10"/>
+      <c r="AO241" s="10"/>
+      <c r="AP241" s="10"/>
+      <c r="AQ241" s="10"/>
+      <c r="AR241" s="10"/>
+      <c r="AS241" s="10"/>
+      <c r="AT241" s="10"/>
+      <c r="AU241" s="10"/>
+      <c r="AV241" s="10"/>
+      <c r="AW241" s="10"/>
+      <c r="AX241" s="10"/>
+      <c r="AY241" s="10"/>
+      <c r="AZ241" s="10"/>
+      <c r="BA241" s="10"/>
+      <c r="BB241" s="10"/>
+      <c r="BC241" s="10"/>
+      <c r="BD241" s="10"/>
+      <c r="BE241" s="10"/>
+      <c r="BF241" s="10"/>
+    </row>
+    <row r="242" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C242" s="9"/>
       <c r="D242" s="10"/>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
@@ -7412,10 +6329,39 @@
       <c r="AB242" s="10"/>
       <c r="AC242" s="10"/>
       <c r="AD242" s="10"/>
-    </row>
-    <row r="243" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF242" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG242" s="10"/>
+      <c r="AH242" s="10"/>
+      <c r="AI242" s="10"/>
+      <c r="AJ242" s="10"/>
+      <c r="AK242" s="10"/>
+      <c r="AL242" s="10"/>
+      <c r="AM242" s="10"/>
+      <c r="AN242" s="10"/>
+      <c r="AO242" s="10"/>
+      <c r="AP242" s="10"/>
+      <c r="AQ242" s="10"/>
+      <c r="AR242" s="10"/>
+      <c r="AS242" s="10"/>
+      <c r="AT242" s="10"/>
+      <c r="AU242" s="10"/>
+      <c r="AV242" s="10"/>
+      <c r="AW242" s="10"/>
+      <c r="AX242" s="10"/>
+      <c r="AY242" s="10"/>
+      <c r="AZ242" s="10"/>
+      <c r="BA242" s="10"/>
+      <c r="BB242" s="10"/>
+      <c r="BC242" s="10"/>
+      <c r="BD242" s="10"/>
+      <c r="BE242" s="10"/>
+      <c r="BF242" s="10"/>
+    </row>
+    <row r="243" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C243" s="9" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D243" s="10"/>
       <c r="E243" s="10"/>
@@ -7444,10 +6390,39 @@
       <c r="AB243" s="10"/>
       <c r="AC243" s="10"/>
       <c r="AD243" s="10"/>
-    </row>
-    <row r="244" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF243" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG243" s="10"/>
+      <c r="AH243" s="10"/>
+      <c r="AI243" s="10"/>
+      <c r="AJ243" s="10"/>
+      <c r="AK243" s="10"/>
+      <c r="AL243" s="10"/>
+      <c r="AM243" s="10"/>
+      <c r="AN243" s="10"/>
+      <c r="AO243" s="10"/>
+      <c r="AP243" s="10"/>
+      <c r="AQ243" s="10"/>
+      <c r="AR243" s="10"/>
+      <c r="AS243" s="10"/>
+      <c r="AT243" s="10"/>
+      <c r="AU243" s="10"/>
+      <c r="AV243" s="10"/>
+      <c r="AW243" s="10"/>
+      <c r="AX243" s="10"/>
+      <c r="AY243" s="10"/>
+      <c r="AZ243" s="10"/>
+      <c r="BA243" s="10"/>
+      <c r="BB243" s="10"/>
+      <c r="BC243" s="10"/>
+      <c r="BD243" s="10"/>
+      <c r="BE243" s="10"/>
+      <c r="BF243" s="10"/>
+    </row>
+    <row r="244" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C244" s="9" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D244" s="10"/>
       <c r="E244" s="10"/>
@@ -7476,10 +6451,39 @@
       <c r="AB244" s="10"/>
       <c r="AC244" s="10"/>
       <c r="AD244" s="10"/>
-    </row>
-    <row r="245" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF244" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG244" s="10"/>
+      <c r="AH244" s="10"/>
+      <c r="AI244" s="10"/>
+      <c r="AJ244" s="10"/>
+      <c r="AK244" s="10"/>
+      <c r="AL244" s="10"/>
+      <c r="AM244" s="10"/>
+      <c r="AN244" s="10"/>
+      <c r="AO244" s="10"/>
+      <c r="AP244" s="10"/>
+      <c r="AQ244" s="10"/>
+      <c r="AR244" s="10"/>
+      <c r="AS244" s="10"/>
+      <c r="AT244" s="10"/>
+      <c r="AU244" s="10"/>
+      <c r="AV244" s="10"/>
+      <c r="AW244" s="10"/>
+      <c r="AX244" s="10"/>
+      <c r="AY244" s="10"/>
+      <c r="AZ244" s="10"/>
+      <c r="BA244" s="10"/>
+      <c r="BB244" s="10"/>
+      <c r="BC244" s="10"/>
+      <c r="BD244" s="10"/>
+      <c r="BE244" s="10"/>
+      <c r="BF244" s="10"/>
+    </row>
+    <row r="245" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C245" s="9" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D245" s="10"/>
       <c r="E245" s="10"/>
@@ -7508,10 +6512,39 @@
       <c r="AB245" s="10"/>
       <c r="AC245" s="10"/>
       <c r="AD245" s="10"/>
-    </row>
-    <row r="246" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF245" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG245" s="10"/>
+      <c r="AH245" s="10"/>
+      <c r="AI245" s="10"/>
+      <c r="AJ245" s="10"/>
+      <c r="AK245" s="10"/>
+      <c r="AL245" s="10"/>
+      <c r="AM245" s="10"/>
+      <c r="AN245" s="10"/>
+      <c r="AO245" s="10"/>
+      <c r="AP245" s="10"/>
+      <c r="AQ245" s="10"/>
+      <c r="AR245" s="10"/>
+      <c r="AS245" s="10"/>
+      <c r="AT245" s="10"/>
+      <c r="AU245" s="10"/>
+      <c r="AV245" s="10"/>
+      <c r="AW245" s="10"/>
+      <c r="AX245" s="10"/>
+      <c r="AY245" s="10"/>
+      <c r="AZ245" s="10"/>
+      <c r="BA245" s="10"/>
+      <c r="BB245" s="10"/>
+      <c r="BC245" s="10"/>
+      <c r="BD245" s="10"/>
+      <c r="BE245" s="10"/>
+      <c r="BF245" s="10"/>
+    </row>
+    <row r="246" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C246" s="9" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D246" s="10"/>
       <c r="E246" s="10"/>
@@ -7540,10 +6573,39 @@
       <c r="AB246" s="10"/>
       <c r="AC246" s="10"/>
       <c r="AD246" s="10"/>
-    </row>
-    <row r="247" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF246" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG246" s="10"/>
+      <c r="AH246" s="10"/>
+      <c r="AI246" s="10"/>
+      <c r="AJ246" s="10"/>
+      <c r="AK246" s="10"/>
+      <c r="AL246" s="10"/>
+      <c r="AM246" s="10"/>
+      <c r="AN246" s="10"/>
+      <c r="AO246" s="10"/>
+      <c r="AP246" s="10"/>
+      <c r="AQ246" s="10"/>
+      <c r="AR246" s="10"/>
+      <c r="AS246" s="10"/>
+      <c r="AT246" s="10"/>
+      <c r="AU246" s="10"/>
+      <c r="AV246" s="10"/>
+      <c r="AW246" s="10"/>
+      <c r="AX246" s="10"/>
+      <c r="AY246" s="10"/>
+      <c r="AZ246" s="10"/>
+      <c r="BA246" s="10"/>
+      <c r="BB246" s="10"/>
+      <c r="BC246" s="10"/>
+      <c r="BD246" s="10"/>
+      <c r="BE246" s="10"/>
+      <c r="BF246" s="10"/>
+    </row>
+    <row r="247" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C247" s="9" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D247" s="10"/>
       <c r="E247" s="10"/>
@@ -7572,10 +6634,39 @@
       <c r="AB247" s="10"/>
       <c r="AC247" s="10"/>
       <c r="AD247" s="10"/>
-    </row>
-    <row r="248" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF247" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG247" s="10"/>
+      <c r="AH247" s="10"/>
+      <c r="AI247" s="10"/>
+      <c r="AJ247" s="10"/>
+      <c r="AK247" s="10"/>
+      <c r="AL247" s="10"/>
+      <c r="AM247" s="10"/>
+      <c r="AN247" s="10"/>
+      <c r="AO247" s="10"/>
+      <c r="AP247" s="10"/>
+      <c r="AQ247" s="10"/>
+      <c r="AR247" s="10"/>
+      <c r="AS247" s="10"/>
+      <c r="AT247" s="10"/>
+      <c r="AU247" s="10"/>
+      <c r="AV247" s="10"/>
+      <c r="AW247" s="10"/>
+      <c r="AX247" s="10"/>
+      <c r="AY247" s="10"/>
+      <c r="AZ247" s="10"/>
+      <c r="BA247" s="10"/>
+      <c r="BB247" s="10"/>
+      <c r="BC247" s="10"/>
+      <c r="BD247" s="10"/>
+      <c r="BE247" s="10"/>
+      <c r="BF247" s="10"/>
+    </row>
+    <row r="248" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C248" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="10"/>
@@ -7604,10 +6695,39 @@
       <c r="AB248" s="10"/>
       <c r="AC248" s="10"/>
       <c r="AD248" s="10"/>
-    </row>
-    <row r="249" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF248" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG248" s="10"/>
+      <c r="AH248" s="10"/>
+      <c r="AI248" s="10"/>
+      <c r="AJ248" s="10"/>
+      <c r="AK248" s="10"/>
+      <c r="AL248" s="10"/>
+      <c r="AM248" s="10"/>
+      <c r="AN248" s="10"/>
+      <c r="AO248" s="10"/>
+      <c r="AP248" s="10"/>
+      <c r="AQ248" s="10"/>
+      <c r="AR248" s="10"/>
+      <c r="AS248" s="10"/>
+      <c r="AT248" s="10"/>
+      <c r="AU248" s="10"/>
+      <c r="AV248" s="10"/>
+      <c r="AW248" s="10"/>
+      <c r="AX248" s="10"/>
+      <c r="AY248" s="10"/>
+      <c r="AZ248" s="10"/>
+      <c r="BA248" s="10"/>
+      <c r="BB248" s="10"/>
+      <c r="BC248" s="10"/>
+      <c r="BD248" s="10"/>
+      <c r="BE248" s="10"/>
+      <c r="BF248" s="10"/>
+    </row>
+    <row r="249" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C249" s="9" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D249" s="10"/>
       <c r="E249" s="10"/>
@@ -7636,10 +6756,39 @@
       <c r="AB249" s="10"/>
       <c r="AC249" s="10"/>
       <c r="AD249" s="10"/>
-    </row>
-    <row r="250" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF249" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG249" s="10"/>
+      <c r="AH249" s="10"/>
+      <c r="AI249" s="10"/>
+      <c r="AJ249" s="10"/>
+      <c r="AK249" s="10"/>
+      <c r="AL249" s="10"/>
+      <c r="AM249" s="10"/>
+      <c r="AN249" s="10"/>
+      <c r="AO249" s="10"/>
+      <c r="AP249" s="10"/>
+      <c r="AQ249" s="10"/>
+      <c r="AR249" s="10"/>
+      <c r="AS249" s="10"/>
+      <c r="AT249" s="10"/>
+      <c r="AU249" s="10"/>
+      <c r="AV249" s="10"/>
+      <c r="AW249" s="10"/>
+      <c r="AX249" s="10"/>
+      <c r="AY249" s="10"/>
+      <c r="AZ249" s="10"/>
+      <c r="BA249" s="10"/>
+      <c r="BB249" s="10"/>
+      <c r="BC249" s="10"/>
+      <c r="BD249" s="10"/>
+      <c r="BE249" s="10"/>
+      <c r="BF249" s="10"/>
+    </row>
+    <row r="250" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C250" s="9" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="10"/>
@@ -7668,9 +6817,40 @@
       <c r="AB250" s="10"/>
       <c r="AC250" s="10"/>
       <c r="AD250" s="10"/>
-    </row>
-    <row r="251" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C251" s="9"/>
+      <c r="AF250" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG250" s="10"/>
+      <c r="AH250" s="10"/>
+      <c r="AI250" s="10"/>
+      <c r="AJ250" s="10"/>
+      <c r="AK250" s="10"/>
+      <c r="AL250" s="10"/>
+      <c r="AM250" s="10"/>
+      <c r="AN250" s="10"/>
+      <c r="AO250" s="10"/>
+      <c r="AP250" s="10"/>
+      <c r="AQ250" s="10"/>
+      <c r="AR250" s="10"/>
+      <c r="AS250" s="10"/>
+      <c r="AT250" s="10"/>
+      <c r="AU250" s="10"/>
+      <c r="AV250" s="10"/>
+      <c r="AW250" s="10"/>
+      <c r="AX250" s="10"/>
+      <c r="AY250" s="10"/>
+      <c r="AZ250" s="10"/>
+      <c r="BA250" s="10"/>
+      <c r="BB250" s="10"/>
+      <c r="BC250" s="10"/>
+      <c r="BD250" s="10"/>
+      <c r="BE250" s="10"/>
+      <c r="BF250" s="10"/>
+    </row>
+    <row r="251" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C251" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
@@ -7698,10 +6878,39 @@
       <c r="AB251" s="10"/>
       <c r="AC251" s="10"/>
       <c r="AD251" s="10"/>
-    </row>
-    <row r="252" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF251" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG251" s="10"/>
+      <c r="AH251" s="10"/>
+      <c r="AI251" s="10"/>
+      <c r="AJ251" s="10"/>
+      <c r="AK251" s="10"/>
+      <c r="AL251" s="10"/>
+      <c r="AM251" s="10"/>
+      <c r="AN251" s="10"/>
+      <c r="AO251" s="10"/>
+      <c r="AP251" s="10"/>
+      <c r="AQ251" s="10"/>
+      <c r="AR251" s="10"/>
+      <c r="AS251" s="10"/>
+      <c r="AT251" s="10"/>
+      <c r="AU251" s="10"/>
+      <c r="AV251" s="10"/>
+      <c r="AW251" s="10"/>
+      <c r="AX251" s="10"/>
+      <c r="AY251" s="10"/>
+      <c r="AZ251" s="10"/>
+      <c r="BA251" s="10"/>
+      <c r="BB251" s="10"/>
+      <c r="BC251" s="10"/>
+      <c r="BD251" s="10"/>
+      <c r="BE251" s="10"/>
+      <c r="BF251" s="10"/>
+    </row>
+    <row r="252" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C252" s="9" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
@@ -7730,10 +6939,39 @@
       <c r="AB252" s="10"/>
       <c r="AC252" s="10"/>
       <c r="AD252" s="10"/>
-    </row>
-    <row r="253" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AF252" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG252" s="10"/>
+      <c r="AH252" s="10"/>
+      <c r="AI252" s="10"/>
+      <c r="AJ252" s="10"/>
+      <c r="AK252" s="10"/>
+      <c r="AL252" s="10"/>
+      <c r="AM252" s="10"/>
+      <c r="AN252" s="10"/>
+      <c r="AO252" s="10"/>
+      <c r="AP252" s="10"/>
+      <c r="AQ252" s="10"/>
+      <c r="AR252" s="10"/>
+      <c r="AS252" s="10"/>
+      <c r="AT252" s="10"/>
+      <c r="AU252" s="10"/>
+      <c r="AV252" s="10"/>
+      <c r="AW252" s="10"/>
+      <c r="AX252" s="10"/>
+      <c r="AY252" s="10"/>
+      <c r="AZ252" s="10"/>
+      <c r="BA252" s="10"/>
+      <c r="BB252" s="10"/>
+      <c r="BC252" s="10"/>
+      <c r="BD252" s="10"/>
+      <c r="BE252" s="10"/>
+      <c r="BF252" s="10"/>
+    </row>
+    <row r="253" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C253" s="9" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="10"/>
@@ -7762,6 +7000,1065 @@
       <c r="AB253" s="10"/>
       <c r="AC253" s="10"/>
       <c r="AD253" s="10"/>
+      <c r="AF253" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG253" s="10"/>
+      <c r="AH253" s="10"/>
+      <c r="AI253" s="10"/>
+      <c r="AJ253" s="10"/>
+      <c r="AK253" s="10"/>
+      <c r="AL253" s="10"/>
+      <c r="AM253" s="10"/>
+      <c r="AN253" s="10"/>
+      <c r="AO253" s="10"/>
+      <c r="AP253" s="10"/>
+      <c r="AQ253" s="10"/>
+      <c r="AR253" s="10"/>
+      <c r="AS253" s="10"/>
+      <c r="AT253" s="10"/>
+      <c r="AU253" s="10"/>
+      <c r="AV253" s="10"/>
+      <c r="AW253" s="10"/>
+      <c r="AX253" s="10"/>
+      <c r="AY253" s="10"/>
+      <c r="AZ253" s="10"/>
+      <c r="BA253" s="10"/>
+      <c r="BB253" s="10"/>
+      <c r="BC253" s="10"/>
+      <c r="BD253" s="10"/>
+      <c r="BE253" s="10"/>
+      <c r="BF253" s="10"/>
+    </row>
+    <row r="254" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C254" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="10"/>
+      <c r="L254" s="10"/>
+      <c r="M254" s="10"/>
+      <c r="N254" s="10"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="10"/>
+      <c r="Q254" s="10"/>
+      <c r="R254" s="10"/>
+      <c r="S254" s="10"/>
+      <c r="T254" s="10"/>
+      <c r="U254" s="10"/>
+      <c r="V254" s="10"/>
+      <c r="W254" s="10"/>
+      <c r="X254" s="10"/>
+      <c r="Y254" s="10"/>
+      <c r="Z254" s="10"/>
+      <c r="AA254" s="10"/>
+      <c r="AB254" s="10"/>
+      <c r="AC254" s="10"/>
+      <c r="AD254" s="10"/>
+      <c r="AF254" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG254" s="10"/>
+      <c r="AH254" s="10"/>
+      <c r="AI254" s="10"/>
+      <c r="AJ254" s="10"/>
+      <c r="AK254" s="10"/>
+      <c r="AL254" s="10"/>
+      <c r="AM254" s="10"/>
+      <c r="AN254" s="10"/>
+      <c r="AO254" s="10"/>
+      <c r="AP254" s="10"/>
+      <c r="AQ254" s="10"/>
+      <c r="AR254" s="10"/>
+      <c r="AS254" s="10"/>
+      <c r="AT254" s="10"/>
+      <c r="AU254" s="10"/>
+      <c r="AV254" s="10"/>
+      <c r="AW254" s="10"/>
+      <c r="AX254" s="10"/>
+      <c r="AY254" s="10"/>
+      <c r="AZ254" s="10"/>
+      <c r="BA254" s="10"/>
+      <c r="BB254" s="10"/>
+      <c r="BC254" s="10"/>
+      <c r="BD254" s="10"/>
+      <c r="BE254" s="10"/>
+      <c r="BF254" s="10"/>
+    </row>
+    <row r="255" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C255" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="10"/>
+      <c r="Q255" s="10"/>
+      <c r="R255" s="10"/>
+      <c r="S255" s="10"/>
+      <c r="T255" s="10"/>
+      <c r="U255" s="10"/>
+      <c r="V255" s="10"/>
+      <c r="W255" s="10"/>
+      <c r="X255" s="10"/>
+      <c r="Y255" s="10"/>
+      <c r="Z255" s="10"/>
+      <c r="AA255" s="10"/>
+      <c r="AB255" s="10"/>
+      <c r="AC255" s="10"/>
+      <c r="AD255" s="10"/>
+      <c r="AF255" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG255" s="10"/>
+      <c r="AH255" s="10"/>
+      <c r="AI255" s="10"/>
+      <c r="AJ255" s="10"/>
+      <c r="AK255" s="10"/>
+      <c r="AL255" s="10"/>
+      <c r="AM255" s="10"/>
+      <c r="AN255" s="10"/>
+      <c r="AO255" s="10"/>
+      <c r="AP255" s="10"/>
+      <c r="AQ255" s="10"/>
+      <c r="AR255" s="10"/>
+      <c r="AS255" s="10"/>
+      <c r="AT255" s="10"/>
+      <c r="AU255" s="10"/>
+      <c r="AV255" s="10"/>
+      <c r="AW255" s="10"/>
+      <c r="AX255" s="10"/>
+      <c r="AY255" s="10"/>
+      <c r="AZ255" s="10"/>
+      <c r="BA255" s="10"/>
+      <c r="BB255" s="10"/>
+      <c r="BC255" s="10"/>
+      <c r="BD255" s="10"/>
+      <c r="BE255" s="10"/>
+      <c r="BF255" s="10"/>
+    </row>
+    <row r="256" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C256" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
+      <c r="L256" s="10"/>
+      <c r="M256" s="10"/>
+      <c r="N256" s="10"/>
+      <c r="O256" s="10"/>
+      <c r="P256" s="10"/>
+      <c r="Q256" s="10"/>
+      <c r="R256" s="10"/>
+      <c r="S256" s="10"/>
+      <c r="T256" s="10"/>
+      <c r="U256" s="10"/>
+      <c r="V256" s="10"/>
+      <c r="W256" s="10"/>
+      <c r="X256" s="10"/>
+      <c r="Y256" s="10"/>
+      <c r="Z256" s="10"/>
+      <c r="AA256" s="10"/>
+      <c r="AB256" s="10"/>
+      <c r="AC256" s="10"/>
+      <c r="AD256" s="10"/>
+      <c r="AF256" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG256" s="10"/>
+      <c r="AH256" s="10"/>
+      <c r="AI256" s="10"/>
+      <c r="AJ256" s="10"/>
+      <c r="AK256" s="10"/>
+      <c r="AL256" s="10"/>
+      <c r="AM256" s="10"/>
+      <c r="AN256" s="10"/>
+      <c r="AO256" s="10"/>
+      <c r="AP256" s="10"/>
+      <c r="AQ256" s="10"/>
+      <c r="AR256" s="10"/>
+      <c r="AS256" s="10"/>
+      <c r="AT256" s="10"/>
+      <c r="AU256" s="10"/>
+      <c r="AV256" s="10"/>
+      <c r="AW256" s="10"/>
+      <c r="AX256" s="10"/>
+      <c r="AY256" s="10"/>
+      <c r="AZ256" s="10"/>
+      <c r="BA256" s="10"/>
+      <c r="BB256" s="10"/>
+      <c r="BC256" s="10"/>
+      <c r="BD256" s="10"/>
+      <c r="BE256" s="10"/>
+      <c r="BF256" s="10"/>
+    </row>
+    <row r="257" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C257" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="K257" s="10"/>
+      <c r="L257" s="10"/>
+      <c r="M257" s="10"/>
+      <c r="N257" s="10"/>
+      <c r="O257" s="10"/>
+      <c r="P257" s="10"/>
+      <c r="Q257" s="10"/>
+      <c r="R257" s="10"/>
+      <c r="S257" s="10"/>
+      <c r="T257" s="10"/>
+      <c r="U257" s="10"/>
+      <c r="V257" s="10"/>
+      <c r="W257" s="10"/>
+      <c r="X257" s="10"/>
+      <c r="Y257" s="10"/>
+      <c r="Z257" s="10"/>
+      <c r="AA257" s="10"/>
+      <c r="AB257" s="10"/>
+      <c r="AC257" s="10"/>
+      <c r="AD257" s="10"/>
+      <c r="AF257" s="9"/>
+      <c r="AG257" s="10"/>
+      <c r="AH257" s="10"/>
+      <c r="AI257" s="10"/>
+      <c r="AJ257" s="10"/>
+      <c r="AK257" s="10"/>
+      <c r="AL257" s="10"/>
+      <c r="AM257" s="10"/>
+      <c r="AN257" s="10"/>
+      <c r="AO257" s="10"/>
+      <c r="AP257" s="10"/>
+      <c r="AQ257" s="10"/>
+      <c r="AR257" s="10"/>
+      <c r="AS257" s="10"/>
+      <c r="AT257" s="10"/>
+      <c r="AU257" s="10"/>
+      <c r="AV257" s="10"/>
+      <c r="AW257" s="10"/>
+      <c r="AX257" s="10"/>
+      <c r="AY257" s="10"/>
+      <c r="AZ257" s="10"/>
+      <c r="BA257" s="10"/>
+      <c r="BB257" s="10"/>
+      <c r="BC257" s="10"/>
+      <c r="BD257" s="10"/>
+      <c r="BE257" s="10"/>
+      <c r="BF257" s="10"/>
+    </row>
+    <row r="258" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C258" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10"/>
+      <c r="Q258" s="10"/>
+      <c r="R258" s="10"/>
+      <c r="S258" s="10"/>
+      <c r="T258" s="10"/>
+      <c r="U258" s="10"/>
+      <c r="V258" s="10"/>
+      <c r="W258" s="10"/>
+      <c r="X258" s="10"/>
+      <c r="Y258" s="10"/>
+      <c r="Z258" s="10"/>
+      <c r="AA258" s="10"/>
+      <c r="AB258" s="10"/>
+      <c r="AC258" s="10"/>
+      <c r="AD258" s="10"/>
+      <c r="AF258" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG258" s="10"/>
+      <c r="AH258" s="10"/>
+      <c r="AI258" s="10"/>
+      <c r="AJ258" s="10"/>
+      <c r="AK258" s="10"/>
+      <c r="AL258" s="10"/>
+      <c r="AM258" s="10"/>
+      <c r="AN258" s="10"/>
+      <c r="AO258" s="10"/>
+      <c r="AP258" s="10"/>
+      <c r="AQ258" s="10"/>
+      <c r="AR258" s="10"/>
+      <c r="AS258" s="10"/>
+      <c r="AT258" s="10"/>
+      <c r="AU258" s="10"/>
+      <c r="AV258" s="10"/>
+      <c r="AW258" s="10"/>
+      <c r="AX258" s="10"/>
+      <c r="AY258" s="10"/>
+      <c r="AZ258" s="10"/>
+      <c r="BA258" s="10"/>
+      <c r="BB258" s="10"/>
+      <c r="BC258" s="10"/>
+      <c r="BD258" s="10"/>
+      <c r="BE258" s="10"/>
+      <c r="BF258" s="10"/>
+    </row>
+    <row r="259" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C259" s="9"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
+      <c r="L259" s="10"/>
+      <c r="M259" s="10"/>
+      <c r="N259" s="10"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="10"/>
+      <c r="Q259" s="10"/>
+      <c r="R259" s="10"/>
+      <c r="S259" s="10"/>
+      <c r="T259" s="10"/>
+      <c r="U259" s="10"/>
+      <c r="V259" s="10"/>
+      <c r="W259" s="10"/>
+      <c r="X259" s="10"/>
+      <c r="Y259" s="10"/>
+      <c r="Z259" s="10"/>
+      <c r="AA259" s="10"/>
+      <c r="AB259" s="10"/>
+      <c r="AC259" s="10"/>
+      <c r="AD259" s="10"/>
+      <c r="AF259" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG259" s="10"/>
+      <c r="AH259" s="10"/>
+      <c r="AI259" s="10"/>
+      <c r="AJ259" s="10"/>
+      <c r="AK259" s="10"/>
+      <c r="AL259" s="10"/>
+      <c r="AM259" s="10"/>
+      <c r="AN259" s="10"/>
+      <c r="AO259" s="10"/>
+      <c r="AP259" s="10"/>
+      <c r="AQ259" s="10"/>
+      <c r="AR259" s="10"/>
+      <c r="AS259" s="10"/>
+      <c r="AT259" s="10"/>
+      <c r="AU259" s="10"/>
+      <c r="AV259" s="10"/>
+      <c r="AW259" s="10"/>
+      <c r="AX259" s="10"/>
+      <c r="AY259" s="10"/>
+      <c r="AZ259" s="10"/>
+      <c r="BA259" s="10"/>
+      <c r="BB259" s="10"/>
+      <c r="BC259" s="10"/>
+      <c r="BD259" s="10"/>
+      <c r="BE259" s="10"/>
+      <c r="BF259" s="10"/>
+    </row>
+    <row r="260" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C260" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+      <c r="K260" s="10"/>
+      <c r="L260" s="10"/>
+      <c r="M260" s="10"/>
+      <c r="N260" s="10"/>
+      <c r="O260" s="10"/>
+      <c r="P260" s="10"/>
+      <c r="Q260" s="10"/>
+      <c r="R260" s="10"/>
+      <c r="S260" s="10"/>
+      <c r="T260" s="10"/>
+      <c r="U260" s="10"/>
+      <c r="V260" s="10"/>
+      <c r="W260" s="10"/>
+      <c r="X260" s="10"/>
+      <c r="Y260" s="10"/>
+      <c r="Z260" s="10"/>
+      <c r="AA260" s="10"/>
+      <c r="AB260" s="10"/>
+      <c r="AC260" s="10"/>
+      <c r="AD260" s="10"/>
+    </row>
+    <row r="261" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C261" s="9"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+      <c r="K261" s="10"/>
+      <c r="L261" s="10"/>
+      <c r="M261" s="10"/>
+      <c r="N261" s="10"/>
+      <c r="O261" s="10"/>
+      <c r="P261" s="10"/>
+      <c r="Q261" s="10"/>
+      <c r="R261" s="10"/>
+      <c r="S261" s="10"/>
+      <c r="T261" s="10"/>
+      <c r="U261" s="10"/>
+      <c r="V261" s="10"/>
+      <c r="W261" s="10"/>
+      <c r="X261" s="10"/>
+      <c r="Y261" s="10"/>
+      <c r="Z261" s="10"/>
+      <c r="AA261" s="10"/>
+      <c r="AB261" s="10"/>
+      <c r="AC261" s="10"/>
+      <c r="AD261" s="10"/>
+    </row>
+    <row r="262" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C262" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+      <c r="G262" s="10"/>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="10"/>
+      <c r="K262" s="10"/>
+      <c r="L262" s="10"/>
+      <c r="M262" s="10"/>
+      <c r="N262" s="10"/>
+      <c r="O262" s="10"/>
+      <c r="P262" s="10"/>
+      <c r="Q262" s="10"/>
+      <c r="R262" s="10"/>
+      <c r="S262" s="10"/>
+      <c r="T262" s="10"/>
+      <c r="U262" s="10"/>
+      <c r="V262" s="10"/>
+      <c r="W262" s="10"/>
+      <c r="X262" s="10"/>
+      <c r="Y262" s="10"/>
+      <c r="Z262" s="10"/>
+      <c r="AA262" s="10"/>
+      <c r="AB262" s="10"/>
+      <c r="AC262" s="10"/>
+      <c r="AD262" s="10"/>
+    </row>
+    <row r="263" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C263" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+      <c r="K263" s="10"/>
+      <c r="L263" s="10"/>
+      <c r="M263" s="10"/>
+      <c r="N263" s="10"/>
+      <c r="O263" s="10"/>
+      <c r="P263" s="10"/>
+      <c r="Q263" s="10"/>
+      <c r="R263" s="10"/>
+      <c r="S263" s="10"/>
+      <c r="T263" s="10"/>
+      <c r="U263" s="10"/>
+      <c r="V263" s="10"/>
+      <c r="W263" s="10"/>
+      <c r="X263" s="10"/>
+      <c r="Y263" s="10"/>
+      <c r="Z263" s="10"/>
+      <c r="AA263" s="10"/>
+      <c r="AB263" s="10"/>
+      <c r="AC263" s="10"/>
+      <c r="AD263" s="10"/>
+    </row>
+    <row r="264" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C264" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
+      <c r="L264" s="10"/>
+      <c r="M264" s="10"/>
+      <c r="N264" s="10"/>
+      <c r="O264" s="10"/>
+      <c r="P264" s="10"/>
+      <c r="Q264" s="10"/>
+      <c r="R264" s="10"/>
+      <c r="S264" s="10"/>
+      <c r="T264" s="10"/>
+      <c r="U264" s="10"/>
+      <c r="V264" s="10"/>
+      <c r="W264" s="10"/>
+      <c r="X264" s="10"/>
+      <c r="Y264" s="10"/>
+      <c r="Z264" s="10"/>
+      <c r="AA264" s="10"/>
+      <c r="AB264" s="10"/>
+      <c r="AC264" s="10"/>
+      <c r="AD264" s="10"/>
+    </row>
+    <row r="265" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C265" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10"/>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
+      <c r="T265" s="10"/>
+      <c r="U265" s="10"/>
+      <c r="V265" s="10"/>
+      <c r="W265" s="10"/>
+      <c r="X265" s="10"/>
+      <c r="Y265" s="10"/>
+      <c r="Z265" s="10"/>
+      <c r="AA265" s="10"/>
+      <c r="AB265" s="10"/>
+      <c r="AC265" s="10"/>
+      <c r="AD265" s="10"/>
+    </row>
+    <row r="266" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C266" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
+      <c r="L266" s="10"/>
+      <c r="M266" s="10"/>
+      <c r="N266" s="10"/>
+      <c r="O266" s="10"/>
+      <c r="P266" s="10"/>
+      <c r="Q266" s="10"/>
+      <c r="R266" s="10"/>
+      <c r="S266" s="10"/>
+      <c r="T266" s="10"/>
+      <c r="U266" s="10"/>
+      <c r="V266" s="10"/>
+      <c r="W266" s="10"/>
+      <c r="X266" s="10"/>
+      <c r="Y266" s="10"/>
+      <c r="Z266" s="10"/>
+      <c r="AA266" s="10"/>
+      <c r="AB266" s="10"/>
+      <c r="AC266" s="10"/>
+      <c r="AD266" s="10"/>
+    </row>
+    <row r="267" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C267" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
+      <c r="T267" s="10"/>
+      <c r="U267" s="10"/>
+      <c r="V267" s="10"/>
+      <c r="W267" s="10"/>
+      <c r="X267" s="10"/>
+      <c r="Y267" s="10"/>
+      <c r="Z267" s="10"/>
+      <c r="AA267" s="10"/>
+      <c r="AB267" s="10"/>
+      <c r="AC267" s="10"/>
+      <c r="AD267" s="10"/>
+    </row>
+    <row r="268" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C268" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+      <c r="K268" s="10"/>
+      <c r="L268" s="10"/>
+      <c r="M268" s="10"/>
+      <c r="N268" s="10"/>
+      <c r="O268" s="10"/>
+      <c r="P268" s="10"/>
+      <c r="Q268" s="10"/>
+      <c r="R268" s="10"/>
+      <c r="S268" s="10"/>
+      <c r="T268" s="10"/>
+      <c r="U268" s="10"/>
+      <c r="V268" s="10"/>
+      <c r="W268" s="10"/>
+      <c r="X268" s="10"/>
+      <c r="Y268" s="10"/>
+      <c r="Z268" s="10"/>
+      <c r="AA268" s="10"/>
+      <c r="AB268" s="10"/>
+      <c r="AC268" s="10"/>
+      <c r="AD268" s="10"/>
+    </row>
+    <row r="269" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C269" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="10"/>
+      <c r="S269" s="10"/>
+      <c r="T269" s="10"/>
+      <c r="U269" s="10"/>
+      <c r="V269" s="10"/>
+      <c r="W269" s="10"/>
+      <c r="X269" s="10"/>
+      <c r="Y269" s="10"/>
+      <c r="Z269" s="10"/>
+      <c r="AA269" s="10"/>
+      <c r="AB269" s="10"/>
+      <c r="AC269" s="10"/>
+      <c r="AD269" s="10"/>
+    </row>
+    <row r="270" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C270" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="10"/>
+      <c r="K270" s="10"/>
+      <c r="L270" s="10"/>
+      <c r="M270" s="10"/>
+      <c r="N270" s="10"/>
+      <c r="O270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="10"/>
+      <c r="R270" s="10"/>
+      <c r="S270" s="10"/>
+      <c r="T270" s="10"/>
+      <c r="U270" s="10"/>
+      <c r="V270" s="10"/>
+      <c r="W270" s="10"/>
+      <c r="X270" s="10"/>
+      <c r="Y270" s="10"/>
+      <c r="Z270" s="10"/>
+      <c r="AA270" s="10"/>
+      <c r="AB270" s="10"/>
+      <c r="AC270" s="10"/>
+      <c r="AD270" s="10"/>
+    </row>
+    <row r="271" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C271" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+      <c r="S271" s="10"/>
+      <c r="T271" s="10"/>
+      <c r="U271" s="10"/>
+      <c r="V271" s="10"/>
+      <c r="W271" s="10"/>
+      <c r="X271" s="10"/>
+      <c r="Y271" s="10"/>
+      <c r="Z271" s="10"/>
+      <c r="AA271" s="10"/>
+      <c r="AB271" s="10"/>
+      <c r="AC271" s="10"/>
+      <c r="AD271" s="10"/>
+    </row>
+    <row r="272" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C272" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10"/>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
+      <c r="L272" s="10"/>
+      <c r="M272" s="10"/>
+      <c r="N272" s="10"/>
+      <c r="O272" s="10"/>
+      <c r="P272" s="10"/>
+      <c r="Q272" s="10"/>
+      <c r="R272" s="10"/>
+      <c r="S272" s="10"/>
+      <c r="T272" s="10"/>
+      <c r="U272" s="10"/>
+      <c r="V272" s="10"/>
+      <c r="W272" s="10"/>
+      <c r="X272" s="10"/>
+      <c r="Y272" s="10"/>
+      <c r="Z272" s="10"/>
+      <c r="AA272" s="10"/>
+      <c r="AB272" s="10"/>
+      <c r="AC272" s="10"/>
+      <c r="AD272" s="10"/>
+    </row>
+    <row r="273" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C273" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="10"/>
+      <c r="N273" s="10"/>
+      <c r="O273" s="10"/>
+      <c r="P273" s="10"/>
+      <c r="Q273" s="10"/>
+      <c r="R273" s="10"/>
+      <c r="S273" s="10"/>
+      <c r="T273" s="10"/>
+      <c r="U273" s="10"/>
+      <c r="V273" s="10"/>
+      <c r="W273" s="10"/>
+      <c r="X273" s="10"/>
+      <c r="Y273" s="10"/>
+      <c r="Z273" s="10"/>
+      <c r="AA273" s="10"/>
+      <c r="AB273" s="10"/>
+      <c r="AC273" s="10"/>
+      <c r="AD273" s="10"/>
+    </row>
+    <row r="274" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C274" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="10"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="10"/>
+      <c r="M274" s="10"/>
+      <c r="N274" s="10"/>
+      <c r="O274" s="10"/>
+      <c r="P274" s="10"/>
+      <c r="Q274" s="10"/>
+      <c r="R274" s="10"/>
+      <c r="S274" s="10"/>
+      <c r="T274" s="10"/>
+      <c r="U274" s="10"/>
+      <c r="V274" s="10"/>
+      <c r="W274" s="10"/>
+      <c r="X274" s="10"/>
+      <c r="Y274" s="10"/>
+      <c r="Z274" s="10"/>
+      <c r="AA274" s="10"/>
+      <c r="AB274" s="10"/>
+      <c r="AC274" s="10"/>
+      <c r="AD274" s="10"/>
+    </row>
+    <row r="275" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C275" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="10"/>
+      <c r="M275" s="10"/>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+      <c r="P275" s="10"/>
+      <c r="Q275" s="10"/>
+      <c r="R275" s="10"/>
+      <c r="S275" s="10"/>
+      <c r="T275" s="10"/>
+      <c r="U275" s="10"/>
+      <c r="V275" s="10"/>
+      <c r="W275" s="10"/>
+      <c r="X275" s="10"/>
+      <c r="Y275" s="10"/>
+      <c r="Z275" s="10"/>
+      <c r="AA275" s="10"/>
+      <c r="AB275" s="10"/>
+      <c r="AC275" s="10"/>
+      <c r="AD275" s="10"/>
+    </row>
+    <row r="276" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C276" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="10"/>
+      <c r="K276" s="10"/>
+      <c r="L276" s="10"/>
+      <c r="M276" s="10"/>
+      <c r="N276" s="10"/>
+      <c r="O276" s="10"/>
+      <c r="P276" s="10"/>
+      <c r="Q276" s="10"/>
+      <c r="R276" s="10"/>
+      <c r="S276" s="10"/>
+      <c r="T276" s="10"/>
+      <c r="U276" s="10"/>
+      <c r="V276" s="10"/>
+      <c r="W276" s="10"/>
+      <c r="X276" s="10"/>
+      <c r="Y276" s="10"/>
+      <c r="Z276" s="10"/>
+      <c r="AA276" s="10"/>
+      <c r="AB276" s="10"/>
+      <c r="AC276" s="10"/>
+      <c r="AD276" s="10"/>
+    </row>
+    <row r="277" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C277" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10"/>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="10"/>
+      <c r="R277" s="10"/>
+      <c r="S277" s="10"/>
+      <c r="T277" s="10"/>
+      <c r="U277" s="10"/>
+      <c r="V277" s="10"/>
+      <c r="W277" s="10"/>
+      <c r="X277" s="10"/>
+      <c r="Y277" s="10"/>
+      <c r="Z277" s="10"/>
+      <c r="AA277" s="10"/>
+      <c r="AB277" s="10"/>
+      <c r="AC277" s="10"/>
+      <c r="AD277" s="10"/>
+    </row>
+    <row r="278" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C278" s="9"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="10"/>
+      <c r="K278" s="10"/>
+      <c r="L278" s="10"/>
+      <c r="M278" s="10"/>
+      <c r="N278" s="10"/>
+      <c r="O278" s="10"/>
+      <c r="P278" s="10"/>
+      <c r="Q278" s="10"/>
+      <c r="R278" s="10"/>
+      <c r="S278" s="10"/>
+      <c r="T278" s="10"/>
+      <c r="U278" s="10"/>
+      <c r="V278" s="10"/>
+      <c r="W278" s="10"/>
+      <c r="X278" s="10"/>
+      <c r="Y278" s="10"/>
+      <c r="Z278" s="10"/>
+      <c r="AA278" s="10"/>
+      <c r="AB278" s="10"/>
+      <c r="AC278" s="10"/>
+      <c r="AD278" s="10"/>
+    </row>
+    <row r="279" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C279" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="10"/>
+      <c r="K279" s="10"/>
+      <c r="L279" s="10"/>
+      <c r="M279" s="10"/>
+      <c r="N279" s="10"/>
+      <c r="O279" s="10"/>
+      <c r="P279" s="10"/>
+      <c r="Q279" s="10"/>
+      <c r="R279" s="10"/>
+      <c r="S279" s="10"/>
+      <c r="T279" s="10"/>
+      <c r="U279" s="10"/>
+      <c r="V279" s="10"/>
+      <c r="W279" s="10"/>
+      <c r="X279" s="10"/>
+      <c r="Y279" s="10"/>
+      <c r="Z279" s="10"/>
+      <c r="AA279" s="10"/>
+      <c r="AB279" s="10"/>
+      <c r="AC279" s="10"/>
+      <c r="AD279" s="10"/>
+    </row>
+    <row r="280" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C280" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="10"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="10"/>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
+      <c r="P280" s="10"/>
+      <c r="Q280" s="10"/>
+      <c r="R280" s="10"/>
+      <c r="S280" s="10"/>
+      <c r="T280" s="10"/>
+      <c r="U280" s="10"/>
+      <c r="V280" s="10"/>
+      <c r="W280" s="10"/>
+      <c r="X280" s="10"/>
+      <c r="Y280" s="10"/>
+      <c r="Z280" s="10"/>
+      <c r="AA280" s="10"/>
+      <c r="AB280" s="10"/>
+      <c r="AC280" s="10"/>
+      <c r="AD280" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
